--- a/BackTest/2019-10-19 BackTest KNC.xlsx
+++ b/BackTest/2019-10-19 BackTest KNC.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>11</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-27.27272727272727</v>
+      </c>
       <c r="L12" t="n">
         <v>218.4</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>13</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-7.692307692307693</v>
+      </c>
       <c r="L13" t="n">
         <v>218.3</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>14</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-14.28571428571428</v>
+      </c>
       <c r="L14" t="n">
         <v>218.1</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>15</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-14.28571428571428</v>
+      </c>
       <c r="L15" t="n">
         <v>217.8</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>16</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-14.28571428571428</v>
+      </c>
       <c r="L16" t="n">
         <v>217.7</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>16</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-14.28571428571428</v>
+      </c>
       <c r="L17" t="n">
         <v>217.5</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>17</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-7.692307692307693</v>
+      </c>
       <c r="L18" t="n">
         <v>217.2</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>17</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-16.66666666666666</v>
+      </c>
       <c r="L19" t="n">
         <v>217.1</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>18</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-27.27272727272727</v>
+      </c>
       <c r="L20" t="n">
         <v>217</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>19</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
       <c r="L21" t="n">
         <v>216.6</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>19</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L22" t="n">
         <v>216.6</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>19</v>
       </c>
       <c r="K23" t="n">
-        <v>-15.78947368421053</v>
+        <v>-20</v>
       </c>
       <c r="L23" t="n">
         <v>216.4</v>
@@ -1466,7 +1488,7 @@
         <v>19</v>
       </c>
       <c r="K24" t="n">
-        <v>-15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>216.3</v>
@@ -1515,7 +1537,7 @@
         <v>19</v>
       </c>
       <c r="K25" t="n">
-        <v>-15.78947368421053</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L25" t="n">
         <v>216.3</v>
@@ -1564,7 +1586,7 @@
         <v>19</v>
       </c>
       <c r="K26" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L26" t="n">
         <v>216.2</v>
@@ -1613,7 +1635,7 @@
         <v>21</v>
       </c>
       <c r="K27" t="n">
-        <v>-5.263157894736842</v>
+        <v>50</v>
       </c>
       <c r="L27" t="n">
         <v>216.3</v>
@@ -1662,7 +1684,7 @@
         <v>23</v>
       </c>
       <c r="K28" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>216.3</v>
@@ -1711,7 +1733,7 @@
         <v>25</v>
       </c>
       <c r="K29" t="n">
-        <v>4.761904761904762</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L29" t="n">
         <v>216.5</v>
@@ -1760,7 +1782,7 @@
         <v>26</v>
       </c>
       <c r="K30" t="n">
-        <v>-4.761904761904762</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L30" t="n">
         <v>216.5</v>
@@ -1809,7 +1831,7 @@
         <v>26</v>
       </c>
       <c r="K31" t="n">
-        <v>-15.78947368421053</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L31" t="n">
         <v>216.6</v>
@@ -1860,7 +1882,7 @@
         <v>26</v>
       </c>
       <c r="K32" t="n">
-        <v>6.666666666666667</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L32" t="n">
         <v>216.7</v>
@@ -1911,7 +1933,7 @@
         <v>26</v>
       </c>
       <c r="K33" t="n">
-        <v>-7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L33" t="n">
         <v>216.8</v>
@@ -1962,7 +1984,7 @@
         <v>27</v>
       </c>
       <c r="K34" t="n">
-        <v>7.692307692307693</v>
+        <v>25</v>
       </c>
       <c r="L34" t="n">
         <v>217</v>
@@ -2013,7 +2035,7 @@
         <v>28</v>
       </c>
       <c r="K35" t="n">
-        <v>7.692307692307693</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L35" t="n">
         <v>217.1</v>
@@ -2064,7 +2086,7 @@
         <v>29</v>
       </c>
       <c r="K36" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>217.3</v>
@@ -2115,7 +2137,7 @@
         <v>30</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L37" t="n">
         <v>217.2</v>
@@ -2166,7 +2188,7 @@
         <v>30</v>
       </c>
       <c r="K38" t="n">
-        <v>7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L38" t="n">
         <v>217.3</v>
@@ -2217,7 +2239,7 @@
         <v>30</v>
       </c>
       <c r="K39" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>217.2</v>
@@ -2319,7 +2341,7 @@
         <v>31</v>
       </c>
       <c r="K41" t="n">
-        <v>16.66666666666666</v>
+        <v>20</v>
       </c>
       <c r="L41" t="n">
         <v>217.3</v>
@@ -2370,7 +2392,7 @@
         <v>31</v>
       </c>
       <c r="K42" t="n">
-        <v>16.66666666666666</v>
+        <v>20</v>
       </c>
       <c r="L42" t="n">
         <v>217.4</v>
@@ -2421,7 +2443,7 @@
         <v>32</v>
       </c>
       <c r="K43" t="n">
-        <v>23.07692307692308</v>
+        <v>20</v>
       </c>
       <c r="L43" t="n">
         <v>217.6</v>
@@ -2472,7 +2494,7 @@
         <v>34</v>
       </c>
       <c r="K44" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>217.5</v>
@@ -2523,7 +2545,7 @@
         <v>36</v>
       </c>
       <c r="K45" t="n">
-        <v>17.64705882352941</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L45" t="n">
         <v>217.7</v>
@@ -2574,7 +2596,7 @@
         <v>37</v>
       </c>
       <c r="K46" t="n">
-        <v>22.22222222222222</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L46" t="n">
         <v>217.9</v>
@@ -2625,7 +2647,7 @@
         <v>40</v>
       </c>
       <c r="K47" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>217.9</v>
@@ -2676,7 +2698,7 @@
         <v>40</v>
       </c>
       <c r="K48" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>217.9</v>
@@ -2727,7 +2749,7 @@
         <v>41</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L49" t="n">
         <v>218</v>
@@ -2778,7 +2800,7 @@
         <v>41</v>
       </c>
       <c r="K50" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>218.1</v>
@@ -2829,7 +2851,7 @@
         <v>41</v>
       </c>
       <c r="K51" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>218.1</v>
@@ -2880,7 +2902,7 @@
         <v>42</v>
       </c>
       <c r="K52" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>218.2</v>
@@ -2931,7 +2953,7 @@
         <v>42</v>
       </c>
       <c r="K53" t="n">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="L53" t="n">
         <v>218.2</v>
@@ -2982,7 +3004,7 @@
         <v>42</v>
       </c>
       <c r="K54" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>218.4</v>
@@ -3033,7 +3055,7 @@
         <v>42</v>
       </c>
       <c r="K55" t="n">
-        <v>14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L55" t="n">
         <v>218.4</v>
@@ -3084,7 +3106,7 @@
         <v>42</v>
       </c>
       <c r="K56" t="n">
-        <v>7.692307692307693</v>
+        <v>100</v>
       </c>
       <c r="L56" t="n">
         <v>218.3</v>
@@ -3135,7 +3157,7 @@
         <v>43</v>
       </c>
       <c r="K57" t="n">
-        <v>23.07692307692308</v>
+        <v>100</v>
       </c>
       <c r="L57" t="n">
         <v>218.6</v>
@@ -3186,7 +3208,7 @@
         <v>43</v>
       </c>
       <c r="K58" t="n">
-        <v>23.07692307692308</v>
+        <v>100</v>
       </c>
       <c r="L58" t="n">
         <v>218.9</v>
@@ -3237,7 +3259,7 @@
         <v>45</v>
       </c>
       <c r="K59" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
         <v>218.9</v>
@@ -3288,7 +3310,7 @@
         <v>45</v>
       </c>
       <c r="K60" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>218.9</v>
@@ -3339,7 +3361,7 @@
         <v>47</v>
       </c>
       <c r="K61" t="n">
-        <v>-12.5</v>
+        <v>-60</v>
       </c>
       <c r="L61" t="n">
         <v>218.7</v>
@@ -3390,7 +3412,7 @@
         <v>48</v>
       </c>
       <c r="K62" t="n">
-        <v>-5.88235294117647</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L62" t="n">
         <v>218.5</v>
@@ -3492,7 +3514,7 @@
         <v>51</v>
       </c>
       <c r="K64" t="n">
-        <v>17.64705882352941</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L64" t="n">
         <v>218.6</v>
@@ -3543,7 +3565,7 @@
         <v>53</v>
       </c>
       <c r="K65" t="n">
-        <v>-5.88235294117647</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L65" t="n">
         <v>218.5</v>
@@ -3594,7 +3616,7 @@
         <v>54</v>
       </c>
       <c r="K66" t="n">
-        <v>-5.88235294117647</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L66" t="n">
         <v>218.5</v>
@@ -3645,7 +3667,7 @@
         <v>57</v>
       </c>
       <c r="K67" t="n">
-        <v>-5.88235294117647</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L67" t="n">
         <v>218.1</v>
@@ -3696,7 +3718,7 @@
         <v>59</v>
       </c>
       <c r="K68" t="n">
-        <v>5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
         <v>217.9</v>
@@ -3798,7 +3820,7 @@
         <v>60</v>
       </c>
       <c r="K70" t="n">
-        <v>-5.263157894736842</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L70" t="n">
         <v>217.8</v>
@@ -3849,7 +3871,7 @@
         <v>60</v>
       </c>
       <c r="K71" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
         <v>217.9</v>
@@ -3900,7 +3922,7 @@
         <v>61</v>
       </c>
       <c r="K72" t="n">
-        <v>-5.263157894736842</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L72" t="n">
         <v>218</v>
@@ -3951,7 +3973,7 @@
         <v>61</v>
       </c>
       <c r="K73" t="n">
-        <v>-5.263157894736842</v>
+        <v>-20</v>
       </c>
       <c r="L73" t="n">
         <v>217.9</v>
@@ -4002,7 +4024,7 @@
         <v>61</v>
       </c>
       <c r="K74" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
         <v>217.7</v>
@@ -4053,7 +4075,7 @@
         <v>62</v>
       </c>
       <c r="K75" t="n">
-        <v>-10</v>
+        <v>-25</v>
       </c>
       <c r="L75" t="n">
         <v>217.6</v>
@@ -4104,7 +4126,7 @@
         <v>64</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L76" t="n">
         <v>217.6</v>
@@ -4155,7 +4177,7 @@
         <v>65</v>
       </c>
       <c r="K77" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L77" t="n">
         <v>217.8</v>
@@ -4206,7 +4228,7 @@
         <v>67</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L78" t="n">
         <v>218</v>
@@ -4257,7 +4279,7 @@
         <v>69</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L79" t="n">
         <v>218</v>
@@ -4308,7 +4330,7 @@
         <v>69</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L80" t="n">
         <v>218.1</v>
@@ -4359,7 +4381,7 @@
         <v>69</v>
       </c>
       <c r="K81" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
         <v>218.2</v>
@@ -4410,7 +4432,7 @@
         <v>69</v>
       </c>
       <c r="K82" t="n">
-        <v>4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
         <v>218.2</v>
@@ -4461,7 +4483,7 @@
         <v>71</v>
       </c>
       <c r="K83" t="n">
-        <v>4.761904761904762</v>
+        <v>20</v>
       </c>
       <c r="L83" t="n">
         <v>218.4</v>
@@ -4512,7 +4534,7 @@
         <v>73</v>
       </c>
       <c r="K84" t="n">
-        <v>-9.090909090909092</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L84" t="n">
         <v>218.4</v>
@@ -4563,7 +4585,7 @@
         <v>73</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L85" t="n">
         <v>218.5</v>
@@ -4614,7 +4636,7 @@
         <v>75</v>
       </c>
       <c r="K86" t="n">
-        <v>4.761904761904762</v>
+        <v>20</v>
       </c>
       <c r="L86" t="n">
         <v>218.6</v>
@@ -4665,7 +4687,7 @@
         <v>77</v>
       </c>
       <c r="K87" t="n">
-        <v>10</v>
+        <v>-20</v>
       </c>
       <c r="L87" t="n">
         <v>218.6</v>
@@ -4716,7 +4738,7 @@
         <v>78</v>
       </c>
       <c r="K88" t="n">
-        <v>5.263157894736842</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L88" t="n">
         <v>218.5</v>
@@ -4767,7 +4789,7 @@
         <v>79</v>
       </c>
       <c r="K89" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L89" t="n">
         <v>218.7</v>
@@ -4818,7 +4840,7 @@
         <v>79</v>
       </c>
       <c r="K90" t="n">
-        <v>15.78947368421053</v>
+        <v>20</v>
       </c>
       <c r="L90" t="n">
         <v>218.9</v>
@@ -4869,7 +4891,7 @@
         <v>80</v>
       </c>
       <c r="K91" t="n">
-        <v>10</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L91" t="n">
         <v>219</v>
@@ -4920,7 +4942,7 @@
         <v>80</v>
       </c>
       <c r="K92" t="n">
-        <v>5.263157894736842</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L92" t="n">
         <v>219.1</v>
@@ -4971,7 +4993,7 @@
         <v>80</v>
       </c>
       <c r="K93" t="n">
-        <v>5.263157894736842</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L93" t="n">
         <v>219</v>
@@ -5022,7 +5044,7 @@
         <v>80</v>
       </c>
       <c r="K94" t="n">
-        <v>5.263157894736842</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L94" t="n">
         <v>219.1</v>
@@ -5073,7 +5095,7 @@
         <v>80</v>
       </c>
       <c r="K95" t="n">
-        <v>11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L95" t="n">
         <v>219.2</v>
@@ -5124,7 +5146,7 @@
         <v>81</v>
       </c>
       <c r="K96" t="n">
-        <v>5.88235294117647</v>
+        <v>50</v>
       </c>
       <c r="L96" t="n">
         <v>219.2</v>
@@ -5175,7 +5197,7 @@
         <v>82</v>
       </c>
       <c r="K97" t="n">
-        <v>17.64705882352941</v>
+        <v>50</v>
       </c>
       <c r="L97" t="n">
         <v>219.5</v>
@@ -5226,7 +5248,7 @@
         <v>82</v>
       </c>
       <c r="K98" t="n">
-        <v>6.666666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L98" t="n">
         <v>219.7</v>
@@ -5277,7 +5299,7 @@
         <v>87</v>
       </c>
       <c r="K99" t="n">
-        <v>44.44444444444444</v>
+        <v>75</v>
       </c>
       <c r="L99" t="n">
         <v>220.3</v>
@@ -5328,7 +5350,7 @@
         <v>90</v>
       </c>
       <c r="K100" t="n">
-        <v>23.80952380952381</v>
+        <v>40</v>
       </c>
       <c r="L100" t="n">
         <v>220.6</v>
@@ -5379,7 +5401,7 @@
         <v>92</v>
       </c>
       <c r="K101" t="n">
-        <v>30.43478260869566</v>
+        <v>50</v>
       </c>
       <c r="L101" t="n">
         <v>221.2</v>
@@ -5430,7 +5452,7 @@
         <v>92</v>
       </c>
       <c r="K102" t="n">
-        <v>30.43478260869566</v>
+        <v>50</v>
       </c>
       <c r="L102" t="n">
         <v>221.8</v>
@@ -5481,7 +5503,7 @@
         <v>94</v>
       </c>
       <c r="K103" t="n">
-        <v>13.04347826086956</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L103" t="n">
         <v>222.2</v>
@@ -5532,7 +5554,7 @@
         <v>94</v>
       </c>
       <c r="K104" t="n">
-        <v>23.80952380952381</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L104" t="n">
         <v>222.6</v>
@@ -5583,7 +5605,7 @@
         <v>94</v>
       </c>
       <c r="K105" t="n">
-        <v>23.80952380952381</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L105" t="n">
         <v>223</v>
@@ -5634,7 +5656,7 @@
         <v>95</v>
       </c>
       <c r="K106" t="n">
-        <v>20</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L106" t="n">
         <v>223.4</v>
@@ -5685,7 +5707,7 @@
         <v>97</v>
       </c>
       <c r="K107" t="n">
-        <v>20</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L107" t="n">
         <v>223.5</v>
@@ -5736,7 +5758,7 @@
         <v>101</v>
       </c>
       <c r="K108" t="n">
-        <v>30.43478260869566</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
         <v>224</v>
@@ -5787,7 +5809,7 @@
         <v>103</v>
       </c>
       <c r="K109" t="n">
-        <v>16.66666666666666</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L109" t="n">
         <v>223.8</v>
@@ -5838,7 +5860,7 @@
         <v>105</v>
       </c>
       <c r="K110" t="n">
-        <v>7.692307692307693</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L110" t="n">
         <v>223.7</v>
@@ -5889,7 +5911,7 @@
         <v>105</v>
       </c>
       <c r="K111" t="n">
-        <v>12</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L111" t="n">
         <v>223.4</v>
@@ -5940,7 +5962,7 @@
         <v>107</v>
       </c>
       <c r="K112" t="n">
-        <v>18.51851851851852</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L112" t="n">
         <v>223.3</v>
@@ -5991,7 +6013,7 @@
         <v>108</v>
       </c>
       <c r="K113" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L113" t="n">
         <v>223.3</v>
@@ -6042,7 +6064,7 @@
         <v>108</v>
       </c>
       <c r="K114" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L114" t="n">
         <v>223.3</v>
@@ -6093,7 +6115,7 @@
         <v>109</v>
       </c>
       <c r="K115" t="n">
-        <v>10.3448275862069</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L115" t="n">
         <v>223.2</v>
@@ -6144,7 +6166,7 @@
         <v>109</v>
       </c>
       <c r="K116" t="n">
-        <v>7.142857142857142</v>
+        <v>0</v>
       </c>
       <c r="L116" t="n">
         <v>223</v>
@@ -6195,7 +6217,7 @@
         <v>110</v>
       </c>
       <c r="K117" t="n">
-        <v>7.142857142857142</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L117" t="n">
         <v>223.1</v>
@@ -6246,7 +6268,7 @@
         <v>110</v>
       </c>
       <c r="K118" t="n">
-        <v>7.142857142857142</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L118" t="n">
         <v>222.8</v>
@@ -6297,7 +6319,7 @@
         <v>111</v>
       </c>
       <c r="K119" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L119" t="n">
         <v>222.6</v>
@@ -6348,7 +6370,7 @@
         <v>111</v>
       </c>
       <c r="K120" t="n">
-        <v>-4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L120" t="n">
         <v>222.6</v>
@@ -6403,7 +6425,7 @@
         <v>112</v>
       </c>
       <c r="K121" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="L121" t="n">
         <v>222.7</v>
@@ -6462,7 +6484,7 @@
         <v>113</v>
       </c>
       <c r="K122" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L122" t="n">
         <v>222.5</v>
@@ -6519,7 +6541,7 @@
         <v>113</v>
       </c>
       <c r="K123" t="n">
-        <v>-5.263157894736842</v>
+        <v>-20</v>
       </c>
       <c r="L123" t="n">
         <v>222.4</v>
@@ -6576,7 +6598,7 @@
         <v>114</v>
       </c>
       <c r="K124" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="L124" t="n">
         <v>222.2</v>
@@ -6633,7 +6655,7 @@
         <v>115</v>
       </c>
       <c r="K125" t="n">
-        <v>-4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L125" t="n">
         <v>222.2</v>
@@ -6688,7 +6710,7 @@
         <v>117</v>
       </c>
       <c r="K126" t="n">
-        <v>-18.18181818181818</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L126" t="n">
         <v>222</v>
@@ -6745,7 +6767,7 @@
         <v>119</v>
       </c>
       <c r="K127" t="n">
-        <v>-18.18181818181818</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L127" t="n">
         <v>221.5</v>

--- a/BackTest/2019-10-19 BackTest KNC.xlsx
+++ b/BackTest/2019-10-19 BackTest KNC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S127"/>
+  <dimension ref="A1:M106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -525,18 +491,10 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -568,18 +526,10 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -611,18 +561,10 @@
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,20 +594,12 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -697,18 +631,10 @@
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>2</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -740,18 +666,10 @@
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>2</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,20 +699,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +734,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +769,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>218.7</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,24 +804,12 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J12" t="n">
-        <v>11</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L12" t="n">
-        <v>218.4</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +839,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>13</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L13" t="n">
-        <v>218.3</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +874,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>14</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L14" t="n">
-        <v>218.1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +909,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J15" t="n">
-        <v>15</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L15" t="n">
-        <v>217.8</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +944,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>16</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L16" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1147,24 +979,12 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>16</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L17" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,24 +1014,12 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J18" t="n">
-        <v>17</v>
-      </c>
-      <c r="K18" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L18" t="n">
-        <v>217.2</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,24 +1049,12 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J19" t="n">
-        <v>17</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L19" t="n">
-        <v>217.1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1285,27 +1081,19 @@
         <v>218.35</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>18</v>
+        <v>217</v>
       </c>
       <c r="K20" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L20" t="n">
-        <v>217</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>217</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1332,29 +1120,23 @@
         <v>218.3333333333333</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>19</v>
+        <v>216</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>216.6</v>
+        <v>217</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M21" t="n">
-        <v>217.65</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1381,29 +1163,23 @@
         <v>218.3166666666667</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>19</v>
+        <v>216</v>
       </c>
       <c r="K22" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L22" t="n">
-        <v>216.6</v>
+        <v>217</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M22" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1430,29 +1206,19 @@
         <v>218.2833333333333</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>19</v>
+        <v>216</v>
       </c>
       <c r="K23" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L23" t="n">
-        <v>216.4</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>217.35</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1479,29 +1245,23 @@
         <v>218.3</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>19</v>
+        <v>216</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>216.3</v>
+        <v>216</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M24" t="n">
-        <v>217.2</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1528,29 +1288,23 @@
         <v>218.3</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>19</v>
+        <v>216</v>
       </c>
       <c r="K25" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L25" t="n">
-        <v>216.3</v>
+        <v>216</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M25" t="n">
-        <v>217.05</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1577,29 +1331,19 @@
         <v>218.3166666666667</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>19</v>
+        <v>216</v>
       </c>
       <c r="K26" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L26" t="n">
-        <v>216.2</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>216.95</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1626,29 +1370,23 @@
         <v>218.3166666666667</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>21</v>
+        <v>216</v>
       </c>
       <c r="K27" t="n">
-        <v>50</v>
-      </c>
-      <c r="L27" t="n">
-        <v>216.3</v>
+        <v>216</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M27" t="n">
-        <v>216.9</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1675,29 +1413,23 @@
         <v>218.2666666666667</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23</v>
+        <v>216</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>216.3</v>
+        <v>216</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M28" t="n">
-        <v>216.75</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1724,29 +1456,23 @@
         <v>218.25</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>25</v>
+        <v>218</v>
       </c>
       <c r="K29" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L29" t="n">
-        <v>216.5</v>
+        <v>216</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M29" t="n">
-        <v>216.8</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1773,29 +1499,23 @@
         <v>218.2166666666667</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>26</v>
+        <v>218</v>
       </c>
       <c r="K30" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L30" t="n">
-        <v>216.5</v>
+        <v>216</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M30" t="n">
-        <v>216.75</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1822,31 +1542,23 @@
         <v>218.1833333333333</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>26</v>
+        <v>217</v>
       </c>
       <c r="K31" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L31" t="n">
-        <v>216.6</v>
+        <v>216</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M31" t="n">
-        <v>216.6</v>
-      </c>
-      <c r="N31" t="n">
-        <v>217.3</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1873,31 +1585,23 @@
         <v>218.15</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>26</v>
+        <v>217</v>
       </c>
       <c r="K32" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L32" t="n">
-        <v>216.7</v>
+        <v>216</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M32" t="n">
-        <v>216.65</v>
-      </c>
-      <c r="N32" t="n">
-        <v>217.2333333333333</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1924,31 +1628,23 @@
         <v>218.1166666666667</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>26</v>
+        <v>217</v>
       </c>
       <c r="K33" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L33" t="n">
-        <v>216.8</v>
+        <v>216</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M33" t="n">
-        <v>216.6</v>
-      </c>
-      <c r="N33" t="n">
-        <v>217.1666666666667</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1975,31 +1671,23 @@
         <v>218.1</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>27</v>
+        <v>217</v>
       </c>
       <c r="K34" t="n">
-        <v>25</v>
-      </c>
-      <c r="L34" t="n">
-        <v>217</v>
+        <v>216</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M34" t="n">
-        <v>216.65</v>
-      </c>
-      <c r="N34" t="n">
-        <v>217.1333333333333</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2026,31 +1714,23 @@
         <v>218.0666666666667</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>28</v>
+        <v>217</v>
       </c>
       <c r="K35" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L35" t="n">
-        <v>217.1</v>
+        <v>216</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M35" t="n">
-        <v>216.7</v>
-      </c>
-      <c r="N35" t="n">
-        <v>217.0666666666667</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2077,31 +1757,23 @@
         <v>218.0333333333333</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>29</v>
+        <v>218</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>217.3</v>
+        <v>216</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M36" t="n">
-        <v>216.75</v>
-      </c>
-      <c r="N36" t="n">
-        <v>217.0666666666667</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,31 +1800,23 @@
         <v>218</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>30</v>
+        <v>217</v>
       </c>
       <c r="K37" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L37" t="n">
-        <v>217.2</v>
+        <v>216</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M37" t="n">
-        <v>216.75</v>
-      </c>
-      <c r="N37" t="n">
-        <v>217</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2179,31 +1843,23 @@
         <v>217.9666666666667</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>30</v>
+        <v>217</v>
       </c>
       <c r="K38" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L38" t="n">
-        <v>217.3</v>
+        <v>216</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M38" t="n">
-        <v>216.8</v>
-      </c>
-      <c r="N38" t="n">
-        <v>216.9333333333333</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2230,31 +1886,23 @@
         <v>217.95</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>30</v>
+        <v>217</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>217.2</v>
+        <v>216</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M39" t="n">
-        <v>216.85</v>
-      </c>
-      <c r="N39" t="n">
-        <v>216.9333333333333</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2281,31 +1929,23 @@
         <v>217.9166666666667</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>30</v>
+        <v>217</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>217.2</v>
+        <v>216</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M40" t="n">
-        <v>216.85</v>
-      </c>
-      <c r="N40" t="n">
-        <v>216.9</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2332,31 +1972,23 @@
         <v>217.8833333333333</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>31</v>
+        <v>218</v>
       </c>
       <c r="K41" t="n">
-        <v>20</v>
-      </c>
-      <c r="L41" t="n">
-        <v>217.3</v>
+        <v>216</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M41" t="n">
-        <v>216.95</v>
-      </c>
-      <c r="N41" t="n">
-        <v>216.8333333333333</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2383,31 +2015,23 @@
         <v>217.85</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>31</v>
+        <v>218</v>
       </c>
       <c r="K42" t="n">
-        <v>20</v>
-      </c>
-      <c r="L42" t="n">
-        <v>217.4</v>
+        <v>216</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M42" t="n">
-        <v>217.05</v>
-      </c>
-      <c r="N42" t="n">
-        <v>216.9</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2434,31 +2058,23 @@
         <v>217.8333333333333</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>32</v>
+        <v>218</v>
       </c>
       <c r="K43" t="n">
-        <v>20</v>
-      </c>
-      <c r="L43" t="n">
-        <v>217.6</v>
+        <v>216</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M43" t="n">
-        <v>217.2</v>
-      </c>
-      <c r="N43" t="n">
-        <v>216.9333333333333</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2485,31 +2101,23 @@
         <v>217.8166666666667</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>34</v>
+        <v>219</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>217.5</v>
+        <v>216</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M44" t="n">
-        <v>217.25</v>
-      </c>
-      <c r="N44" t="n">
-        <v>216.9333333333333</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2541,26 +2149,16 @@
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>36</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L45" t="n">
-        <v>217.7</v>
+        <v>216</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M45" t="n">
-        <v>217.4</v>
-      </c>
-      <c r="N45" t="n">
-        <v>217.0333333333333</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +2188,18 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L46" t="n">
-        <v>217.9</v>
+        <v>216</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M46" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="N46" t="n">
-        <v>217.1333333333333</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2229,18 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J47" t="n">
-        <v>40</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>217.9</v>
+        <v>216</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M47" t="n">
-        <v>217.55</v>
-      </c>
-      <c r="N47" t="n">
-        <v>217.1333333333333</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,28 +2270,18 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J48" t="n">
-        <v>40</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>217.9</v>
+        <v>216</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M48" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="N48" t="n">
-        <v>217.1666666666667</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2311,18 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J49" t="n">
-        <v>41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L49" t="n">
-        <v>218</v>
+        <v>216</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M49" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="N49" t="n">
-        <v>217.2333333333333</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,28 +2352,18 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J50" t="n">
-        <v>41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" t="n">
-        <v>218.1</v>
+        <v>216</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M50" t="n">
-        <v>217.65</v>
-      </c>
-      <c r="N50" t="n">
-        <v>217.2666666666667</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,28 +2393,18 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J51" t="n">
-        <v>41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="n">
-        <v>218.1</v>
+        <v>216</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M51" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="N51" t="n">
-        <v>217.3333333333333</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,26 +2436,16 @@
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>42</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" t="n">
-        <v>218.2</v>
+        <v>216</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M52" t="n">
-        <v>217.8</v>
-      </c>
-      <c r="N52" t="n">
-        <v>217.4333333333333</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2949,26 +2477,16 @@
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>42</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>25</v>
-      </c>
-      <c r="L53" t="n">
-        <v>218.2</v>
+        <v>216</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M53" t="n">
-        <v>217.9</v>
-      </c>
-      <c r="N53" t="n">
-        <v>217.5333333333333</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3000,26 +2518,16 @@
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>42</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="n">
-        <v>218.4</v>
+        <v>216</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M54" t="n">
-        <v>217.95</v>
-      </c>
-      <c r="N54" t="n">
-        <v>217.6333333333333</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3051,26 +2559,16 @@
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>42</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L55" t="n">
-        <v>218.4</v>
+        <v>216</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M55" t="n">
-        <v>218.05</v>
-      </c>
-      <c r="N55" t="n">
-        <v>217.7333333333333</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3102,26 +2600,16 @@
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>42</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>100</v>
-      </c>
-      <c r="L56" t="n">
-        <v>218.3</v>
+        <v>216</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M56" t="n">
-        <v>218.1</v>
-      </c>
-      <c r="N56" t="n">
-        <v>217.8333333333333</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,28 +2639,18 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" t="n">
-        <v>43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>100</v>
-      </c>
-      <c r="L57" t="n">
-        <v>218.6</v>
+        <v>216</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M57" t="n">
-        <v>218.25</v>
-      </c>
-      <c r="N57" t="n">
-        <v>217.9</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,28 +2680,18 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" t="n">
-        <v>43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>100</v>
-      </c>
-      <c r="L58" t="n">
-        <v>218.9</v>
+        <v>216</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M58" t="n">
-        <v>218.4</v>
-      </c>
-      <c r="N58" t="n">
-        <v>218.0333333333333</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,28 +2721,18 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J59" t="n">
-        <v>45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" t="n">
-        <v>218.9</v>
+        <v>216</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M59" t="n">
-        <v>218.45</v>
-      </c>
-      <c r="N59" t="n">
-        <v>218.0333333333333</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,28 +2762,18 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J60" t="n">
-        <v>45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="n">
-        <v>218.9</v>
+        <v>216</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M60" t="n">
-        <v>218.5</v>
-      </c>
-      <c r="N60" t="n">
-        <v>218.0666666666667</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,28 +2803,18 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J61" t="n">
-        <v>47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L61" t="n">
-        <v>218.7</v>
+        <v>216</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M61" t="n">
-        <v>218.4</v>
-      </c>
-      <c r="N61" t="n">
-        <v>218.0333333333333</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,28 +2844,18 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J62" t="n">
-        <v>48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L62" t="n">
-        <v>218.5</v>
+        <v>216</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M62" t="n">
-        <v>218.35</v>
-      </c>
-      <c r="N62" t="n">
-        <v>218.0333333333333</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3459,26 +2887,16 @@
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>50</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" t="n">
-        <v>218.5</v>
+        <v>216</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M63" t="n">
-        <v>218.35</v>
-      </c>
-      <c r="N63" t="n">
-        <v>218.1</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,28 +2926,18 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="n">
-        <v>51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L64" t="n">
-        <v>218.6</v>
+        <v>216</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M64" t="n">
-        <v>218.5</v>
-      </c>
-      <c r="N64" t="n">
-        <v>218.1666666666667</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3559,28 +2967,18 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J65" t="n">
-        <v>53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L65" t="n">
-        <v>218.5</v>
+        <v>216</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M65" t="n">
-        <v>218.45</v>
-      </c>
-      <c r="N65" t="n">
-        <v>218.2</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3612,26 +3010,16 @@
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>54</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L66" t="n">
-        <v>218.5</v>
+        <v>216</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M66" t="n">
-        <v>218.4</v>
-      </c>
-      <c r="N66" t="n">
-        <v>218.2333333333333</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3661,28 +3049,18 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J67" t="n">
-        <v>57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>-28.57142857142857</v>
-      </c>
-      <c r="L67" t="n">
-        <v>218.1</v>
+        <v>216</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M67" t="n">
-        <v>218.35</v>
-      </c>
-      <c r="N67" t="n">
-        <v>218.2</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,28 +3090,18 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J68" t="n">
-        <v>59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>0</v>
-      </c>
-      <c r="L68" t="n">
-        <v>217.9</v>
+        <v>216</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M68" t="n">
-        <v>218.4</v>
-      </c>
-      <c r="N68" t="n">
-        <v>218.2333333333333</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,28 +3131,18 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" t="n">
-        <v>217.9</v>
+        <v>216</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M69" t="n">
-        <v>218.4</v>
-      </c>
-      <c r="N69" t="n">
-        <v>218.2666666666667</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,28 +3172,18 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J70" t="n">
-        <v>60</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L70" t="n">
-        <v>217.8</v>
+        <v>216</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M70" t="n">
-        <v>218.35</v>
-      </c>
-      <c r="N70" t="n">
-        <v>218.2666666666667</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3865,28 +3213,18 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J71" t="n">
-        <v>60</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>0</v>
-      </c>
-      <c r="L71" t="n">
-        <v>217.9</v>
+        <v>216</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M71" t="n">
-        <v>218.3</v>
-      </c>
-      <c r="N71" t="n">
-        <v>218.2333333333333</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,28 +3254,18 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J72" t="n">
-        <v>61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L72" t="n">
-        <v>218</v>
+        <v>216</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M72" t="n">
-        <v>218.25</v>
-      </c>
-      <c r="N72" t="n">
-        <v>218.2333333333333</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3967,28 +3295,18 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J73" t="n">
-        <v>61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L73" t="n">
-        <v>217.9</v>
+        <v>216</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M73" t="n">
-        <v>218.2</v>
-      </c>
-      <c r="N73" t="n">
-        <v>218.2</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,28 +3336,18 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J74" t="n">
-        <v>61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>0</v>
-      </c>
-      <c r="L74" t="n">
-        <v>217.7</v>
+        <v>216</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M74" t="n">
-        <v>218.15</v>
-      </c>
-      <c r="N74" t="n">
-        <v>218.2333333333333</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,28 +3377,18 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J75" t="n">
-        <v>62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L75" t="n">
-        <v>217.6</v>
+        <v>216</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M75" t="n">
-        <v>218.05</v>
-      </c>
-      <c r="N75" t="n">
-        <v>218.1666666666667</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4122,26 +3420,16 @@
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>64</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L76" t="n">
-        <v>217.6</v>
+        <v>216</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M76" t="n">
-        <v>218.05</v>
-      </c>
-      <c r="N76" t="n">
-        <v>218.1333333333333</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4171,28 +3459,18 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J77" t="n">
-        <v>65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L77" t="n">
-        <v>217.8</v>
+        <v>216</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M77" t="n">
-        <v>217.95</v>
-      </c>
-      <c r="N77" t="n">
-        <v>218.1666666666667</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,28 +3500,18 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="n">
-        <v>67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>25</v>
-      </c>
-      <c r="L78" t="n">
-        <v>218</v>
+        <v>216</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M78" t="n">
-        <v>217.95</v>
-      </c>
-      <c r="N78" t="n">
-        <v>218.2666666666667</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4273,28 +3541,18 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J79" t="n">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L79" t="n">
-        <v>218</v>
+        <v>216</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M79" t="n">
-        <v>217.95</v>
-      </c>
-      <c r="N79" t="n">
-        <v>218.2666666666667</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,28 +3582,18 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J80" t="n">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L80" t="n">
-        <v>218.1</v>
+        <v>216</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M80" t="n">
-        <v>217.95</v>
-      </c>
-      <c r="N80" t="n">
-        <v>218.2666666666667</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,28 +3623,18 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>0</v>
-      </c>
-      <c r="L81" t="n">
-        <v>218.2</v>
+        <v>216</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>218.05</v>
-      </c>
-      <c r="N81" t="n">
-        <v>218.2666666666667</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,28 +3664,18 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J82" t="n">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>0</v>
-      </c>
-      <c r="L82" t="n">
-        <v>218.2</v>
+        <v>216</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>218.1</v>
-      </c>
-      <c r="N82" t="n">
-        <v>218.2333333333333</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4477,28 +3705,18 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>20</v>
-      </c>
-      <c r="L83" t="n">
-        <v>218.4</v>
+        <v>216</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M83" t="n">
-        <v>218.15</v>
-      </c>
-      <c r="N83" t="n">
-        <v>218.2666666666667</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,28 +3746,18 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L84" t="n">
-        <v>218.4</v>
+        <v>216</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M84" t="n">
-        <v>218.05</v>
-      </c>
-      <c r="N84" t="n">
-        <v>218.2333333333333</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,28 +3787,18 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J85" t="n">
-        <v>73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L85" t="n">
-        <v>218.5</v>
+        <v>216</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M85" t="n">
-        <v>218.05</v>
-      </c>
-      <c r="N85" t="n">
-        <v>218.2</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,28 +3828,18 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>20</v>
-      </c>
-      <c r="L86" t="n">
-        <v>218.6</v>
+        <v>216</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M86" t="n">
-        <v>218.1</v>
-      </c>
-      <c r="N86" t="n">
-        <v>218.2333333333333</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4681,28 +3869,18 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J87" t="n">
-        <v>77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L87" t="n">
-        <v>218.6</v>
+        <v>216</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M87" t="n">
-        <v>218.2</v>
-      </c>
-      <c r="N87" t="n">
-        <v>218.1666666666667</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4734,26 +3912,16 @@
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>78</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L88" t="n">
-        <v>218.5</v>
+        <v>216</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M88" t="n">
-        <v>218.25</v>
-      </c>
-      <c r="N88" t="n">
-        <v>218.1333333333333</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4783,28 +3951,18 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" t="n">
-        <v>79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>20</v>
-      </c>
-      <c r="L89" t="n">
-        <v>218.7</v>
+        <v>216</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M89" t="n">
-        <v>218.35</v>
-      </c>
-      <c r="N89" t="n">
-        <v>218.2</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,28 +3992,18 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" t="n">
-        <v>79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>20</v>
-      </c>
-      <c r="L90" t="n">
-        <v>218.9</v>
+        <v>216</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M90" t="n">
-        <v>218.5</v>
-      </c>
-      <c r="N90" t="n">
-        <v>218.2666666666667</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4887,26 +4035,16 @@
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>80</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L91" t="n">
-        <v>219</v>
+        <v>216</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M91" t="n">
-        <v>218.6</v>
-      </c>
-      <c r="N91" t="n">
-        <v>218.3666666666667</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4938,26 +4076,16 @@
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>80</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L92" t="n">
-        <v>219.1</v>
+        <v>216</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M92" t="n">
-        <v>218.65</v>
-      </c>
-      <c r="N92" t="n">
-        <v>218.4333333333333</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4989,26 +4117,16 @@
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>80</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L93" t="n">
-        <v>219</v>
+        <v>216</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M93" t="n">
-        <v>218.7</v>
-      </c>
-      <c r="N93" t="n">
-        <v>218.4333333333333</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5040,26 +4158,16 @@
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>80</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L94" t="n">
-        <v>219.1</v>
+        <v>216</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M94" t="n">
-        <v>218.75</v>
-      </c>
-      <c r="N94" t="n">
-        <v>218.4</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5091,26 +4199,16 @@
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>80</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L95" t="n">
-        <v>219.2</v>
+        <v>216</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M95" t="n">
-        <v>218.85</v>
-      </c>
-      <c r="N95" t="n">
-        <v>218.4333333333333</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5140,28 +4238,18 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
-      </c>
-      <c r="J96" t="n">
-        <v>81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>50</v>
-      </c>
-      <c r="L96" t="n">
-        <v>219.2</v>
+        <v>216</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M96" t="n">
-        <v>218.9</v>
-      </c>
-      <c r="N96" t="n">
-        <v>218.4666666666667</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,28 +4279,18 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>2</v>
-      </c>
-      <c r="J97" t="n">
-        <v>82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>50</v>
-      </c>
-      <c r="L97" t="n">
-        <v>219.5</v>
+        <v>216</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M97" t="n">
-        <v>219.05</v>
-      </c>
-      <c r="N97" t="n">
-        <v>218.6333333333333</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,28 +4320,18 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>2</v>
-      </c>
-      <c r="J98" t="n">
-        <v>82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L98" t="n">
-        <v>219.7</v>
+        <v>216</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M98" t="n">
-        <v>219.1</v>
-      </c>
-      <c r="N98" t="n">
-        <v>218.7333333333333</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5293,28 +4361,18 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>7</v>
-      </c>
-      <c r="J99" t="n">
-        <v>87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>75</v>
-      </c>
-      <c r="L99" t="n">
-        <v>220.3</v>
+        <v>216</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M99" t="n">
-        <v>219.5</v>
-      </c>
-      <c r="N99" t="n">
-        <v>219</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5344,28 +4402,18 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>4</v>
-      </c>
-      <c r="J100" t="n">
-        <v>90</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>40</v>
-      </c>
-      <c r="L100" t="n">
-        <v>220.6</v>
+        <v>216</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M100" t="n">
-        <v>219.75</v>
-      </c>
-      <c r="N100" t="n">
-        <v>219.2</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5395,29 +4443,19 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>6</v>
-      </c>
-      <c r="J101" t="n">
-        <v>92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>50</v>
-      </c>
-      <c r="L101" t="n">
-        <v>221.2</v>
+        <v>216</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M101" t="n">
-        <v>220.1</v>
-      </c>
-      <c r="N101" t="n">
-        <v>219.4666666666667</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
-        <v>1</v>
+        <v>1.036666666666667</v>
       </c>
     </row>
     <row r="102">
@@ -5446,28 +4484,12 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>6</v>
-      </c>
-      <c r="J102" t="n">
-        <v>92</v>
-      </c>
-      <c r="K102" t="n">
-        <v>50</v>
-      </c>
-      <c r="L102" t="n">
-        <v>221.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>220.45</v>
-      </c>
-      <c r="N102" t="n">
-        <v>219.7</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5497,28 +4519,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>4</v>
-      </c>
-      <c r="J103" t="n">
-        <v>94</v>
-      </c>
-      <c r="K103" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="L103" t="n">
-        <v>222.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>220.6</v>
-      </c>
-      <c r="N103" t="n">
-        <v>219.8666666666667</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,28 +4554,12 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>4</v>
-      </c>
-      <c r="J104" t="n">
-        <v>94</v>
-      </c>
-      <c r="K104" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="L104" t="n">
-        <v>222.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>220.85</v>
-      </c>
-      <c r="N104" t="n">
-        <v>220.0333333333333</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5599,28 +4589,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>4</v>
-      </c>
-      <c r="J105" t="n">
-        <v>94</v>
-      </c>
-      <c r="K105" t="n">
-        <v>23.07692307692308</v>
-      </c>
-      <c r="L105" t="n">
-        <v>223</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>221.1</v>
-      </c>
-      <c r="N105" t="n">
-        <v>220.2333333333333</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5650,1145 +4624,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>5</v>
-      </c>
-      <c r="J106" t="n">
-        <v>95</v>
-      </c>
-      <c r="K106" t="n">
-        <v>23.07692307692308</v>
-      </c>
-      <c r="L106" t="n">
-        <v>223.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>221.3</v>
-      </c>
-      <c r="N106" t="n">
-        <v>220.4</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>223</v>
-      </c>
-      <c r="C107" t="n">
-        <v>222</v>
-      </c>
-      <c r="D107" t="n">
-        <v>223</v>
-      </c>
-      <c r="E107" t="n">
-        <v>222</v>
-      </c>
-      <c r="F107" t="n">
-        <v>3336.35</v>
-      </c>
-      <c r="G107" t="n">
-        <v>219.35</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>3</v>
-      </c>
-      <c r="J107" t="n">
-        <v>97</v>
-      </c>
-      <c r="K107" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="L107" t="n">
-        <v>223.5</v>
-      </c>
-      <c r="M107" t="n">
-        <v>221.5</v>
-      </c>
-      <c r="N107" t="n">
-        <v>220.5333333333333</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>225</v>
-      </c>
-      <c r="C108" t="n">
-        <v>226</v>
-      </c>
-      <c r="D108" t="n">
-        <v>226</v>
-      </c>
-      <c r="E108" t="n">
-        <v>225</v>
-      </c>
-      <c r="F108" t="n">
-        <v>162</v>
-      </c>
-      <c r="G108" t="n">
-        <v>219.5</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>7</v>
-      </c>
-      <c r="J108" t="n">
-        <v>101</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0</v>
-      </c>
-      <c r="L108" t="n">
-        <v>224</v>
-      </c>
-      <c r="M108" t="n">
-        <v>221.85</v>
-      </c>
-      <c r="N108" t="n">
-        <v>220.7333333333333</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>225</v>
-      </c>
-      <c r="C109" t="n">
-        <v>224</v>
-      </c>
-      <c r="D109" t="n">
-        <v>225</v>
-      </c>
-      <c r="E109" t="n">
-        <v>224</v>
-      </c>
-      <c r="F109" t="n">
-        <v>344</v>
-      </c>
-      <c r="G109" t="n">
-        <v>219.6</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>5</v>
-      </c>
-      <c r="J109" t="n">
-        <v>103</v>
-      </c>
-      <c r="K109" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L109" t="n">
-        <v>223.8</v>
-      </c>
-      <c r="M109" t="n">
-        <v>222.05</v>
-      </c>
-      <c r="N109" t="n">
-        <v>220.9333333333333</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>222</v>
-      </c>
-      <c r="C110" t="n">
-        <v>222</v>
-      </c>
-      <c r="D110" t="n">
-        <v>222</v>
-      </c>
-      <c r="E110" t="n">
-        <v>222</v>
-      </c>
-      <c r="F110" t="n">
-        <v>1811.2245</v>
-      </c>
-      <c r="G110" t="n">
-        <v>219.6666666666667</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>3</v>
-      </c>
-      <c r="J110" t="n">
-        <v>105</v>
-      </c>
-      <c r="K110" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L110" t="n">
-        <v>223.7</v>
-      </c>
-      <c r="M110" t="n">
-        <v>222.15</v>
-      </c>
-      <c r="N110" t="n">
-        <v>221.0666666666667</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>223</v>
-      </c>
-      <c r="C111" t="n">
-        <v>222</v>
-      </c>
-      <c r="D111" t="n">
-        <v>223</v>
-      </c>
-      <c r="E111" t="n">
-        <v>222</v>
-      </c>
-      <c r="F111" t="n">
-        <v>2018.9561</v>
-      </c>
-      <c r="G111" t="n">
-        <v>219.7333333333333</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>3</v>
-      </c>
-      <c r="J111" t="n">
-        <v>105</v>
-      </c>
-      <c r="K111" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L111" t="n">
-        <v>223.4</v>
-      </c>
-      <c r="M111" t="n">
-        <v>222.3</v>
-      </c>
-      <c r="N111" t="n">
-        <v>221.2</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>224</v>
-      </c>
-      <c r="C112" t="n">
-        <v>224</v>
-      </c>
-      <c r="D112" t="n">
-        <v>224</v>
-      </c>
-      <c r="E112" t="n">
-        <v>224</v>
-      </c>
-      <c r="F112" t="n">
-        <v>56.6444</v>
-      </c>
-      <c r="G112" t="n">
-        <v>219.8166666666667</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>5</v>
-      </c>
-      <c r="J112" t="n">
-        <v>107</v>
-      </c>
-      <c r="K112" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L112" t="n">
-        <v>223.3</v>
-      </c>
-      <c r="M112" t="n">
-        <v>222.55</v>
-      </c>
-      <c r="N112" t="n">
-        <v>221.4</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>223</v>
-      </c>
-      <c r="C113" t="n">
-        <v>223</v>
-      </c>
-      <c r="D113" t="n">
-        <v>223</v>
-      </c>
-      <c r="E113" t="n">
-        <v>223</v>
-      </c>
-      <c r="F113" t="n">
-        <v>3276.4977</v>
-      </c>
-      <c r="G113" t="n">
-        <v>219.8833333333333</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>4</v>
-      </c>
-      <c r="J113" t="n">
-        <v>108</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0</v>
-      </c>
-      <c r="L113" t="n">
-        <v>223.3</v>
-      </c>
-      <c r="M113" t="n">
-        <v>222.75</v>
-      </c>
-      <c r="N113" t="n">
-        <v>221.5</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>223</v>
-      </c>
-      <c r="C114" t="n">
-        <v>223</v>
-      </c>
-      <c r="D114" t="n">
-        <v>223</v>
-      </c>
-      <c r="E114" t="n">
-        <v>223</v>
-      </c>
-      <c r="F114" t="n">
-        <v>3363.6412</v>
-      </c>
-      <c r="G114" t="n">
-        <v>219.95</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>4</v>
-      </c>
-      <c r="J114" t="n">
-        <v>108</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0</v>
-      </c>
-      <c r="L114" t="n">
-        <v>223.3</v>
-      </c>
-      <c r="M114" t="n">
-        <v>222.95</v>
-      </c>
-      <c r="N114" t="n">
-        <v>221.6666666666667</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>223</v>
-      </c>
-      <c r="C115" t="n">
-        <v>222</v>
-      </c>
-      <c r="D115" t="n">
-        <v>223</v>
-      </c>
-      <c r="E115" t="n">
-        <v>222</v>
-      </c>
-      <c r="F115" t="n">
-        <v>1224.49</v>
-      </c>
-      <c r="G115" t="n">
-        <v>220</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>3</v>
-      </c>
-      <c r="J115" t="n">
-        <v>109</v>
-      </c>
-      <c r="K115" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L115" t="n">
-        <v>223.2</v>
-      </c>
-      <c r="M115" t="n">
-        <v>223.1</v>
-      </c>
-      <c r="N115" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>222</v>
-      </c>
-      <c r="C116" t="n">
-        <v>222</v>
-      </c>
-      <c r="D116" t="n">
-        <v>223</v>
-      </c>
-      <c r="E116" t="n">
-        <v>222</v>
-      </c>
-      <c r="F116" t="n">
-        <v>2155.8483</v>
-      </c>
-      <c r="G116" t="n">
-        <v>220.05</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>3</v>
-      </c>
-      <c r="J116" t="n">
-        <v>109</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0</v>
-      </c>
-      <c r="L116" t="n">
-        <v>223</v>
-      </c>
-      <c r="M116" t="n">
-        <v>223.2</v>
-      </c>
-      <c r="N116" t="n">
-        <v>221.8666666666667</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>222</v>
-      </c>
-      <c r="C117" t="n">
-        <v>223</v>
-      </c>
-      <c r="D117" t="n">
-        <v>223</v>
-      </c>
-      <c r="E117" t="n">
-        <v>222</v>
-      </c>
-      <c r="F117" t="n">
-        <v>70</v>
-      </c>
-      <c r="G117" t="n">
-        <v>220.1</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>4</v>
-      </c>
-      <c r="J117" t="n">
-        <v>110</v>
-      </c>
-      <c r="K117" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L117" t="n">
-        <v>223.1</v>
-      </c>
-      <c r="M117" t="n">
-        <v>223.3</v>
-      </c>
-      <c r="N117" t="n">
-        <v>222.0333333333333</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>223</v>
-      </c>
-      <c r="C118" t="n">
-        <v>223</v>
-      </c>
-      <c r="D118" t="n">
-        <v>223</v>
-      </c>
-      <c r="E118" t="n">
-        <v>223</v>
-      </c>
-      <c r="F118" t="n">
-        <v>300</v>
-      </c>
-      <c r="G118" t="n">
-        <v>220.15</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>4</v>
-      </c>
-      <c r="J118" t="n">
-        <v>110</v>
-      </c>
-      <c r="K118" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L118" t="n">
-        <v>222.8</v>
-      </c>
-      <c r="M118" t="n">
-        <v>223.4</v>
-      </c>
-      <c r="N118" t="n">
-        <v>222.1666666666667</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>222</v>
-      </c>
-      <c r="C119" t="n">
-        <v>222</v>
-      </c>
-      <c r="D119" t="n">
-        <v>222</v>
-      </c>
-      <c r="E119" t="n">
-        <v>222</v>
-      </c>
-      <c r="F119" t="n">
-        <v>205.361</v>
-      </c>
-      <c r="G119" t="n">
-        <v>220.2166666666667</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>3</v>
-      </c>
-      <c r="J119" t="n">
-        <v>111</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0</v>
-      </c>
-      <c r="L119" t="n">
-        <v>222.6</v>
-      </c>
-      <c r="M119" t="n">
-        <v>223.2</v>
-      </c>
-      <c r="N119" t="n">
-        <v>222.2333333333333</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>222</v>
-      </c>
-      <c r="C120" t="n">
-        <v>222</v>
-      </c>
-      <c r="D120" t="n">
-        <v>222</v>
-      </c>
-      <c r="E120" t="n">
-        <v>222</v>
-      </c>
-      <c r="F120" t="n">
-        <v>2415.7047</v>
-      </c>
-      <c r="G120" t="n">
-        <v>220.2833333333333</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>3</v>
-      </c>
-      <c r="J120" t="n">
-        <v>111</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0</v>
-      </c>
-      <c r="L120" t="n">
-        <v>222.6</v>
-      </c>
-      <c r="M120" t="n">
-        <v>223.15</v>
-      </c>
-      <c r="N120" t="n">
-        <v>222.3</v>
-      </c>
-      <c r="O120" t="n">
-        <v>222</v>
-      </c>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="n">
-        <v>222</v>
-      </c>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>223</v>
-      </c>
-      <c r="C121" t="n">
-        <v>223</v>
-      </c>
-      <c r="D121" t="n">
-        <v>226</v>
-      </c>
-      <c r="E121" t="n">
-        <v>222</v>
-      </c>
-      <c r="F121" t="n">
-        <v>751.2273</v>
-      </c>
-      <c r="G121" t="n">
-        <v>220.4</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>4</v>
-      </c>
-      <c r="J121" t="n">
-        <v>112</v>
-      </c>
-      <c r="K121" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L121" t="n">
-        <v>222.7</v>
-      </c>
-      <c r="M121" t="n">
-        <v>223.05</v>
-      </c>
-      <c r="N121" t="n">
-        <v>222.4333333333333</v>
-      </c>
-      <c r="O121" t="n">
-        <v>222</v>
-      </c>
-      <c r="P121" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q121" t="n">
-        <v>222</v>
-      </c>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>225</v>
-      </c>
-      <c r="C122" t="n">
-        <v>222</v>
-      </c>
-      <c r="D122" t="n">
-        <v>225</v>
-      </c>
-      <c r="E122" t="n">
-        <v>222</v>
-      </c>
-      <c r="F122" t="n">
-        <v>856.4036</v>
-      </c>
-      <c r="G122" t="n">
-        <v>220.4833333333333</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>3</v>
-      </c>
-      <c r="J122" t="n">
-        <v>113</v>
-      </c>
-      <c r="K122" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L122" t="n">
-        <v>222.5</v>
-      </c>
-      <c r="M122" t="n">
-        <v>222.9</v>
-      </c>
-      <c r="N122" t="n">
-        <v>222.5333333333333</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q122" t="n">
-        <v>222</v>
-      </c>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>222</v>
-      </c>
-      <c r="C123" t="n">
-        <v>222</v>
-      </c>
-      <c r="D123" t="n">
-        <v>222</v>
-      </c>
-      <c r="E123" t="n">
-        <v>222</v>
-      </c>
-      <c r="F123" t="n">
-        <v>221.5268</v>
-      </c>
-      <c r="G123" t="n">
-        <v>220.5333333333333</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>3</v>
-      </c>
-      <c r="J123" t="n">
-        <v>113</v>
-      </c>
-      <c r="K123" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L123" t="n">
-        <v>222.4</v>
-      </c>
-      <c r="M123" t="n">
-        <v>222.85</v>
-      </c>
-      <c r="N123" t="n">
-        <v>222.6333333333333</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q123" t="n">
-        <v>222</v>
-      </c>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>221</v>
-      </c>
-      <c r="C124" t="n">
-        <v>221</v>
-      </c>
-      <c r="D124" t="n">
-        <v>221</v>
-      </c>
-      <c r="E124" t="n">
-        <v>221</v>
-      </c>
-      <c r="F124" t="n">
-        <v>296.7861</v>
-      </c>
-      <c r="G124" t="n">
-        <v>220.55</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>2</v>
-      </c>
-      <c r="J124" t="n">
-        <v>114</v>
-      </c>
-      <c r="K124" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L124" t="n">
-        <v>222.2</v>
-      </c>
-      <c r="M124" t="n">
-        <v>222.75</v>
-      </c>
-      <c r="N124" t="n">
-        <v>222.7</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q124" t="n">
-        <v>222</v>
-      </c>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>224</v>
-      </c>
-      <c r="C125" t="n">
-        <v>222</v>
-      </c>
-      <c r="D125" t="n">
-        <v>224</v>
-      </c>
-      <c r="E125" t="n">
-        <v>221</v>
-      </c>
-      <c r="F125" t="n">
-        <v>708.9091</v>
-      </c>
-      <c r="G125" t="n">
-        <v>220.6166666666667</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>3</v>
-      </c>
-      <c r="J125" t="n">
-        <v>115</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0</v>
-      </c>
-      <c r="L125" t="n">
-        <v>222.2</v>
-      </c>
-      <c r="M125" t="n">
-        <v>222.7</v>
-      </c>
-      <c r="N125" t="n">
-        <v>222.8</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="n">
-        <v>229.7</v>
-      </c>
-      <c r="Q125" t="n">
-        <v>222</v>
-      </c>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>220</v>
-      </c>
-      <c r="C126" t="n">
-        <v>220</v>
-      </c>
-      <c r="D126" t="n">
-        <v>220</v>
-      </c>
-      <c r="E126" t="n">
-        <v>220</v>
-      </c>
-      <c r="F126" t="n">
-        <v>849.3318</v>
-      </c>
-      <c r="G126" t="n">
-        <v>220.6333333333333</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>1</v>
-      </c>
-      <c r="J126" t="n">
-        <v>117</v>
-      </c>
-      <c r="K126" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L126" t="n">
-        <v>222</v>
-      </c>
-      <c r="M126" t="n">
-        <v>222.5</v>
-      </c>
-      <c r="N126" t="n">
-        <v>222.8</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="n">
-        <v>222</v>
-      </c>
-      <c r="R126" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>219</v>
-      </c>
-      <c r="C127" t="n">
-        <v>218</v>
-      </c>
-      <c r="D127" t="n">
-        <v>219</v>
-      </c>
-      <c r="E127" t="n">
-        <v>218</v>
-      </c>
-      <c r="F127" t="n">
-        <v>3204.7888</v>
-      </c>
-      <c r="G127" t="n">
-        <v>220.6666666666667</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J127" t="n">
-        <v>119</v>
-      </c>
-      <c r="K127" t="n">
-        <v>-55.55555555555556</v>
-      </c>
-      <c r="L127" t="n">
-        <v>221.5</v>
-      </c>
-      <c r="M127" t="n">
-        <v>222.3</v>
-      </c>
-      <c r="N127" t="n">
-        <v>222.7</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="n">
-        <v>222</v>
-      </c>
-      <c r="R127" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-19 BackTest KNC.xlsx
+++ b/BackTest/2019-10-19 BackTest KNC.xlsx
@@ -1081,17 +1081,13 @@
         <v>218.35</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>217</v>
-      </c>
-      <c r="K20" t="n">
-        <v>217</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
@@ -1120,22 +1116,14 @@
         <v>218.3333333333333</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>216</v>
-      </c>
-      <c r="K21" t="n">
-        <v>217</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1163,22 +1151,14 @@
         <v>218.3166666666667</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>216</v>
-      </c>
-      <c r="K22" t="n">
-        <v>217</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1206,17 +1186,13 @@
         <v>218.2833333333333</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>216</v>
-      </c>
-      <c r="K23" t="n">
-        <v>216</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
@@ -1256,11 +1232,7 @@
       <c r="K24" t="n">
         <v>216</v>
       </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1342,7 +1314,11 @@
       <c r="K26" t="n">
         <v>216</v>
       </c>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1419,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K28" t="n">
         <v>216</v>
@@ -1462,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K29" t="n">
         <v>216</v>
@@ -1499,14 +1475,12 @@
         <v>218.2166666666667</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>218</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
         <v>216</v>
       </c>
@@ -1542,14 +1516,12 @@
         <v>218.1833333333333</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>217</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
         <v>216</v>
       </c>
@@ -1585,14 +1557,12 @@
         <v>218.15</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>217</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
         <v>216</v>
       </c>
@@ -1628,14 +1598,12 @@
         <v>218.1166666666667</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>217</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
         <v>216</v>
       </c>
@@ -1671,14 +1639,12 @@
         <v>218.1</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>217</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
         <v>216</v>
       </c>
@@ -1714,14 +1680,12 @@
         <v>218.0666666666667</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>217</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
         <v>216</v>
       </c>
@@ -1757,14 +1721,12 @@
         <v>218.0333333333333</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>218</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
         <v>216</v>
       </c>
@@ -1800,14 +1762,12 @@
         <v>218</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>217</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
         <v>216</v>
       </c>
@@ -1843,14 +1803,12 @@
         <v>217.9666666666667</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>217</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
         <v>216</v>
       </c>
@@ -1886,14 +1844,12 @@
         <v>217.95</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>217</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
         <v>216</v>
       </c>
@@ -1929,14 +1885,12 @@
         <v>217.9166666666667</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>217</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
         <v>216</v>
       </c>
@@ -1972,14 +1926,12 @@
         <v>217.8833333333333</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>218</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
         <v>216</v>
       </c>
@@ -2015,14 +1967,12 @@
         <v>217.85</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>218</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
         <v>216</v>
       </c>
@@ -2058,14 +2008,12 @@
         <v>217.8333333333333</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>218</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
         <v>216</v>
       </c>
@@ -2101,14 +2049,12 @@
         <v>217.8166666666667</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>219</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
         <v>216</v>
       </c>
@@ -4484,7 +4430,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4554,7 +4500,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>

--- a/BackTest/2019-10-19 BackTest KNC.xlsx
+++ b/BackTest/2019-10-19 BackTest KNC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M106"/>
+  <dimension ref="A1:M107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>219</v>
       </c>
       <c r="F2" t="n">
-        <v>494.0361</v>
+        <v>581.6115</v>
       </c>
       <c r="G2" t="n">
-        <v>218.3666666666667</v>
+        <v>218.3333333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>219</v>
       </c>
       <c r="F3" t="n">
-        <v>228.7561</v>
+        <v>494.0361</v>
       </c>
       <c r="G3" t="n">
-        <v>218.4</v>
+        <v>218.3666666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,7 +503,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C4" t="n">
         <v>219</v>
@@ -512,13 +512,13 @@
         <v>219</v>
       </c>
       <c r="E4" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F4" t="n">
-        <v>308.471</v>
+        <v>228.7561</v>
       </c>
       <c r="G4" t="n">
-        <v>218.4333333333333</v>
+        <v>218.4</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C5" t="n">
         <v>219</v>
@@ -547,13 +547,13 @@
         <v>219</v>
       </c>
       <c r="E5" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F5" t="n">
-        <v>31.7106</v>
+        <v>308.471</v>
       </c>
       <c r="G5" t="n">
-        <v>218.4666666666667</v>
+        <v>218.4333333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C6" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D6" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E6" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F6" t="n">
-        <v>487.9231</v>
+        <v>31.7106</v>
       </c>
       <c r="G6" t="n">
-        <v>218.4833333333333</v>
+        <v>218.4666666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C7" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D7" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E7" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F7" t="n">
-        <v>492.9237</v>
+        <v>487.9231</v>
       </c>
       <c r="G7" t="n">
-        <v>218.5166666666667</v>
+        <v>218.4833333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>219</v>
       </c>
       <c r="F8" t="n">
-        <v>109.4175</v>
+        <v>492.9237</v>
       </c>
       <c r="G8" t="n">
-        <v>218.5333333333333</v>
+        <v>218.5166666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C9" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D9" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E9" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F9" t="n">
-        <v>6863.532</v>
+        <v>109.4175</v>
       </c>
       <c r="G9" t="n">
-        <v>218.5166666666667</v>
+        <v>218.5333333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C10" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D10" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E10" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F10" t="n">
-        <v>103.3729</v>
+        <v>6863.532</v>
       </c>
       <c r="G10" t="n">
         <v>218.5166666666667</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C11" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D11" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E11" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>103.3729</v>
       </c>
       <c r="G11" t="n">
-        <v>218.55</v>
+        <v>218.5166666666667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C12" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D12" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E12" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F12" t="n">
-        <v>8207.306399999999</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>218.5166666666667</v>
+        <v>218.55</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,19 +818,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C13" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D13" t="n">
         <v>218</v>
       </c>
       <c r="E13" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F13" t="n">
-        <v>159.5412844036697</v>
+        <v>8207.306399999999</v>
       </c>
       <c r="G13" t="n">
         <v>218.5166666666667</v>
@@ -856,19 +856,19 @@
         <v>217</v>
       </c>
       <c r="C14" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D14" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E14" t="n">
         <v>217</v>
       </c>
       <c r="F14" t="n">
-        <v>100</v>
+        <v>159.5412844036697</v>
       </c>
       <c r="G14" t="n">
-        <v>218.5</v>
+        <v>218.5166666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>217</v>
       </c>
       <c r="C15" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D15" t="n">
         <v>217</v>
       </c>
       <c r="E15" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F15" t="n">
-        <v>736.8181</v>
+        <v>100</v>
       </c>
       <c r="G15" t="n">
-        <v>218.45</v>
+        <v>218.5</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -926,19 +926,19 @@
         <v>217</v>
       </c>
       <c r="C16" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D16" t="n">
         <v>217</v>
       </c>
       <c r="E16" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F16" t="n">
-        <v>127.0469</v>
+        <v>736.8181</v>
       </c>
       <c r="G16" t="n">
-        <v>218.4333333333333</v>
+        <v>218.45</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>217</v>
       </c>
       <c r="F17" t="n">
-        <v>2000</v>
+        <v>127.0469</v>
       </c>
       <c r="G17" t="n">
-        <v>218.4166666666667</v>
+        <v>218.4333333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -996,19 +996,19 @@
         <v>217</v>
       </c>
       <c r="C18" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D18" t="n">
         <v>217</v>
       </c>
       <c r="E18" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F18" t="n">
-        <v>1186.1785</v>
+        <v>2000</v>
       </c>
       <c r="G18" t="n">
-        <v>218.4</v>
+        <v>218.4166666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C19" t="n">
         <v>216</v>
       </c>
       <c r="D19" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E19" t="n">
         <v>216</v>
       </c>
       <c r="F19" t="n">
-        <v>1685.8719</v>
+        <v>1186.1785</v>
       </c>
       <c r="G19" t="n">
-        <v>218.35</v>
+        <v>218.4</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,19 +1063,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C20" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D20" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E20" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F20" t="n">
-        <v>3020</v>
+        <v>1685.8719</v>
       </c>
       <c r="G20" t="n">
         <v>218.35</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C21" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D21" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E21" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F21" t="n">
-        <v>2000</v>
+        <v>3020</v>
       </c>
       <c r="G21" t="n">
-        <v>218.3333333333333</v>
+        <v>218.35</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>216</v>
       </c>
       <c r="F22" t="n">
-        <v>196.6372</v>
+        <v>2000</v>
       </c>
       <c r="G22" t="n">
-        <v>218.3166666666667</v>
+        <v>218.3333333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>216</v>
       </c>
       <c r="F23" t="n">
-        <v>694.4919</v>
+        <v>196.6372</v>
       </c>
       <c r="G23" t="n">
-        <v>218.2833333333333</v>
+        <v>218.3166666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,23 +1215,19 @@
         <v>216</v>
       </c>
       <c r="F24" t="n">
-        <v>1041.7378</v>
+        <v>694.4919</v>
       </c>
       <c r="G24" t="n">
-        <v>218.3</v>
+        <v>218.2833333333333</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>216</v>
-      </c>
-      <c r="K24" t="n">
-        <v>216</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
@@ -1254,7 +1250,7 @@
         <v>216</v>
       </c>
       <c r="F25" t="n">
-        <v>174.4602</v>
+        <v>1041.7378</v>
       </c>
       <c r="G25" t="n">
         <v>218.3</v>
@@ -1271,11 +1267,7 @@
       <c r="K25" t="n">
         <v>216</v>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1297,10 +1289,10 @@
         <v>216</v>
       </c>
       <c r="F26" t="n">
-        <v>300</v>
+        <v>174.4602</v>
       </c>
       <c r="G26" t="n">
-        <v>218.3166666666667</v>
+        <v>218.3</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -1331,16 +1323,16 @@
         <v>216</v>
       </c>
       <c r="C27" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D27" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E27" t="n">
         <v>216</v>
       </c>
       <c r="F27" t="n">
-        <v>802.4215</v>
+        <v>300</v>
       </c>
       <c r="G27" t="n">
         <v>218.3166666666667</v>
@@ -1359,7 +1351,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M27" t="n">
@@ -1374,37 +1366,29 @@
         <v>216</v>
       </c>
       <c r="C28" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D28" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E28" t="n">
         <v>216</v>
       </c>
       <c r="F28" t="n">
-        <v>275.9999</v>
+        <v>802.4215</v>
       </c>
       <c r="G28" t="n">
-        <v>218.2666666666667</v>
+        <v>218.3166666666667</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>218</v>
-      </c>
-      <c r="K28" t="n">
-        <v>216</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1414,40 +1398,32 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C29" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D29" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E29" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>275.9999</v>
       </c>
       <c r="G29" t="n">
-        <v>218.25</v>
+        <v>218.2666666666667</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>216</v>
-      </c>
-      <c r="K29" t="n">
-        <v>216</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1460,19 +1436,19 @@
         <v>218</v>
       </c>
       <c r="C30" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D30" t="n">
         <v>218</v>
       </c>
       <c r="E30" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F30" t="n">
-        <v>7108.2347</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>218.2166666666667</v>
+        <v>218.25</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1481,14 +1457,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>216</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1498,7 +1468,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C31" t="n">
         <v>217</v>
@@ -1510,10 +1480,10 @@
         <v>217</v>
       </c>
       <c r="F31" t="n">
-        <v>4207.5688</v>
+        <v>7108.2347</v>
       </c>
       <c r="G31" t="n">
-        <v>218.1833333333333</v>
+        <v>218.2166666666667</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1522,14 +1492,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>216</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1545,16 +1509,16 @@
         <v>217</v>
       </c>
       <c r="D32" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E32" t="n">
         <v>217</v>
       </c>
       <c r="F32" t="n">
-        <v>393.5432</v>
+        <v>4207.5688</v>
       </c>
       <c r="G32" t="n">
-        <v>218.15</v>
+        <v>218.1833333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1563,14 +1527,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>216</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1592,10 +1550,10 @@
         <v>217</v>
       </c>
       <c r="F33" t="n">
-        <v>450.0691</v>
+        <v>393.5432</v>
       </c>
       <c r="G33" t="n">
-        <v>218.1166666666667</v>
+        <v>218.15</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1604,14 +1562,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>216</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1624,19 +1576,19 @@
         <v>217</v>
       </c>
       <c r="C34" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D34" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E34" t="n">
         <v>217</v>
       </c>
       <c r="F34" t="n">
-        <v>168.8315</v>
+        <v>450.0691</v>
       </c>
       <c r="G34" t="n">
-        <v>218.1</v>
+        <v>218.1166666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1645,14 +1597,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>216</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1665,19 +1611,19 @@
         <v>217</v>
       </c>
       <c r="C35" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D35" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E35" t="n">
         <v>217</v>
       </c>
       <c r="F35" t="n">
-        <v>17</v>
+        <v>168.8315</v>
       </c>
       <c r="G35" t="n">
-        <v>218.0666666666667</v>
+        <v>218.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1686,14 +1632,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>216</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1703,22 +1643,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C36" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D36" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E36" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G36" t="n">
-        <v>218.0333333333333</v>
+        <v>218.0666666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1727,14 +1667,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>216</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1744,22 +1678,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C37" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D37" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E37" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F37" t="n">
-        <v>1009.7399</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>218</v>
+        <v>218.0333333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1768,14 +1702,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>216</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1797,10 +1725,10 @@
         <v>217</v>
       </c>
       <c r="F38" t="n">
-        <v>1009.3133</v>
+        <v>1009.7399</v>
       </c>
       <c r="G38" t="n">
-        <v>217.9666666666667</v>
+        <v>218</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1809,14 +1737,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>216</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1838,10 +1760,10 @@
         <v>217</v>
       </c>
       <c r="F39" t="n">
-        <v>9945.0785</v>
+        <v>1009.3133</v>
       </c>
       <c r="G39" t="n">
-        <v>217.95</v>
+        <v>217.9666666666667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1850,14 +1772,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>216</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1879,10 +1795,10 @@
         <v>217</v>
       </c>
       <c r="F40" t="n">
-        <v>180.395</v>
+        <v>9945.0785</v>
       </c>
       <c r="G40" t="n">
-        <v>217.9166666666667</v>
+        <v>217.95</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1891,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>216</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1908,22 +1818,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C41" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D41" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E41" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F41" t="n">
-        <v>25.5878</v>
+        <v>180.395</v>
       </c>
       <c r="G41" t="n">
-        <v>217.8833333333333</v>
+        <v>217.9166666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1932,14 +1842,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>216</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1961,10 +1865,10 @@
         <v>218</v>
       </c>
       <c r="F42" t="n">
-        <v>10</v>
+        <v>25.5878</v>
       </c>
       <c r="G42" t="n">
-        <v>217.85</v>
+        <v>217.8833333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1973,14 +1877,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>216</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1993,19 +1891,19 @@
         <v>218</v>
       </c>
       <c r="C43" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D43" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E43" t="n">
         <v>218</v>
       </c>
       <c r="F43" t="n">
-        <v>396.3389</v>
+        <v>10</v>
       </c>
       <c r="G43" t="n">
-        <v>217.8333333333333</v>
+        <v>217.85</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2014,14 +1912,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>216</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2031,22 +1923,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C44" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D44" t="n">
         <v>219</v>
       </c>
       <c r="E44" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F44" t="n">
-        <v>1093.2978</v>
+        <v>396.3389</v>
       </c>
       <c r="G44" t="n">
-        <v>217.8166666666667</v>
+        <v>217.8333333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2055,14 +1947,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>216</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2075,16 +1961,16 @@
         <v>219</v>
       </c>
       <c r="C45" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D45" t="n">
         <v>219</v>
       </c>
       <c r="E45" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F45" t="n">
-        <v>107.8944</v>
+        <v>1093.2978</v>
       </c>
       <c r="G45" t="n">
         <v>217.8166666666667</v>
@@ -2096,14 +1982,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>216</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2113,22 +1993,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C46" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D46" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E46" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F46" t="n">
-        <v>10.059</v>
+        <v>107.8944</v>
       </c>
       <c r="G46" t="n">
-        <v>217.8333333333333</v>
+        <v>217.8166666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2137,14 +2017,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>216</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2154,22 +2028,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C47" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D47" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E47" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F47" t="n">
-        <v>3208.5919</v>
+        <v>10.059</v>
       </c>
       <c r="G47" t="n">
-        <v>217.8</v>
+        <v>217.8333333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2178,14 +2052,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>216</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2195,22 +2063,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C48" t="n">
         <v>217</v>
       </c>
       <c r="D48" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E48" t="n">
         <v>217</v>
       </c>
       <c r="F48" t="n">
-        <v>10.0338</v>
+        <v>3208.5919</v>
       </c>
       <c r="G48" t="n">
-        <v>217.7833333333333</v>
+        <v>217.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2219,14 +2087,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>216</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2236,22 +2098,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C49" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D49" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E49" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>10.0338</v>
       </c>
       <c r="G49" t="n">
-        <v>217.75</v>
+        <v>217.7833333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2260,14 +2122,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>216</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2286,13 +2142,13 @@
         <v>218</v>
       </c>
       <c r="E50" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F50" t="n">
-        <v>972.6249</v>
+        <v>2</v>
       </c>
       <c r="G50" t="n">
-        <v>217.7166666666667</v>
+        <v>217.75</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2301,14 +2157,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>216</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2327,13 +2177,13 @@
         <v>218</v>
       </c>
       <c r="E51" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F51" t="n">
-        <v>2522.9356</v>
+        <v>972.6249</v>
       </c>
       <c r="G51" t="n">
-        <v>217.6833333333333</v>
+        <v>217.7166666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2342,14 +2192,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>216</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2359,19 +2203,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C52" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D52" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E52" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F52" t="n">
-        <v>2</v>
+        <v>2522.9356</v>
       </c>
       <c r="G52" t="n">
         <v>217.6833333333333</v>
@@ -2383,14 +2227,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>216</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2412,7 +2250,7 @@
         <v>219</v>
       </c>
       <c r="F53" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G53" t="n">
         <v>217.6833333333333</v>
@@ -2424,14 +2262,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>216</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2453,10 +2285,10 @@
         <v>219</v>
       </c>
       <c r="F54" t="n">
-        <v>509.0296</v>
+        <v>18</v>
       </c>
       <c r="G54" t="n">
-        <v>217.7</v>
+        <v>217.6833333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2465,14 +2297,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>216</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2494,7 +2320,7 @@
         <v>219</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9704</v>
+        <v>509.0296</v>
       </c>
       <c r="G55" t="n">
         <v>217.7</v>
@@ -2506,14 +2332,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>216</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2535,7 +2355,7 @@
         <v>219</v>
       </c>
       <c r="F56" t="n">
-        <v>515</v>
+        <v>0.9704</v>
       </c>
       <c r="G56" t="n">
         <v>217.7</v>
@@ -2547,14 +2367,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>216</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2567,19 +2381,19 @@
         <v>219</v>
       </c>
       <c r="C57" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D57" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E57" t="n">
         <v>219</v>
       </c>
       <c r="F57" t="n">
-        <v>2</v>
+        <v>515</v>
       </c>
       <c r="G57" t="n">
-        <v>217.7333333333333</v>
+        <v>217.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2588,14 +2402,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>216</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2605,7 +2413,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C58" t="n">
         <v>220</v>
@@ -2614,13 +2422,13 @@
         <v>220</v>
       </c>
       <c r="E58" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F58" t="n">
-        <v>2021.0001</v>
+        <v>2</v>
       </c>
       <c r="G58" t="n">
-        <v>217.75</v>
+        <v>217.7333333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2629,14 +2437,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>216</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2649,7 +2451,7 @@
         <v>220</v>
       </c>
       <c r="C59" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D59" t="n">
         <v>220</v>
@@ -2658,10 +2460,10 @@
         <v>218</v>
       </c>
       <c r="F59" t="n">
-        <v>2611.8411</v>
+        <v>2021.0001</v>
       </c>
       <c r="G59" t="n">
-        <v>217.7333333333333</v>
+        <v>217.75</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2670,14 +2472,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>216</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2687,22 +2483,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C60" t="n">
         <v>218</v>
       </c>
       <c r="D60" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E60" t="n">
         <v>218</v>
       </c>
       <c r="F60" t="n">
-        <v>1239.1589</v>
+        <v>2611.8411</v>
       </c>
       <c r="G60" t="n">
-        <v>217.7166666666667</v>
+        <v>217.7333333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2711,14 +2507,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>216</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2728,22 +2518,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C61" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D61" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E61" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F61" t="n">
-        <v>680.3704</v>
+        <v>1239.1589</v>
       </c>
       <c r="G61" t="n">
-        <v>217.6666666666667</v>
+        <v>217.7166666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2752,14 +2542,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>216</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2772,19 +2556,19 @@
         <v>217</v>
       </c>
       <c r="C62" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D62" t="n">
         <v>217</v>
       </c>
       <c r="E62" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F62" t="n">
-        <v>104.8425</v>
+        <v>680.3704</v>
       </c>
       <c r="G62" t="n">
-        <v>217.6333333333333</v>
+        <v>217.6666666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2793,14 +2577,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>216</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2810,19 +2588,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C63" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D63" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E63" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F63" t="n">
-        <v>327.6782</v>
+        <v>104.8425</v>
       </c>
       <c r="G63" t="n">
         <v>217.6333333333333</v>
@@ -2834,14 +2612,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>216</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2851,22 +2623,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C64" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D64" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E64" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F64" t="n">
-        <v>15</v>
+        <v>327.6782</v>
       </c>
       <c r="G64" t="n">
-        <v>217.65</v>
+        <v>217.6333333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2875,14 +2647,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>216</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2892,22 +2658,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C65" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D65" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E65" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F65" t="n">
-        <v>219.9901</v>
+        <v>15</v>
       </c>
       <c r="G65" t="n">
-        <v>217.6333333333333</v>
+        <v>217.65</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2916,14 +2682,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>216</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2933,22 +2693,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C66" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D66" t="n">
         <v>219</v>
       </c>
       <c r="E66" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F66" t="n">
-        <v>2970.9776</v>
+        <v>219.9901</v>
       </c>
       <c r="G66" t="n">
-        <v>217.65</v>
+        <v>217.6333333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2957,14 +2717,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>216</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2977,19 +2731,19 @@
         <v>217</v>
       </c>
       <c r="C67" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D67" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E67" t="n">
         <v>216</v>
       </c>
       <c r="F67" t="n">
-        <v>907.725</v>
+        <v>2970.9776</v>
       </c>
       <c r="G67" t="n">
-        <v>217.6</v>
+        <v>217.65</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2998,14 +2752,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>216</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3015,22 +2763,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C68" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D68" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E68" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>907.725</v>
       </c>
       <c r="G68" t="n">
-        <v>217.5833333333333</v>
+        <v>217.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3039,14 +2787,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>216</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3068,10 +2810,10 @@
         <v>218</v>
       </c>
       <c r="F69" t="n">
-        <v>1818</v>
+        <v>2</v>
       </c>
       <c r="G69" t="n">
-        <v>217.6</v>
+        <v>217.5833333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3080,14 +2822,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>216</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3097,22 +2833,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C70" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D70" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E70" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F70" t="n">
-        <v>1698.0667</v>
+        <v>1818</v>
       </c>
       <c r="G70" t="n">
-        <v>217.5833333333333</v>
+        <v>217.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3121,14 +2857,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>216</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3138,22 +2868,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C71" t="n">
         <v>217</v>
       </c>
       <c r="D71" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E71" t="n">
         <v>217</v>
       </c>
       <c r="F71" t="n">
-        <v>503.8498</v>
+        <v>1698.0667</v>
       </c>
       <c r="G71" t="n">
-        <v>217.5333333333333</v>
+        <v>217.5833333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3162,14 +2892,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>216</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3182,19 +2906,19 @@
         <v>218</v>
       </c>
       <c r="C72" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D72" t="n">
         <v>218</v>
       </c>
       <c r="E72" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F72" t="n">
-        <v>2997</v>
+        <v>503.8498</v>
       </c>
       <c r="G72" t="n">
-        <v>217.5666666666667</v>
+        <v>217.5333333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3203,14 +2927,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>216</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3232,7 +2950,7 @@
         <v>218</v>
       </c>
       <c r="F73" t="n">
-        <v>538</v>
+        <v>2997</v>
       </c>
       <c r="G73" t="n">
         <v>217.5666666666667</v>
@@ -3244,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>216</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3273,10 +2985,10 @@
         <v>218</v>
       </c>
       <c r="F74" t="n">
-        <v>1018</v>
+        <v>538</v>
       </c>
       <c r="G74" t="n">
-        <v>217.5833333333333</v>
+        <v>217.5666666666667</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3285,14 +2997,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>216</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3305,19 +3011,19 @@
         <v>218</v>
       </c>
       <c r="C75" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D75" t="n">
         <v>218</v>
       </c>
       <c r="E75" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F75" t="n">
-        <v>2267.4445</v>
+        <v>1018</v>
       </c>
       <c r="G75" t="n">
-        <v>217.6</v>
+        <v>217.5833333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3326,14 +3032,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>216</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3343,22 +3043,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C76" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D76" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E76" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F76" t="n">
-        <v>2</v>
+        <v>2267.4445</v>
       </c>
       <c r="G76" t="n">
-        <v>217.6333333333333</v>
+        <v>217.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3367,14 +3067,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>216</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3384,22 +3078,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C77" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D77" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E77" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F77" t="n">
-        <v>2086.2856</v>
+        <v>2</v>
       </c>
       <c r="G77" t="n">
-        <v>217.65</v>
+        <v>217.6333333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3408,14 +3102,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>216</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3425,22 +3113,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C78" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D78" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E78" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F78" t="n">
-        <v>100</v>
+        <v>2086.2856</v>
       </c>
       <c r="G78" t="n">
-        <v>217.7166666666667</v>
+        <v>217.65</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3449,14 +3137,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>216</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3466,22 +3148,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C79" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D79" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E79" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F79" t="n">
-        <v>1244</v>
+        <v>100</v>
       </c>
       <c r="G79" t="n">
-        <v>217.75</v>
+        <v>217.7166666666667</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3490,14 +3172,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>216</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3519,10 +3195,10 @@
         <v>218</v>
       </c>
       <c r="F80" t="n">
-        <v>815.9517</v>
+        <v>1244</v>
       </c>
       <c r="G80" t="n">
-        <v>217.7666666666667</v>
+        <v>217.75</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3531,14 +3207,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>216</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3560,10 +3230,10 @@
         <v>218</v>
       </c>
       <c r="F81" t="n">
-        <v>533</v>
+        <v>815.9517</v>
       </c>
       <c r="G81" t="n">
-        <v>217.8</v>
+        <v>217.7666666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3572,14 +3242,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>216</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3601,10 +3265,10 @@
         <v>218</v>
       </c>
       <c r="F82" t="n">
-        <v>648</v>
+        <v>533</v>
       </c>
       <c r="G82" t="n">
-        <v>217.8333333333333</v>
+        <v>217.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3613,14 +3277,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>216</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3630,22 +3288,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C83" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D83" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E83" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F83" t="n">
-        <v>2</v>
+        <v>648</v>
       </c>
       <c r="G83" t="n">
-        <v>217.9</v>
+        <v>217.8333333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3654,14 +3312,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>216</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3671,22 +3323,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C84" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D84" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E84" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F84" t="n">
-        <v>225.9226</v>
+        <v>2</v>
       </c>
       <c r="G84" t="n">
-        <v>217.9333333333333</v>
+        <v>217.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3695,14 +3347,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>216</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3724,10 +3370,10 @@
         <v>218</v>
       </c>
       <c r="F85" t="n">
-        <v>1818</v>
+        <v>225.9226</v>
       </c>
       <c r="G85" t="n">
-        <v>217.9666666666667</v>
+        <v>217.9333333333333</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3736,14 +3382,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>216</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3753,22 +3393,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C86" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D86" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E86" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F86" t="n">
-        <v>2</v>
+        <v>1818</v>
       </c>
       <c r="G86" t="n">
-        <v>218.0333333333333</v>
+        <v>217.9666666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3777,14 +3417,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>216</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3794,19 +3428,19 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C87" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D87" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E87" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F87" t="n">
-        <v>408.3498</v>
+        <v>2</v>
       </c>
       <c r="G87" t="n">
         <v>218.0333333333333</v>
@@ -3818,14 +3452,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>216</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3835,22 +3463,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C88" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D88" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E88" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F88" t="n">
-        <v>363.6653</v>
+        <v>408.3498</v>
       </c>
       <c r="G88" t="n">
-        <v>218.0833333333333</v>
+        <v>218.0333333333333</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3859,14 +3487,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>216</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3879,19 +3501,19 @@
         <v>219</v>
       </c>
       <c r="C89" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D89" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E89" t="n">
         <v>219</v>
       </c>
       <c r="F89" t="n">
-        <v>3824.355</v>
+        <v>363.6653</v>
       </c>
       <c r="G89" t="n">
-        <v>218.1166666666667</v>
+        <v>218.0833333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3900,14 +3522,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>216</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3917,7 +3533,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C90" t="n">
         <v>220</v>
@@ -3929,10 +3545,10 @@
         <v>219</v>
       </c>
       <c r="F90" t="n">
-        <v>17714.203</v>
+        <v>3824.355</v>
       </c>
       <c r="G90" t="n">
-        <v>218.1666666666667</v>
+        <v>218.1166666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3941,14 +3557,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>216</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3958,22 +3568,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C91" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D91" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E91" t="n">
         <v>219</v>
       </c>
       <c r="F91" t="n">
-        <v>312.8253</v>
+        <v>17714.203</v>
       </c>
       <c r="G91" t="n">
-        <v>218.2</v>
+        <v>218.1666666666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3982,14 +3592,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>216</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4011,10 +3615,10 @@
         <v>219</v>
       </c>
       <c r="F92" t="n">
-        <v>466</v>
+        <v>312.8253</v>
       </c>
       <c r="G92" t="n">
-        <v>218.2333333333333</v>
+        <v>218.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4023,14 +3627,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>216</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4052,10 +3650,10 @@
         <v>219</v>
       </c>
       <c r="F93" t="n">
-        <v>296.9336</v>
+        <v>466</v>
       </c>
       <c r="G93" t="n">
-        <v>218.2666666666667</v>
+        <v>218.2333333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4064,14 +3662,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>216</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4093,10 +3685,10 @@
         <v>219</v>
       </c>
       <c r="F94" t="n">
-        <v>188.3432</v>
+        <v>296.9336</v>
       </c>
       <c r="G94" t="n">
-        <v>218.2833333333333</v>
+        <v>218.2666666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4105,14 +3697,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>216</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4134,10 +3720,10 @@
         <v>219</v>
       </c>
       <c r="F95" t="n">
-        <v>159.2864</v>
+        <v>188.3432</v>
       </c>
       <c r="G95" t="n">
-        <v>218.3166666666667</v>
+        <v>218.2833333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4146,14 +3732,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>216</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4163,22 +3743,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C96" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D96" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E96" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F96" t="n">
-        <v>1850</v>
+        <v>159.2864</v>
       </c>
       <c r="G96" t="n">
-        <v>218.35</v>
+        <v>218.3166666666667</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4187,14 +3767,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>216</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4207,19 +3781,19 @@
         <v>220</v>
       </c>
       <c r="C97" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D97" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E97" t="n">
         <v>220</v>
       </c>
       <c r="F97" t="n">
-        <v>7446.9128</v>
+        <v>1850</v>
       </c>
       <c r="G97" t="n">
-        <v>218.4166666666667</v>
+        <v>218.35</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4228,14 +3802,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>216</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4245,22 +3813,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C98" t="n">
         <v>221</v>
       </c>
       <c r="D98" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E98" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F98" t="n">
-        <v>637</v>
+        <v>7446.9128</v>
       </c>
       <c r="G98" t="n">
-        <v>218.4833333333333</v>
+        <v>218.4166666666667</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4269,14 +3837,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>216</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4286,22 +3848,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
+        <v>221</v>
+      </c>
+      <c r="C99" t="n">
+        <v>221</v>
+      </c>
+      <c r="D99" t="n">
         <v>222</v>
       </c>
-      <c r="C99" t="n">
-        <v>226</v>
-      </c>
-      <c r="D99" t="n">
-        <v>227</v>
-      </c>
       <c r="E99" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F99" t="n">
-        <v>55597.9253</v>
+        <v>637</v>
       </c>
       <c r="G99" t="n">
-        <v>218.6333333333333</v>
+        <v>218.4833333333333</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4310,14 +3872,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>216</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4327,22 +3883,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C100" t="n">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D100" t="n">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E100" t="n">
         <v>222</v>
       </c>
       <c r="F100" t="n">
-        <v>1859.9999</v>
+        <v>55597.9253</v>
       </c>
       <c r="G100" t="n">
-        <v>218.7333333333333</v>
+        <v>218.6333333333333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4351,14 +3907,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>216</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4368,40 +3918,34 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C101" t="n">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D101" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E101" t="n">
         <v>222</v>
       </c>
       <c r="F101" t="n">
-        <v>559.3546</v>
+        <v>1859.9999</v>
       </c>
       <c r="G101" t="n">
-        <v>218.85</v>
+        <v>218.7333333333333</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>216</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>1.036666666666667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -4409,7 +3953,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C102" t="n">
         <v>225</v>
@@ -4418,19 +3962,19 @@
         <v>225</v>
       </c>
       <c r="E102" t="n">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F102" t="n">
-        <v>242</v>
+        <v>559.3546</v>
       </c>
       <c r="G102" t="n">
-        <v>218.9666666666667</v>
+        <v>218.85</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4444,22 +3988,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C103" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D103" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E103" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F103" t="n">
-        <v>1056.7978</v>
+        <v>242</v>
       </c>
       <c r="G103" t="n">
-        <v>219.0333333333333</v>
+        <v>218.9666666666667</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4491,16 +4035,16 @@
         <v>223</v>
       </c>
       <c r="F104" t="n">
-        <v>175.6057</v>
+        <v>1056.7978</v>
       </c>
       <c r="G104" t="n">
-        <v>219.1333333333333</v>
+        <v>219.0333333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4514,22 +4058,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C105" t="n">
         <v>223</v>
       </c>
       <c r="D105" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E105" t="n">
         <v>223</v>
       </c>
       <c r="F105" t="n">
-        <v>958.2474</v>
+        <v>175.6057</v>
       </c>
       <c r="G105" t="n">
-        <v>219.2</v>
+        <v>219.1333333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4549,28 +4093,28 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C106" t="n">
+        <v>223</v>
+      </c>
+      <c r="D106" t="n">
         <v>224</v>
       </c>
-      <c r="D106" t="n">
-        <v>226</v>
-      </c>
       <c r="E106" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F106" t="n">
-        <v>1067.6592</v>
+        <v>958.2474</v>
       </c>
       <c r="G106" t="n">
-        <v>219.2666666666667</v>
+        <v>219.2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4579,6 +4123,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>225</v>
+      </c>
+      <c r="C107" t="n">
+        <v>224</v>
+      </c>
+      <c r="D107" t="n">
+        <v>226</v>
+      </c>
+      <c r="E107" t="n">
+        <v>224</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1067.6592</v>
+      </c>
+      <c r="G107" t="n">
+        <v>219.2666666666667</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-19 BackTest KNC.xlsx
+++ b/BackTest/2019-10-19 BackTest KNC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M107"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>581.6115</v>
       </c>
       <c r="G2" t="n">
+        <v>219</v>
+      </c>
+      <c r="H2" t="n">
         <v>218.3333333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>494.0361</v>
       </c>
       <c r="G3" t="n">
+        <v>219</v>
+      </c>
+      <c r="H3" t="n">
         <v>218.3666666666667</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>228.7561</v>
       </c>
       <c r="G4" t="n">
+        <v>219.0666666666667</v>
+      </c>
+      <c r="H4" t="n">
         <v>218.4</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>308.471</v>
       </c>
       <c r="G5" t="n">
+        <v>219</v>
+      </c>
+      <c r="H5" t="n">
         <v>218.4333333333333</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>31.7106</v>
       </c>
       <c r="G6" t="n">
+        <v>218.9333333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>218.4666666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>487.9231</v>
       </c>
       <c r="G7" t="n">
+        <v>218.8</v>
+      </c>
+      <c r="H7" t="n">
         <v>218.4833333333333</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>492.9237</v>
       </c>
       <c r="G8" t="n">
+        <v>218.8</v>
+      </c>
+      <c r="H8" t="n">
         <v>218.5166666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>109.4175</v>
       </c>
       <c r="G9" t="n">
+        <v>218.8</v>
+      </c>
+      <c r="H9" t="n">
         <v>218.5333333333333</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>6863.532</v>
       </c>
       <c r="G10" t="n">
+        <v>218.7333333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>218.5166666666667</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>103.3729</v>
       </c>
       <c r="G11" t="n">
+        <v>218.6666666666667</v>
+      </c>
+      <c r="H11" t="n">
         <v>218.5166666666667</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>1</v>
       </c>
       <c r="G12" t="n">
+        <v>218.7333333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>218.55</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>8207.306399999999</v>
       </c>
       <c r="G13" t="n">
+        <v>218.6</v>
+      </c>
+      <c r="H13" t="n">
         <v>218.5166666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>159.5412844036697</v>
       </c>
       <c r="G14" t="n">
+        <v>218.5333333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>218.5166666666667</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>100</v>
       </c>
       <c r="G15" t="n">
+        <v>218.4</v>
+      </c>
+      <c r="H15" t="n">
         <v>218.5</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>736.8181</v>
       </c>
       <c r="G16" t="n">
+        <v>218.2</v>
+      </c>
+      <c r="H16" t="n">
         <v>218.45</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>127.0469</v>
       </c>
       <c r="G17" t="n">
+        <v>218.0666666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>218.4333333333333</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>2000</v>
       </c>
       <c r="G18" t="n">
+        <v>217.9333333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>218.4166666666667</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,27 @@
         <v>1186.1785</v>
       </c>
       <c r="G19" t="n">
+        <v>217.7333333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>218.4</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>217</v>
+      </c>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1143,25 @@
         <v>1685.8719</v>
       </c>
       <c r="G20" t="n">
+        <v>217.5333333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>218.35</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1185,27 @@
         <v>3020</v>
       </c>
       <c r="G21" t="n">
+        <v>217.4</v>
+      </c>
+      <c r="H21" t="n">
         <v>218.35</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>216</v>
+      </c>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1229,25 @@
         <v>2000</v>
       </c>
       <c r="G22" t="n">
+        <v>217.2666666666667</v>
+      </c>
+      <c r="H22" t="n">
         <v>218.3333333333333</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1271,27 @@
         <v>196.6372</v>
       </c>
       <c r="G23" t="n">
+        <v>217.0666666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>218.3166666666667</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>216</v>
+      </c>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1315,27 @@
         <v>694.4919</v>
       </c>
       <c r="G24" t="n">
+        <v>216.8666666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>218.2833333333333</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>216</v>
+      </c>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,22 +1359,27 @@
         <v>1041.7378</v>
       </c>
       <c r="G25" t="n">
+        <v>216.8</v>
+      </c>
+      <c r="H25" t="n">
         <v>218.3</v>
       </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>216</v>
       </c>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1292,26 +1403,27 @@
         <v>174.4602</v>
       </c>
       <c r="G26" t="n">
+        <v>216.6666666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>218.3</v>
       </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>216</v>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1447,27 @@
         <v>300</v>
       </c>
       <c r="G27" t="n">
+        <v>216.4</v>
+      </c>
+      <c r="H27" t="n">
         <v>218.3166666666667</v>
       </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>216</v>
       </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1378,18 +1491,27 @@
         <v>802.4215</v>
       </c>
       <c r="G28" t="n">
+        <v>216.5333333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>218.3166666666667</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>216</v>
+      </c>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1413,18 +1535,27 @@
         <v>275.9999</v>
       </c>
       <c r="G29" t="n">
+        <v>216.4</v>
+      </c>
+      <c r="H29" t="n">
         <v>218.2666666666667</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>218</v>
+      </c>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1448,18 +1579,27 @@
         <v>2</v>
       </c>
       <c r="G30" t="n">
+        <v>216.4666666666667</v>
+      </c>
+      <c r="H30" t="n">
         <v>218.25</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>216</v>
+      </c>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1483,18 +1623,25 @@
         <v>7108.2347</v>
       </c>
       <c r="G31" t="n">
+        <v>216.5333333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>218.2166666666667</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1518,18 +1665,25 @@
         <v>4207.5688</v>
       </c>
       <c r="G32" t="n">
+        <v>216.5333333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>218.1833333333333</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1553,18 +1707,25 @@
         <v>393.5432</v>
       </c>
       <c r="G33" t="n">
+        <v>216.5333333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>218.15</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1588,18 +1749,25 @@
         <v>450.0691</v>
       </c>
       <c r="G34" t="n">
+        <v>216.6</v>
+      </c>
+      <c r="H34" t="n">
         <v>218.1166666666667</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1623,18 +1791,27 @@
         <v>168.8315</v>
       </c>
       <c r="G35" t="n">
+        <v>216.7333333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>218.1</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>217</v>
+      </c>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1658,18 +1835,27 @@
         <v>17</v>
       </c>
       <c r="G36" t="n">
+        <v>216.7333333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>218.0666666666667</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>218</v>
+      </c>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1693,18 +1879,27 @@
         <v>1</v>
       </c>
       <c r="G37" t="n">
+        <v>216.8666666666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>218.0333333333333</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>217</v>
+      </c>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1728,18 +1923,25 @@
         <v>1009.7399</v>
       </c>
       <c r="G38" t="n">
-        <v>218</v>
+        <v>216.9333333333333</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1763,18 +1965,25 @@
         <v>1009.3133</v>
       </c>
       <c r="G39" t="n">
+        <v>217</v>
+      </c>
+      <c r="H39" t="n">
         <v>217.9666666666667</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1798,18 +2007,25 @@
         <v>9945.0785</v>
       </c>
       <c r="G40" t="n">
+        <v>217.0666666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>217.95</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1833,18 +2049,27 @@
         <v>180.395</v>
       </c>
       <c r="G41" t="n">
+        <v>217.1333333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>217.9166666666667</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>217</v>
+      </c>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1868,18 +2093,25 @@
         <v>25.5878</v>
       </c>
       <c r="G42" t="n">
+        <v>217.2666666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>217.8833333333333</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1903,18 +2135,25 @@
         <v>10</v>
       </c>
       <c r="G43" t="n">
+        <v>217.2666666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>217.85</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1938,18 +2177,25 @@
         <v>396.3389</v>
       </c>
       <c r="G44" t="n">
+        <v>217.4666666666667</v>
+      </c>
+      <c r="H44" t="n">
         <v>217.8333333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1973,18 +2219,25 @@
         <v>1093.2978</v>
       </c>
       <c r="G45" t="n">
+        <v>217.4</v>
+      </c>
+      <c r="H45" t="n">
         <v>217.8166666666667</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2008,18 +2261,25 @@
         <v>107.8944</v>
       </c>
       <c r="G46" t="n">
+        <v>217.5333333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>217.8166666666667</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2043,18 +2303,25 @@
         <v>10.059</v>
       </c>
       <c r="G47" t="n">
+        <v>217.7333333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>217.8333333333333</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2078,18 +2345,25 @@
         <v>3208.5919</v>
       </c>
       <c r="G48" t="n">
+        <v>217.7333333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>217.8</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2113,18 +2387,25 @@
         <v>10.0338</v>
       </c>
       <c r="G49" t="n">
+        <v>217.7333333333333</v>
+      </c>
+      <c r="H49" t="n">
         <v>217.7833333333333</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,18 +2429,25 @@
         <v>2</v>
       </c>
       <c r="G50" t="n">
+        <v>217.7333333333333</v>
+      </c>
+      <c r="H50" t="n">
         <v>217.75</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2183,18 +2471,25 @@
         <v>972.6249</v>
       </c>
       <c r="G51" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="H51" t="n">
         <v>217.7166666666667</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2218,18 +2513,25 @@
         <v>2522.9356</v>
       </c>
       <c r="G52" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="H52" t="n">
         <v>217.6833333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2253,18 +2555,27 @@
         <v>2</v>
       </c>
       <c r="G53" t="n">
+        <v>217.9333333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>217.6833333333333</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>218</v>
+      </c>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2288,18 +2599,25 @@
         <v>18</v>
       </c>
       <c r="G54" t="n">
+        <v>218.0666666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>217.6833333333333</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2323,18 +2641,25 @@
         <v>509.0296</v>
       </c>
       <c r="G55" t="n">
+        <v>218.2</v>
+      </c>
+      <c r="H55" t="n">
         <v>217.7</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2358,18 +2683,25 @@
         <v>0.9704</v>
       </c>
       <c r="G56" t="n">
+        <v>218.3333333333333</v>
+      </c>
+      <c r="H56" t="n">
         <v>217.7</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2393,18 +2725,25 @@
         <v>515</v>
       </c>
       <c r="G57" t="n">
+        <v>218.4</v>
+      </c>
+      <c r="H57" t="n">
         <v>217.7</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2428,18 +2767,25 @@
         <v>2</v>
       </c>
       <c r="G58" t="n">
+        <v>218.5333333333333</v>
+      </c>
+      <c r="H58" t="n">
         <v>217.7333333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2463,18 +2809,25 @@
         <v>2021.0001</v>
       </c>
       <c r="G59" t="n">
+        <v>218.6</v>
+      </c>
+      <c r="H59" t="n">
         <v>217.75</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2498,18 +2851,25 @@
         <v>2611.8411</v>
       </c>
       <c r="G60" t="n">
+        <v>218.6666666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>217.7333333333333</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2533,18 +2893,25 @@
         <v>1239.1589</v>
       </c>
       <c r="G61" t="n">
+        <v>218.6</v>
+      </c>
+      <c r="H61" t="n">
         <v>217.7166666666667</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2568,18 +2935,25 @@
         <v>680.3704</v>
       </c>
       <c r="G62" t="n">
+        <v>218.3333333333333</v>
+      </c>
+      <c r="H62" t="n">
         <v>217.6666666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2603,18 +2977,25 @@
         <v>104.8425</v>
       </c>
       <c r="G63" t="n">
+        <v>218.3333333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>217.6333333333333</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2638,18 +3019,25 @@
         <v>327.6782</v>
       </c>
       <c r="G64" t="n">
+        <v>218.4666666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>217.6333333333333</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2673,18 +3061,25 @@
         <v>15</v>
       </c>
       <c r="G65" t="n">
+        <v>218.6</v>
+      </c>
+      <c r="H65" t="n">
         <v>217.65</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2708,18 +3103,25 @@
         <v>219.9901</v>
       </c>
       <c r="G66" t="n">
+        <v>218.6</v>
+      </c>
+      <c r="H66" t="n">
         <v>217.6333333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,18 +3145,25 @@
         <v>2970.9776</v>
       </c>
       <c r="G67" t="n">
+        <v>218.6666666666667</v>
+      </c>
+      <c r="H67" t="n">
         <v>217.65</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2778,18 +3187,25 @@
         <v>907.725</v>
       </c>
       <c r="G68" t="n">
+        <v>218.4666666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>217.6</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2813,18 +3229,27 @@
         <v>2</v>
       </c>
       <c r="G69" t="n">
+        <v>218.4</v>
+      </c>
+      <c r="H69" t="n">
         <v>217.5833333333333</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>216</v>
+      </c>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2848,18 +3273,25 @@
         <v>1818</v>
       </c>
       <c r="G70" t="n">
+        <v>218.3333333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>217.6</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2883,18 +3315,27 @@
         <v>1698.0667</v>
       </c>
       <c r="G71" t="n">
+        <v>218.2</v>
+      </c>
+      <c r="H71" t="n">
         <v>217.5833333333333</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>218</v>
+      </c>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2918,18 +3359,27 @@
         <v>503.8498</v>
       </c>
       <c r="G72" t="n">
+        <v>218.0666666666667</v>
+      </c>
+      <c r="H72" t="n">
         <v>217.5333333333333</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>217</v>
+      </c>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2953,18 +3403,27 @@
         <v>2997</v>
       </c>
       <c r="G73" t="n">
+        <v>217.9333333333333</v>
+      </c>
+      <c r="H73" t="n">
         <v>217.5666666666667</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>217</v>
+      </c>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2988,18 +3447,25 @@
         <v>538</v>
       </c>
       <c r="G74" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="H74" t="n">
         <v>217.5666666666667</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3023,18 +3489,27 @@
         <v>1018</v>
       </c>
       <c r="G75" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="H75" t="n">
         <v>217.5833333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>218</v>
+      </c>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3058,18 +3533,27 @@
         <v>2267.4445</v>
       </c>
       <c r="G76" t="n">
+        <v>217.7333333333333</v>
+      </c>
+      <c r="H76" t="n">
         <v>217.6</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>218</v>
+      </c>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3093,18 +3577,25 @@
         <v>2</v>
       </c>
       <c r="G77" t="n">
+        <v>217.9333333333333</v>
+      </c>
+      <c r="H77" t="n">
         <v>217.6333333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3128,18 +3619,25 @@
         <v>2086.2856</v>
       </c>
       <c r="G78" t="n">
+        <v>218</v>
+      </c>
+      <c r="H78" t="n">
         <v>217.65</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3163,18 +3661,25 @@
         <v>100</v>
       </c>
       <c r="G79" t="n">
+        <v>218.0666666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>217.7166666666667</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3198,18 +3703,25 @@
         <v>1244</v>
       </c>
       <c r="G80" t="n">
+        <v>217.9333333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>217.75</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3233,18 +3745,25 @@
         <v>815.9517</v>
       </c>
       <c r="G81" t="n">
+        <v>217.9333333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>217.7666666666667</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3268,18 +3787,25 @@
         <v>533</v>
       </c>
       <c r="G82" t="n">
+        <v>217.8666666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>217.8</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3303,18 +3829,25 @@
         <v>648</v>
       </c>
       <c r="G83" t="n">
+        <v>218</v>
+      </c>
+      <c r="H83" t="n">
         <v>217.8333333333333</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3338,18 +3871,25 @@
         <v>2</v>
       </c>
       <c r="G84" t="n">
+        <v>218.1333333333333</v>
+      </c>
+      <c r="H84" t="n">
         <v>217.9</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3373,18 +3913,25 @@
         <v>225.9226</v>
       </c>
       <c r="G85" t="n">
+        <v>218.1333333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>217.9333333333333</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3408,18 +3955,25 @@
         <v>1818</v>
       </c>
       <c r="G86" t="n">
+        <v>218.2</v>
+      </c>
+      <c r="H86" t="n">
         <v>217.9666666666667</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3443,18 +3997,25 @@
         <v>2</v>
       </c>
       <c r="G87" t="n">
+        <v>218.4</v>
+      </c>
+      <c r="H87" t="n">
         <v>218.0333333333333</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,18 +4039,25 @@
         <v>408.3498</v>
       </c>
       <c r="G88" t="n">
+        <v>218.4</v>
+      </c>
+      <c r="H88" t="n">
         <v>218.0333333333333</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3513,18 +4081,25 @@
         <v>363.6653</v>
       </c>
       <c r="G89" t="n">
+        <v>218.4666666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>218.0833333333333</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3548,18 +4123,25 @@
         <v>3824.355</v>
       </c>
       <c r="G90" t="n">
+        <v>218.6</v>
+      </c>
+      <c r="H90" t="n">
         <v>218.1166666666667</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3583,18 +4165,25 @@
         <v>17714.203</v>
       </c>
       <c r="G91" t="n">
+        <v>218.8</v>
+      </c>
+      <c r="H91" t="n">
         <v>218.1666666666667</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3618,18 +4207,25 @@
         <v>312.8253</v>
       </c>
       <c r="G92" t="n">
+        <v>218.8</v>
+      </c>
+      <c r="H92" t="n">
         <v>218.2</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3653,18 +4249,25 @@
         <v>466</v>
       </c>
       <c r="G93" t="n">
+        <v>218.8666666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>218.2333333333333</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3688,18 +4291,25 @@
         <v>296.9336</v>
       </c>
       <c r="G94" t="n">
+        <v>218.8</v>
+      </c>
+      <c r="H94" t="n">
         <v>218.2666666666667</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3723,18 +4333,25 @@
         <v>188.3432</v>
       </c>
       <c r="G95" t="n">
+        <v>218.8666666666667</v>
+      </c>
+      <c r="H95" t="n">
         <v>218.2833333333333</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3758,18 +4375,25 @@
         <v>159.2864</v>
       </c>
       <c r="G96" t="n">
+        <v>218.9333333333333</v>
+      </c>
+      <c r="H96" t="n">
         <v>218.3166666666667</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3793,18 +4417,25 @@
         <v>1850</v>
       </c>
       <c r="G97" t="n">
+        <v>219.0666666666667</v>
+      </c>
+      <c r="H97" t="n">
         <v>218.35</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3828,18 +4459,25 @@
         <v>7446.9128</v>
       </c>
       <c r="G98" t="n">
+        <v>219.2666666666667</v>
+      </c>
+      <c r="H98" t="n">
         <v>218.4166666666667</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3863,18 +4501,25 @@
         <v>637</v>
       </c>
       <c r="G99" t="n">
+        <v>219.3333333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>218.4833333333333</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3898,18 +4543,25 @@
         <v>55597.9253</v>
       </c>
       <c r="G100" t="n">
+        <v>219.8666666666667</v>
+      </c>
+      <c r="H100" t="n">
         <v>218.6333333333333</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3933,18 +4585,25 @@
         <v>1859.9999</v>
       </c>
       <c r="G101" t="n">
+        <v>220.2</v>
+      </c>
+      <c r="H101" t="n">
         <v>218.7333333333333</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3968,18 +4627,25 @@
         <v>559.3546</v>
       </c>
       <c r="G102" t="n">
+        <v>220.5333333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>218.85</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4003,18 +4669,25 @@
         <v>242</v>
       </c>
       <c r="G103" t="n">
+        <v>221</v>
+      </c>
+      <c r="H103" t="n">
         <v>218.9666666666667</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4038,18 +4711,25 @@
         <v>1056.7978</v>
       </c>
       <c r="G104" t="n">
+        <v>221.2666666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>219.0333333333333</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4073,18 +4753,25 @@
         <v>175.6057</v>
       </c>
       <c r="G105" t="n">
+        <v>221.4666666666667</v>
+      </c>
+      <c r="H105" t="n">
         <v>219.1333333333333</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4108,18 +4795,25 @@
         <v>958.2474</v>
       </c>
       <c r="G106" t="n">
+        <v>221.6666666666667</v>
+      </c>
+      <c r="H106" t="n">
         <v>219.2</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
-        <v>1</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4143,18 +4837,423 @@
         <v>1067.6592</v>
       </c>
       <c r="G107" t="n">
+        <v>222</v>
+      </c>
+      <c r="H107" t="n">
         <v>219.2666666666667</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>223</v>
+      </c>
+      <c r="C108" t="n">
+        <v>222</v>
+      </c>
+      <c r="D108" t="n">
+        <v>223</v>
+      </c>
+      <c r="E108" t="n">
+        <v>222</v>
+      </c>
+      <c r="F108" t="n">
+        <v>3336.35</v>
+      </c>
+      <c r="G108" t="n">
+        <v>222.2</v>
+      </c>
+      <c r="H108" t="n">
+        <v>219.35</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>225</v>
+      </c>
+      <c r="C109" t="n">
+        <v>226</v>
+      </c>
+      <c r="D109" t="n">
+        <v>226</v>
+      </c>
+      <c r="E109" t="n">
+        <v>225</v>
+      </c>
+      <c r="F109" t="n">
+        <v>162</v>
+      </c>
+      <c r="G109" t="n">
+        <v>222.6666666666667</v>
+      </c>
+      <c r="H109" t="n">
+        <v>219.5</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>225</v>
+      </c>
+      <c r="C110" t="n">
+        <v>224</v>
+      </c>
+      <c r="D110" t="n">
+        <v>225</v>
+      </c>
+      <c r="E110" t="n">
+        <v>224</v>
+      </c>
+      <c r="F110" t="n">
+        <v>344</v>
+      </c>
+      <c r="G110" t="n">
+        <v>223</v>
+      </c>
+      <c r="H110" t="n">
+        <v>219.6</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>222</v>
+      </c>
+      <c r="C111" t="n">
+        <v>222</v>
+      </c>
+      <c r="D111" t="n">
+        <v>222</v>
+      </c>
+      <c r="E111" t="n">
+        <v>222</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1811.2245</v>
+      </c>
+      <c r="G111" t="n">
+        <v>223.2</v>
+      </c>
+      <c r="H111" t="n">
+        <v>219.6666666666667</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>223</v>
+      </c>
+      <c r="C112" t="n">
+        <v>222</v>
+      </c>
+      <c r="D112" t="n">
+        <v>223</v>
+      </c>
+      <c r="E112" t="n">
+        <v>222</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2018.9561</v>
+      </c>
+      <c r="G112" t="n">
+        <v>223.3333333333333</v>
+      </c>
+      <c r="H112" t="n">
+        <v>219.7333333333333</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>224</v>
+      </c>
+      <c r="C113" t="n">
+        <v>224</v>
+      </c>
+      <c r="D113" t="n">
+        <v>224</v>
+      </c>
+      <c r="E113" t="n">
+        <v>224</v>
+      </c>
+      <c r="F113" t="n">
+        <v>56.6444</v>
+      </c>
+      <c r="G113" t="n">
+        <v>223.5333333333333</v>
+      </c>
+      <c r="H113" t="n">
+        <v>219.8166666666667</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>223</v>
+      </c>
+      <c r="C114" t="n">
+        <v>223</v>
+      </c>
+      <c r="D114" t="n">
+        <v>223</v>
+      </c>
+      <c r="E114" t="n">
+        <v>223</v>
+      </c>
+      <c r="F114" t="n">
+        <v>3276.4977</v>
+      </c>
+      <c r="G114" t="n">
+        <v>223.6666666666667</v>
+      </c>
+      <c r="H114" t="n">
+        <v>219.8833333333333</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>223</v>
+      </c>
+      <c r="C115" t="n">
+        <v>223</v>
+      </c>
+      <c r="D115" t="n">
+        <v>223</v>
+      </c>
+      <c r="E115" t="n">
+        <v>223</v>
+      </c>
+      <c r="F115" t="n">
+        <v>3363.6412</v>
+      </c>
+      <c r="G115" t="n">
+        <v>223.4666666666667</v>
+      </c>
+      <c r="H115" t="n">
+        <v>219.95</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>223</v>
+      </c>
+      <c r="C116" t="n">
+        <v>222</v>
+      </c>
+      <c r="D116" t="n">
+        <v>223</v>
+      </c>
+      <c r="E116" t="n">
+        <v>222</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1224.49</v>
+      </c>
+      <c r="G116" t="n">
+        <v>223.4</v>
+      </c>
+      <c r="H116" t="n">
+        <v>220</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>222</v>
+      </c>
+      <c r="C117" t="n">
+        <v>222</v>
+      </c>
+      <c r="D117" t="n">
+        <v>223</v>
+      </c>
+      <c r="E117" t="n">
+        <v>222</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2155.8483</v>
+      </c>
+      <c r="G117" t="n">
+        <v>223.2</v>
+      </c>
+      <c r="H117" t="n">
+        <v>220.05</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-19 BackTest KNC.xlsx
+++ b/BackTest/2019-10-19 BackTest KNC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:M146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -450,24 +445,21 @@
         <v>219</v>
       </c>
       <c r="F2" t="n">
-        <v>581.6115</v>
+        <v>23.4797</v>
       </c>
       <c r="G2" t="n">
-        <v>219</v>
+        <v>1162070.0156</v>
       </c>
       <c r="H2" t="n">
-        <v>218.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -488,24 +480,25 @@
         <v>219</v>
       </c>
       <c r="F3" t="n">
-        <v>494.0361</v>
+        <v>118.6894</v>
       </c>
       <c r="G3" t="n">
-        <v>219</v>
+        <v>1162070.0156</v>
       </c>
       <c r="H3" t="n">
-        <v>218.3666666666667</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
+        <v>219</v>
+      </c>
+      <c r="K3" t="n">
+        <v>219</v>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -526,24 +519,27 @@
         <v>219</v>
       </c>
       <c r="F4" t="n">
-        <v>228.7561</v>
+        <v>282.9538</v>
       </c>
       <c r="G4" t="n">
-        <v>219.0666666666667</v>
+        <v>1162070.0156</v>
       </c>
       <c r="H4" t="n">
-        <v>218.4</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>219</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,7 +548,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C5" t="n">
         <v>219</v>
@@ -561,27 +557,30 @@
         <v>219</v>
       </c>
       <c r="E5" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F5" t="n">
-        <v>308.471</v>
+        <v>85.73560000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>219</v>
+        <v>1162070.0156</v>
       </c>
       <c r="H5" t="n">
-        <v>218.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>219</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +589,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C6" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D6" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E6" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F6" t="n">
-        <v>31.7106</v>
+        <v>13.6363</v>
       </c>
       <c r="G6" t="n">
-        <v>218.9333333333333</v>
+        <v>1162083.6519</v>
       </c>
       <c r="H6" t="n">
-        <v>218.4666666666667</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -631,33 +627,30 @@
         <v>218</v>
       </c>
       <c r="C7" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D7" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E7" t="n">
         <v>218</v>
       </c>
       <c r="F7" t="n">
-        <v>487.9231</v>
+        <v>796.4871000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>218.8</v>
+        <v>1161287.1648</v>
       </c>
       <c r="H7" t="n">
-        <v>218.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -678,24 +671,21 @@
         <v>219</v>
       </c>
       <c r="F8" t="n">
-        <v>492.9237</v>
+        <v>141</v>
       </c>
       <c r="G8" t="n">
-        <v>218.8</v>
+        <v>1161287.1648</v>
       </c>
       <c r="H8" t="n">
-        <v>218.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +694,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C9" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D9" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E9" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F9" t="n">
-        <v>109.4175</v>
+        <v>9319.3006</v>
       </c>
       <c r="G9" t="n">
-        <v>218.8</v>
+        <v>1151967.8642</v>
       </c>
       <c r="H9" t="n">
-        <v>218.5333333333333</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +729,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C10" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D10" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E10" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F10" t="n">
-        <v>6863.532</v>
+        <v>226.2661</v>
       </c>
       <c r="G10" t="n">
-        <v>218.7333333333333</v>
+        <v>1152194.1303</v>
       </c>
       <c r="H10" t="n">
-        <v>218.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +764,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C11" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D11" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E11" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F11" t="n">
-        <v>103.3729</v>
+        <v>311.311</v>
       </c>
       <c r="G11" t="n">
-        <v>218.6666666666667</v>
+        <v>1152505.4413</v>
       </c>
       <c r="H11" t="n">
-        <v>218.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -830,24 +811,21 @@
         <v>220</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>188.0968</v>
       </c>
       <c r="G12" t="n">
-        <v>218.7333333333333</v>
+        <v>1152505.4413</v>
       </c>
       <c r="H12" t="n">
-        <v>218.55</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +834,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C13" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D13" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E13" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F13" t="n">
-        <v>8207.306399999999</v>
+        <v>1747.3792</v>
       </c>
       <c r="G13" t="n">
-        <v>218.6</v>
+        <v>1152505.4413</v>
       </c>
       <c r="H13" t="n">
-        <v>218.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +869,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C14" t="n">
         <v>218</v>
       </c>
       <c r="D14" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E14" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F14" t="n">
-        <v>159.5412844036697</v>
+        <v>4741.1102</v>
       </c>
       <c r="G14" t="n">
-        <v>218.5333333333333</v>
+        <v>1147764.3311</v>
       </c>
       <c r="H14" t="n">
-        <v>218.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +904,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C15" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D15" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E15" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F15" t="n">
-        <v>100</v>
+        <v>100.3455</v>
       </c>
       <c r="G15" t="n">
-        <v>218.4</v>
+        <v>1147864.6766</v>
       </c>
       <c r="H15" t="n">
-        <v>218.5</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +939,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C16" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D16" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E16" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F16" t="n">
-        <v>736.8181</v>
+        <v>390.2977</v>
       </c>
       <c r="G16" t="n">
-        <v>218.2</v>
+        <v>1147864.6766</v>
       </c>
       <c r="H16" t="n">
-        <v>218.45</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +974,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C17" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D17" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E17" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F17" t="n">
-        <v>127.0469</v>
+        <v>245.9644</v>
       </c>
       <c r="G17" t="n">
-        <v>218.0666666666667</v>
+        <v>1147864.6766</v>
       </c>
       <c r="H17" t="n">
-        <v>218.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +1009,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C18" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D18" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E18" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F18" t="n">
-        <v>2000</v>
+        <v>3821.7357</v>
       </c>
       <c r="G18" t="n">
-        <v>217.9333333333333</v>
+        <v>1144042.9409</v>
       </c>
       <c r="H18" t="n">
-        <v>218.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,42 +1044,37 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C19" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D19" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E19" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F19" t="n">
-        <v>1186.1785</v>
+        <v>1215.0747</v>
       </c>
       <c r="G19" t="n">
-        <v>217.7333333333333</v>
+        <v>1145258.0156</v>
       </c>
       <c r="H19" t="n">
-        <v>218.4</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="K19" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1128,40 +1083,41 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C20" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D20" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E20" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F20" t="n">
-        <v>1685.8719</v>
+        <v>887.4851</v>
       </c>
       <c r="G20" t="n">
-        <v>217.5333333333333</v>
+        <v>1145258.0156</v>
       </c>
       <c r="H20" t="n">
-        <v>218.35</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
+        <v>220</v>
+      </c>
+      <c r="K20" t="n">
+        <v>218</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1170,42 +1126,41 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C21" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D21" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E21" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F21" t="n">
-        <v>3020</v>
+        <v>556.9005</v>
       </c>
       <c r="G21" t="n">
-        <v>217.4</v>
+        <v>1145258.0156</v>
       </c>
       <c r="H21" t="n">
-        <v>218.35</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="K21" t="n">
-        <v>216</v>
-      </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
+        <v>218</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1214,40 +1169,37 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C22" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D22" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E22" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F22" t="n">
-        <v>2000</v>
+        <v>240.9351</v>
       </c>
       <c r="G22" t="n">
-        <v>217.2666666666667</v>
+        <v>1145017.0805</v>
       </c>
       <c r="H22" t="n">
-        <v>218.3333333333333</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="K22" t="n">
+        <v>220</v>
+      </c>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1256,42 +1208,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C23" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D23" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E23" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F23" t="n">
-        <v>196.6372</v>
+        <v>196.0143</v>
       </c>
       <c r="G23" t="n">
-        <v>217.0666666666667</v>
+        <v>1145017.0805</v>
       </c>
       <c r="H23" t="n">
-        <v>218.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>216</v>
-      </c>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
+        <v>220</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1300,42 +1249,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C24" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D24" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E24" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F24" t="n">
-        <v>694.4919</v>
+        <v>1578.9201</v>
       </c>
       <c r="G24" t="n">
-        <v>216.8666666666667</v>
+        <v>1143438.1604</v>
       </c>
       <c r="H24" t="n">
-        <v>218.2833333333333</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>216</v>
-      </c>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
+        <v>220</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1344,42 +1290,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C25" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D25" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E25" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F25" t="n">
-        <v>1041.7378</v>
+        <v>98.23950000000001</v>
       </c>
       <c r="G25" t="n">
-        <v>216.8</v>
+        <v>1143536.3999</v>
       </c>
       <c r="H25" t="n">
-        <v>218.3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>216</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,42 +1325,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C26" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D26" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E26" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F26" t="n">
-        <v>174.4602</v>
+        <v>2698.0109</v>
       </c>
       <c r="G26" t="n">
-        <v>216.6666666666667</v>
+        <v>1143536.3999</v>
       </c>
       <c r="H26" t="n">
-        <v>218.3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>216</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1432,42 +1360,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C27" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D27" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E27" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F27" t="n">
-        <v>300</v>
+        <v>26.1806</v>
       </c>
       <c r="G27" t="n">
-        <v>216.4</v>
+        <v>1143510.2193</v>
       </c>
       <c r="H27" t="n">
-        <v>218.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>216</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1476,42 +1395,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C28" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D28" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E28" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F28" t="n">
-        <v>802.4215</v>
+        <v>678.4423</v>
       </c>
       <c r="G28" t="n">
-        <v>216.5333333333333</v>
+        <v>1144188.6616</v>
       </c>
       <c r="H28" t="n">
-        <v>218.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>216</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1520,42 +1430,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C29" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D29" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E29" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F29" t="n">
-        <v>275.9999</v>
+        <v>633.9301</v>
       </c>
       <c r="G29" t="n">
-        <v>216.4</v>
+        <v>1144188.6616</v>
       </c>
       <c r="H29" t="n">
-        <v>218.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>218</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1564,42 +1465,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C30" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D30" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E30" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>72.05889999999999</v>
       </c>
       <c r="G30" t="n">
-        <v>216.4666666666667</v>
+        <v>1144188.6616</v>
       </c>
       <c r="H30" t="n">
-        <v>218.25</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>216</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1608,40 +1500,37 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C31" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D31" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E31" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F31" t="n">
-        <v>7108.2347</v>
+        <v>581.6115</v>
       </c>
       <c r="G31" t="n">
-        <v>216.5333333333333</v>
+        <v>1144188.6616</v>
       </c>
       <c r="H31" t="n">
-        <v>218.2166666666667</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
+        <v>219</v>
+      </c>
+      <c r="K31" t="n">
+        <v>219</v>
+      </c>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1650,40 +1539,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C32" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D32" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E32" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F32" t="n">
-        <v>4207.5688</v>
+        <v>494.0361</v>
       </c>
       <c r="G32" t="n">
-        <v>216.5333333333333</v>
+        <v>1144188.6616</v>
       </c>
       <c r="H32" t="n">
-        <v>218.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>219</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,40 +1580,41 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C33" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D33" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E33" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F33" t="n">
-        <v>393.5432</v>
+        <v>228.7561</v>
       </c>
       <c r="G33" t="n">
-        <v>216.5333333333333</v>
+        <v>1144188.6616</v>
       </c>
       <c r="H33" t="n">
-        <v>218.15</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+        <v>219</v>
+      </c>
+      <c r="K33" t="n">
+        <v>219</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1734,40 +1623,41 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C34" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D34" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E34" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F34" t="n">
-        <v>450.0691</v>
+        <v>308.471</v>
       </c>
       <c r="G34" t="n">
-        <v>216.6</v>
+        <v>1144188.6616</v>
       </c>
       <c r="H34" t="n">
-        <v>218.1166666666667</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+        <v>219</v>
+      </c>
+      <c r="K34" t="n">
+        <v>219</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,42 +1666,41 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C35" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D35" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E35" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F35" t="n">
-        <v>168.8315</v>
+        <v>31.7106</v>
       </c>
       <c r="G35" t="n">
-        <v>216.7333333333333</v>
+        <v>1144188.6616</v>
       </c>
       <c r="H35" t="n">
-        <v>218.1</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="K35" t="n">
-        <v>217</v>
-      </c>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
+        <v>219</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1820,42 +1709,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C36" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D36" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E36" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F36" t="n">
-        <v>17</v>
+        <v>487.9231</v>
       </c>
       <c r="G36" t="n">
-        <v>216.7333333333333</v>
+        <v>1143700.7385</v>
       </c>
       <c r="H36" t="n">
-        <v>218.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>218</v>
-      </c>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
+        <v>219</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1864,42 +1750,41 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C37" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D37" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E37" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>492.9237</v>
       </c>
       <c r="G37" t="n">
-        <v>216.8666666666667</v>
+        <v>1144193.6622</v>
       </c>
       <c r="H37" t="n">
-        <v>218.0333333333333</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="K37" t="n">
-        <v>217</v>
-      </c>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
+        <v>219</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1908,40 +1793,41 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C38" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D38" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E38" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F38" t="n">
-        <v>1009.7399</v>
+        <v>109.4175</v>
       </c>
       <c r="G38" t="n">
-        <v>216.9333333333333</v>
+        <v>1144193.6622</v>
       </c>
       <c r="H38" t="n">
-        <v>218</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
+        <v>219</v>
+      </c>
+      <c r="K38" t="n">
+        <v>219</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1962,28 +1848,29 @@
         <v>217</v>
       </c>
       <c r="F39" t="n">
-        <v>1009.3133</v>
+        <v>6863.532</v>
       </c>
       <c r="G39" t="n">
-        <v>217</v>
+        <v>1137330.1302</v>
       </c>
       <c r="H39" t="n">
-        <v>217.9666666666667</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
+        <v>219</v>
+      </c>
+      <c r="K39" t="n">
+        <v>219</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1992,40 +1879,41 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C40" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D40" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E40" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F40" t="n">
-        <v>9945.0785</v>
+        <v>103.3729</v>
       </c>
       <c r="G40" t="n">
-        <v>217.0666666666667</v>
+        <v>1137433.5031</v>
       </c>
       <c r="H40" t="n">
-        <v>217.95</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
+        <v>217</v>
+      </c>
+      <c r="K40" t="n">
+        <v>219</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,42 +1922,41 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C41" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D41" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E41" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F41" t="n">
-        <v>180.395</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>217.1333333333333</v>
+        <v>1137434.5031</v>
       </c>
       <c r="H41" t="n">
-        <v>217.9166666666667</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="K41" t="n">
-        <v>217</v>
-      </c>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
+        <v>219</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2081,37 +1968,38 @@
         <v>218</v>
       </c>
       <c r="C42" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D42" t="n">
         <v>218</v>
       </c>
       <c r="E42" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F42" t="n">
-        <v>25.5878</v>
+        <v>8207.306399999999</v>
       </c>
       <c r="G42" t="n">
-        <v>217.2666666666667</v>
+        <v>1129227.1967</v>
       </c>
       <c r="H42" t="n">
-        <v>217.8833333333333</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
+        <v>220</v>
+      </c>
+      <c r="K42" t="n">
+        <v>219</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2120,7 +2008,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C43" t="n">
         <v>218</v>
@@ -2129,31 +2017,30 @@
         <v>218</v>
       </c>
       <c r="E43" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F43" t="n">
-        <v>10</v>
+        <v>159.5412844036697</v>
       </c>
       <c r="G43" t="n">
-        <v>217.2666666666667</v>
+        <v>1129386.737984404</v>
       </c>
       <c r="H43" t="n">
-        <v>217.85</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>219</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2162,40 +2049,41 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C44" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D44" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E44" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F44" t="n">
-        <v>396.3389</v>
+        <v>100</v>
       </c>
       <c r="G44" t="n">
-        <v>217.4666666666667</v>
+        <v>1129286.737984404</v>
       </c>
       <c r="H44" t="n">
-        <v>217.8333333333333</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
+        <v>218</v>
+      </c>
+      <c r="K44" t="n">
+        <v>219</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2204,40 +2092,41 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C45" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D45" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E45" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F45" t="n">
-        <v>1093.2978</v>
+        <v>736.8181</v>
       </c>
       <c r="G45" t="n">
-        <v>217.4</v>
+        <v>1128549.919884404</v>
       </c>
       <c r="H45" t="n">
-        <v>217.8166666666667</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
+        <v>217</v>
+      </c>
+      <c r="K45" t="n">
+        <v>219</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2246,40 +2135,41 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C46" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D46" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E46" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F46" t="n">
-        <v>107.8944</v>
+        <v>127.0469</v>
       </c>
       <c r="G46" t="n">
-        <v>217.5333333333333</v>
+        <v>1128676.966784404</v>
       </c>
       <c r="H46" t="n">
-        <v>217.8166666666667</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
+        <v>216</v>
+      </c>
+      <c r="K46" t="n">
+        <v>219</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2288,40 +2178,41 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C47" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D47" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E47" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F47" t="n">
-        <v>10.059</v>
+        <v>2000</v>
       </c>
       <c r="G47" t="n">
-        <v>217.7333333333333</v>
+        <v>1128676.966784404</v>
       </c>
       <c r="H47" t="n">
-        <v>217.8333333333333</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
+        <v>217</v>
+      </c>
+      <c r="K47" t="n">
+        <v>219</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2330,40 +2221,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C48" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D48" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E48" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F48" t="n">
-        <v>3208.5919</v>
+        <v>1186.1785</v>
       </c>
       <c r="G48" t="n">
-        <v>217.7333333333333</v>
+        <v>1127490.788284404</v>
       </c>
       <c r="H48" t="n">
-        <v>217.8</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>219</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2372,40 +2262,41 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C49" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D49" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E49" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F49" t="n">
-        <v>10.0338</v>
+        <v>1685.8719</v>
       </c>
       <c r="G49" t="n">
-        <v>217.7333333333333</v>
+        <v>1127490.788284404</v>
       </c>
       <c r="H49" t="n">
-        <v>217.7833333333333</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
+        <v>216</v>
+      </c>
+      <c r="K49" t="n">
+        <v>219</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,40 +2305,41 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C50" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D50" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E50" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F50" t="n">
-        <v>2</v>
+        <v>3020</v>
       </c>
       <c r="G50" t="n">
-        <v>217.7333333333333</v>
+        <v>1130510.788284404</v>
       </c>
       <c r="H50" t="n">
-        <v>217.75</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
+        <v>216</v>
+      </c>
+      <c r="K50" t="n">
+        <v>219</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2456,40 +2348,41 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C51" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D51" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E51" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F51" t="n">
-        <v>972.6249</v>
+        <v>2000</v>
       </c>
       <c r="G51" t="n">
-        <v>217.8</v>
+        <v>1128510.788284404</v>
       </c>
       <c r="H51" t="n">
-        <v>217.7166666666667</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
+        <v>217</v>
+      </c>
+      <c r="K51" t="n">
+        <v>219</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2498,40 +2391,41 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C52" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D52" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E52" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F52" t="n">
-        <v>2522.9356</v>
+        <v>196.6372</v>
       </c>
       <c r="G52" t="n">
-        <v>217.8</v>
+        <v>1128510.788284404</v>
       </c>
       <c r="H52" t="n">
-        <v>217.6833333333333</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+        <v>216</v>
+      </c>
+      <c r="K52" t="n">
+        <v>219</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2540,42 +2434,41 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C53" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D53" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E53" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F53" t="n">
-        <v>2</v>
+        <v>694.4919</v>
       </c>
       <c r="G53" t="n">
-        <v>217.9333333333333</v>
+        <v>1128510.788284404</v>
       </c>
       <c r="H53" t="n">
-        <v>217.6833333333333</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="K53" t="n">
-        <v>218</v>
-      </c>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+        <v>219</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2584,40 +2477,41 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C54" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D54" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E54" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F54" t="n">
-        <v>18</v>
+        <v>1041.7378</v>
       </c>
       <c r="G54" t="n">
-        <v>218.0666666666667</v>
+        <v>1128510.788284404</v>
       </c>
       <c r="H54" t="n">
-        <v>217.6833333333333</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+        <v>216</v>
+      </c>
+      <c r="K54" t="n">
+        <v>219</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2626,40 +2520,41 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C55" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D55" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E55" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F55" t="n">
-        <v>509.0296</v>
+        <v>174.4602</v>
       </c>
       <c r="G55" t="n">
-        <v>218.2</v>
+        <v>1128510.788284404</v>
       </c>
       <c r="H55" t="n">
-        <v>217.7</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+        <v>216</v>
+      </c>
+      <c r="K55" t="n">
+        <v>219</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2668,40 +2563,41 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C56" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D56" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E56" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9704</v>
+        <v>300</v>
       </c>
       <c r="G56" t="n">
-        <v>218.3333333333333</v>
+        <v>1128510.788284404</v>
       </c>
       <c r="H56" t="n">
-        <v>217.7</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+        <v>216</v>
+      </c>
+      <c r="K56" t="n">
+        <v>219</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2710,40 +2606,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C57" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D57" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E57" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F57" t="n">
-        <v>515</v>
+        <v>802.4215</v>
       </c>
       <c r="G57" t="n">
-        <v>218.4</v>
+        <v>1129313.209784404</v>
       </c>
       <c r="H57" t="n">
-        <v>217.7</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>219</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2752,40 +2647,41 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C58" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D58" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E58" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F58" t="n">
-        <v>2</v>
+        <v>275.9999</v>
       </c>
       <c r="G58" t="n">
-        <v>218.5333333333333</v>
+        <v>1129037.209884404</v>
       </c>
       <c r="H58" t="n">
-        <v>217.7333333333333</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+        <v>218</v>
+      </c>
+      <c r="K58" t="n">
+        <v>219</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,40 +2690,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C59" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D59" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E59" t="n">
         <v>218</v>
       </c>
       <c r="F59" t="n">
-        <v>2021.0001</v>
+        <v>2</v>
       </c>
       <c r="G59" t="n">
-        <v>218.6</v>
+        <v>1129039.209884404</v>
       </c>
       <c r="H59" t="n">
-        <v>217.75</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>219</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2836,40 +2731,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C60" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D60" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E60" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F60" t="n">
-        <v>2611.8411</v>
+        <v>7108.2347</v>
       </c>
       <c r="G60" t="n">
-        <v>218.6666666666667</v>
+        <v>1121930.975184404</v>
       </c>
       <c r="H60" t="n">
-        <v>217.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>219</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2878,40 +2772,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C61" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D61" t="n">
         <v>218</v>
       </c>
       <c r="E61" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F61" t="n">
-        <v>1239.1589</v>
+        <v>4207.5688</v>
       </c>
       <c r="G61" t="n">
-        <v>218.6</v>
+        <v>1121930.975184404</v>
       </c>
       <c r="H61" t="n">
-        <v>217.7166666666667</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>219</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2923,37 +2816,36 @@
         <v>217</v>
       </c>
       <c r="C62" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D62" t="n">
         <v>217</v>
       </c>
       <c r="E62" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F62" t="n">
-        <v>680.3704</v>
+        <v>393.5432</v>
       </c>
       <c r="G62" t="n">
-        <v>218.3333333333333</v>
+        <v>1121930.975184404</v>
       </c>
       <c r="H62" t="n">
-        <v>217.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>219</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2974,28 +2866,27 @@
         <v>217</v>
       </c>
       <c r="F63" t="n">
-        <v>104.8425</v>
+        <v>450.0691</v>
       </c>
       <c r="G63" t="n">
-        <v>218.3333333333333</v>
+        <v>1121930.975184404</v>
       </c>
       <c r="H63" t="n">
-        <v>217.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>219</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3004,40 +2895,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C64" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D64" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E64" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F64" t="n">
-        <v>327.6782</v>
+        <v>168.8315</v>
       </c>
       <c r="G64" t="n">
-        <v>218.4666666666667</v>
+        <v>1122099.806684404</v>
       </c>
       <c r="H64" t="n">
-        <v>217.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>219</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3046,40 +2936,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C65" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D65" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E65" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F65" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G65" t="n">
-        <v>218.6</v>
+        <v>1122082.806684404</v>
       </c>
       <c r="H65" t="n">
-        <v>217.65</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>219</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3088,40 +2977,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C66" t="n">
         <v>218</v>
       </c>
       <c r="D66" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E66" t="n">
         <v>218</v>
       </c>
       <c r="F66" t="n">
-        <v>219.9901</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>218.6</v>
+        <v>1122083.806684404</v>
       </c>
       <c r="H66" t="n">
-        <v>217.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>219</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3133,37 +3021,36 @@
         <v>217</v>
       </c>
       <c r="C67" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D67" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E67" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F67" t="n">
-        <v>2970.9776</v>
+        <v>1009.7399</v>
       </c>
       <c r="G67" t="n">
-        <v>218.6666666666667</v>
+        <v>1121074.066784404</v>
       </c>
       <c r="H67" t="n">
-        <v>217.65</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>219</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3175,37 +3062,36 @@
         <v>217</v>
       </c>
       <c r="C68" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D68" t="n">
         <v>217</v>
       </c>
       <c r="E68" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F68" t="n">
-        <v>907.725</v>
+        <v>1009.3133</v>
       </c>
       <c r="G68" t="n">
-        <v>218.4666666666667</v>
+        <v>1121074.066784404</v>
       </c>
       <c r="H68" t="n">
-        <v>217.6</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>219</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3214,42 +3100,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C69" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D69" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E69" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F69" t="n">
-        <v>2</v>
+        <v>9945.0785</v>
       </c>
       <c r="G69" t="n">
-        <v>218.4</v>
+        <v>1121074.066784404</v>
       </c>
       <c r="H69" t="n">
-        <v>217.5833333333333</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>216</v>
-      </c>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
+        <v>219</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3258,40 +3141,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C70" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D70" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E70" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F70" t="n">
-        <v>1818</v>
+        <v>180.395</v>
       </c>
       <c r="G70" t="n">
-        <v>218.3333333333333</v>
+        <v>1121074.066784404</v>
       </c>
       <c r="H70" t="n">
-        <v>217.6</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>219</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3300,42 +3182,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C71" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D71" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E71" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F71" t="n">
-        <v>1698.0667</v>
+        <v>25.5878</v>
       </c>
       <c r="G71" t="n">
-        <v>218.2</v>
+        <v>1121099.654584404</v>
       </c>
       <c r="H71" t="n">
-        <v>217.5833333333333</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>218</v>
-      </c>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
+        <v>219</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3347,39 +3226,36 @@
         <v>218</v>
       </c>
       <c r="C72" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D72" t="n">
         <v>218</v>
       </c>
       <c r="E72" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F72" t="n">
-        <v>503.8498</v>
+        <v>10</v>
       </c>
       <c r="G72" t="n">
-        <v>218.0666666666667</v>
+        <v>1121099.654584404</v>
       </c>
       <c r="H72" t="n">
-        <v>217.5333333333333</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>217</v>
-      </c>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
+        <v>219</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3391,39 +3267,36 @@
         <v>218</v>
       </c>
       <c r="C73" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D73" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E73" t="n">
         <v>218</v>
       </c>
       <c r="F73" t="n">
-        <v>2997</v>
+        <v>396.3389</v>
       </c>
       <c r="G73" t="n">
-        <v>217.9333333333333</v>
+        <v>1121495.993484404</v>
       </c>
       <c r="H73" t="n">
-        <v>217.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>217</v>
-      </c>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
+        <v>219</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3432,40 +3305,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C74" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D74" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E74" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F74" t="n">
-        <v>538</v>
+        <v>1093.2978</v>
       </c>
       <c r="G74" t="n">
-        <v>217.8</v>
+        <v>1120402.695684404</v>
       </c>
       <c r="H74" t="n">
-        <v>217.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>219</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3474,42 +3346,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C75" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D75" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E75" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F75" t="n">
-        <v>1018</v>
+        <v>107.8944</v>
       </c>
       <c r="G75" t="n">
-        <v>217.8</v>
+        <v>1120510.590084404</v>
       </c>
       <c r="H75" t="n">
-        <v>217.5833333333333</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>218</v>
-      </c>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
+        <v>219</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3518,42 +3387,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C76" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D76" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E76" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F76" t="n">
-        <v>2267.4445</v>
+        <v>10.059</v>
       </c>
       <c r="G76" t="n">
-        <v>217.7333333333333</v>
+        <v>1120520.649084404</v>
       </c>
       <c r="H76" t="n">
-        <v>217.6</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>218</v>
-      </c>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
+        <v>219</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3562,40 +3428,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C77" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D77" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E77" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F77" t="n">
-        <v>2</v>
+        <v>3208.5919</v>
       </c>
       <c r="G77" t="n">
-        <v>217.9333333333333</v>
+        <v>1117312.057184404</v>
       </c>
       <c r="H77" t="n">
-        <v>217.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>219</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3604,40 +3469,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C78" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D78" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E78" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F78" t="n">
-        <v>2086.2856</v>
+        <v>10.0338</v>
       </c>
       <c r="G78" t="n">
-        <v>218</v>
+        <v>1117312.057184404</v>
       </c>
       <c r="H78" t="n">
-        <v>217.65</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>219</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3646,40 +3510,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C79" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D79" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E79" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F79" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G79" t="n">
-        <v>218.0666666666667</v>
+        <v>1117314.057184404</v>
       </c>
       <c r="H79" t="n">
-        <v>217.7166666666667</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>219</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3697,31 +3560,30 @@
         <v>218</v>
       </c>
       <c r="E80" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F80" t="n">
-        <v>1244</v>
+        <v>972.6249</v>
       </c>
       <c r="G80" t="n">
-        <v>217.9333333333333</v>
+        <v>1117314.057184404</v>
       </c>
       <c r="H80" t="n">
-        <v>217.75</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>219</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3742,28 +3604,27 @@
         <v>218</v>
       </c>
       <c r="F81" t="n">
-        <v>815.9517</v>
+        <v>2522.9356</v>
       </c>
       <c r="G81" t="n">
-        <v>217.9333333333333</v>
+        <v>1117314.057184404</v>
       </c>
       <c r="H81" t="n">
-        <v>217.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>219</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3772,40 +3633,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C82" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D82" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E82" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F82" t="n">
-        <v>533</v>
+        <v>2</v>
       </c>
       <c r="G82" t="n">
-        <v>217.8666666666667</v>
+        <v>1117316.057184404</v>
       </c>
       <c r="H82" t="n">
-        <v>217.8</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>219</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,40 +3674,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C83" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D83" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E83" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F83" t="n">
-        <v>648</v>
+        <v>18</v>
       </c>
       <c r="G83" t="n">
-        <v>218</v>
+        <v>1117316.057184404</v>
       </c>
       <c r="H83" t="n">
-        <v>217.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>219</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3856,40 +3715,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C84" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D84" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E84" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F84" t="n">
-        <v>2</v>
+        <v>509.0296</v>
       </c>
       <c r="G84" t="n">
-        <v>218.1333333333333</v>
+        <v>1117316.057184404</v>
       </c>
       <c r="H84" t="n">
-        <v>217.9</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>219</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3898,40 +3756,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C85" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D85" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E85" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F85" t="n">
-        <v>225.9226</v>
+        <v>0.9704</v>
       </c>
       <c r="G85" t="n">
-        <v>218.1333333333333</v>
+        <v>1117316.057184404</v>
       </c>
       <c r="H85" t="n">
-        <v>217.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>219</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3940,40 +3797,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C86" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D86" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E86" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F86" t="n">
-        <v>1818</v>
+        <v>515</v>
       </c>
       <c r="G86" t="n">
-        <v>218.2</v>
+        <v>1117316.057184404</v>
       </c>
       <c r="H86" t="n">
-        <v>217.9666666666667</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>219</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3982,7 +3838,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C87" t="n">
         <v>220</v>
@@ -3991,31 +3847,30 @@
         <v>220</v>
       </c>
       <c r="E87" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F87" t="n">
         <v>2</v>
       </c>
       <c r="G87" t="n">
-        <v>218.4</v>
+        <v>1117318.057184404</v>
       </c>
       <c r="H87" t="n">
-        <v>218.0333333333333</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>219</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4024,40 +3879,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C88" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D88" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E88" t="n">
         <v>218</v>
       </c>
       <c r="F88" t="n">
-        <v>408.3498</v>
+        <v>2021.0001</v>
       </c>
       <c r="G88" t="n">
-        <v>218.4</v>
+        <v>1117318.057184404</v>
       </c>
       <c r="H88" t="n">
-        <v>218.0333333333333</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>219</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4066,40 +3920,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C89" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D89" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E89" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F89" t="n">
-        <v>363.6653</v>
+        <v>2611.8411</v>
       </c>
       <c r="G89" t="n">
-        <v>218.4666666666667</v>
+        <v>1114706.216084404</v>
       </c>
       <c r="H89" t="n">
-        <v>218.0833333333333</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>219</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4108,40 +3961,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C90" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D90" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E90" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F90" t="n">
-        <v>3824.355</v>
+        <v>1239.1589</v>
       </c>
       <c r="G90" t="n">
-        <v>218.6</v>
+        <v>1114706.216084404</v>
       </c>
       <c r="H90" t="n">
-        <v>218.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>219</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4150,40 +4002,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C91" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D91" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E91" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F91" t="n">
-        <v>17714.203</v>
+        <v>680.3704</v>
       </c>
       <c r="G91" t="n">
-        <v>218.8</v>
+        <v>1114025.845684404</v>
       </c>
       <c r="H91" t="n">
-        <v>218.1666666666667</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>219</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4192,40 +4043,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C92" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D92" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E92" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F92" t="n">
-        <v>312.8253</v>
+        <v>104.8425</v>
       </c>
       <c r="G92" t="n">
-        <v>218.8</v>
+        <v>1114130.688184404</v>
       </c>
       <c r="H92" t="n">
-        <v>218.2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>219</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4246,28 +4096,27 @@
         <v>219</v>
       </c>
       <c r="F93" t="n">
-        <v>466</v>
+        <v>327.6782</v>
       </c>
       <c r="G93" t="n">
-        <v>218.8666666666667</v>
+        <v>1114458.366384404</v>
       </c>
       <c r="H93" t="n">
-        <v>218.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>219</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4276,40 +4125,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C94" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D94" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E94" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F94" t="n">
-        <v>296.9336</v>
+        <v>15</v>
       </c>
       <c r="G94" t="n">
-        <v>218.8</v>
+        <v>1114473.366384404</v>
       </c>
       <c r="H94" t="n">
-        <v>218.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>219</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4321,37 +4169,36 @@
         <v>219</v>
       </c>
       <c r="C95" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D95" t="n">
         <v>219</v>
       </c>
       <c r="E95" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F95" t="n">
-        <v>188.3432</v>
+        <v>219.9901</v>
       </c>
       <c r="G95" t="n">
-        <v>218.8666666666667</v>
+        <v>1114253.376284404</v>
       </c>
       <c r="H95" t="n">
-        <v>218.2833333333333</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>219</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4360,7 +4207,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C96" t="n">
         <v>219</v>
@@ -4369,31 +4216,30 @@
         <v>219</v>
       </c>
       <c r="E96" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F96" t="n">
-        <v>159.2864</v>
+        <v>2970.9776</v>
       </c>
       <c r="G96" t="n">
-        <v>218.9333333333333</v>
+        <v>1117224.353884404</v>
       </c>
       <c r="H96" t="n">
-        <v>218.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>219</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4402,40 +4248,41 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C97" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D97" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E97" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F97" t="n">
-        <v>1850</v>
+        <v>907.725</v>
       </c>
       <c r="G97" t="n">
-        <v>219.0666666666667</v>
+        <v>1116316.628884404</v>
       </c>
       <c r="H97" t="n">
-        <v>218.35</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
+        <v>219</v>
+      </c>
+      <c r="K97" t="n">
+        <v>219</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4444,40 +4291,41 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C98" t="n">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D98" t="n">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E98" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F98" t="n">
-        <v>7446.9128</v>
+        <v>2</v>
       </c>
       <c r="G98" t="n">
-        <v>219.2666666666667</v>
+        <v>1116318.628884404</v>
       </c>
       <c r="H98" t="n">
-        <v>218.4166666666667</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+        <v>216</v>
+      </c>
+      <c r="K98" t="n">
+        <v>219</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4486,40 +4334,41 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C99" t="n">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D99" t="n">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E99" t="n">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F99" t="n">
-        <v>637</v>
+        <v>1818</v>
       </c>
       <c r="G99" t="n">
-        <v>219.3333333333333</v>
+        <v>1116318.628884404</v>
       </c>
       <c r="H99" t="n">
-        <v>218.4833333333333</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+        <v>218</v>
+      </c>
+      <c r="K99" t="n">
+        <v>219</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,40 +4377,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C100" t="n">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D100" t="n">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E100" t="n">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F100" t="n">
-        <v>55597.9253</v>
+        <v>1698.0667</v>
       </c>
       <c r="G100" t="n">
-        <v>219.8666666666667</v>
+        <v>1114620.562184404</v>
       </c>
       <c r="H100" t="n">
-        <v>218.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>219</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4570,40 +4418,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C101" t="n">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D101" t="n">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E101" t="n">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F101" t="n">
-        <v>1859.9999</v>
+        <v>503.8498</v>
       </c>
       <c r="G101" t="n">
-        <v>220.2</v>
+        <v>1114620.562184404</v>
       </c>
       <c r="H101" t="n">
-        <v>218.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>219</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4612,40 +4459,39 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C102" t="n">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D102" t="n">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E102" t="n">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F102" t="n">
-        <v>559.3546</v>
+        <v>2997</v>
       </c>
       <c r="G102" t="n">
-        <v>220.5333333333333</v>
+        <v>1117617.562184404</v>
       </c>
       <c r="H102" t="n">
-        <v>218.85</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>219</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4654,40 +4500,39 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C103" t="n">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D103" t="n">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E103" t="n">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F103" t="n">
-        <v>242</v>
+        <v>538</v>
       </c>
       <c r="G103" t="n">
-        <v>221</v>
+        <v>1117617.562184404</v>
       </c>
       <c r="H103" t="n">
-        <v>218.9666666666667</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>219</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4696,40 +4541,39 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C104" t="n">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D104" t="n">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E104" t="n">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F104" t="n">
-        <v>1056.7978</v>
+        <v>1018</v>
       </c>
       <c r="G104" t="n">
-        <v>221.2666666666667</v>
+        <v>1117617.562184404</v>
       </c>
       <c r="H104" t="n">
-        <v>219.0333333333333</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>219</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4738,40 +4582,41 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C105" t="n">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D105" t="n">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E105" t="n">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F105" t="n">
-        <v>175.6057</v>
+        <v>2267.4445</v>
       </c>
       <c r="G105" t="n">
-        <v>221.4666666666667</v>
+        <v>1115350.117684404</v>
       </c>
       <c r="H105" t="n">
-        <v>219.1333333333333</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
+        <v>218</v>
+      </c>
+      <c r="K105" t="n">
+        <v>219</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4780,40 +4625,41 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C106" t="n">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D106" t="n">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E106" t="n">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F106" t="n">
-        <v>958.2474</v>
+        <v>2</v>
       </c>
       <c r="G106" t="n">
-        <v>221.6666666666667</v>
+        <v>1115352.117684404</v>
       </c>
       <c r="H106" t="n">
-        <v>219.2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
+        <v>217</v>
+      </c>
+      <c r="K106" t="n">
+        <v>219</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4822,40 +4668,41 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C107" t="n">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D107" t="n">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E107" t="n">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F107" t="n">
-        <v>1067.6592</v>
+        <v>2086.2856</v>
       </c>
       <c r="G107" t="n">
-        <v>222</v>
+        <v>1113265.832084404</v>
       </c>
       <c r="H107" t="n">
-        <v>219.2666666666667</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
+        <v>219</v>
+      </c>
+      <c r="K107" t="n">
+        <v>219</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4864,40 +4711,41 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C108" t="n">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D108" t="n">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E108" t="n">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F108" t="n">
-        <v>3336.35</v>
+        <v>100</v>
       </c>
       <c r="G108" t="n">
-        <v>222.2</v>
+        <v>1113365.832084404</v>
       </c>
       <c r="H108" t="n">
-        <v>219.35</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
+        <v>218</v>
+      </c>
+      <c r="K108" t="n">
+        <v>219</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4906,40 +4754,39 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C109" t="n">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D109" t="n">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E109" t="n">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F109" t="n">
-        <v>162</v>
+        <v>1244</v>
       </c>
       <c r="G109" t="n">
-        <v>222.6666666666667</v>
+        <v>1112121.832084404</v>
       </c>
       <c r="H109" t="n">
-        <v>219.5</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>219</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4948,40 +4795,39 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C110" t="n">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D110" t="n">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E110" t="n">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F110" t="n">
-        <v>344</v>
+        <v>815.9517</v>
       </c>
       <c r="G110" t="n">
-        <v>223</v>
+        <v>1112121.832084404</v>
       </c>
       <c r="H110" t="n">
-        <v>219.6</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>219</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4990,40 +4836,39 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C111" t="n">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D111" t="n">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E111" t="n">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F111" t="n">
-        <v>1811.2245</v>
+        <v>533</v>
       </c>
       <c r="G111" t="n">
-        <v>223.2</v>
+        <v>1112121.832084404</v>
       </c>
       <c r="H111" t="n">
-        <v>219.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>219</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5032,76 +4877,80 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C112" t="n">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D112" t="n">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E112" t="n">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F112" t="n">
-        <v>2018.9561</v>
+        <v>648</v>
       </c>
       <c r="G112" t="n">
-        <v>223.3333333333333</v>
+        <v>1112121.832084404</v>
       </c>
       <c r="H112" t="n">
-        <v>219.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>1</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>219</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C113" t="n">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D113" t="n">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E113" t="n">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F113" t="n">
-        <v>56.6444</v>
+        <v>2</v>
       </c>
       <c r="G113" t="n">
-        <v>223.5333333333333</v>
+        <v>1112123.832084404</v>
       </c>
       <c r="H113" t="n">
-        <v>219.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>1</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>219</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5110,36 +4959,39 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C114" t="n">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D114" t="n">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E114" t="n">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F114" t="n">
-        <v>3276.4977</v>
+        <v>225.9226</v>
       </c>
       <c r="G114" t="n">
-        <v>223.6666666666667</v>
+        <v>1111897.909484404</v>
       </c>
       <c r="H114" t="n">
-        <v>219.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>1</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>219</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5148,36 +5000,39 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C115" t="n">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D115" t="n">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E115" t="n">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F115" t="n">
-        <v>3363.6412</v>
+        <v>1818</v>
       </c>
       <c r="G115" t="n">
-        <v>223.4666666666667</v>
+        <v>1111897.909484404</v>
       </c>
       <c r="H115" t="n">
-        <v>219.95</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>1</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>219</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5186,36 +5041,41 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C116" t="n">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D116" t="n">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E116" t="n">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F116" t="n">
-        <v>1224.49</v>
+        <v>2</v>
       </c>
       <c r="G116" t="n">
-        <v>223.4</v>
+        <v>1111899.909484404</v>
       </c>
       <c r="H116" t="n">
-        <v>220</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>1</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+        <v>218</v>
+      </c>
+      <c r="K116" t="n">
+        <v>219</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5224,36 +5084,1158 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
+        <v>218</v>
+      </c>
+      <c r="C117" t="n">
+        <v>218</v>
+      </c>
+      <c r="D117" t="n">
+        <v>218</v>
+      </c>
+      <c r="E117" t="n">
+        <v>218</v>
+      </c>
+      <c r="F117" t="n">
+        <v>408.3498</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1111491.559684404</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>219</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>219</v>
+      </c>
+      <c r="C118" t="n">
+        <v>219</v>
+      </c>
+      <c r="D118" t="n">
+        <v>219</v>
+      </c>
+      <c r="E118" t="n">
+        <v>219</v>
+      </c>
+      <c r="F118" t="n">
+        <v>363.6653</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1111855.224984404</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>218</v>
+      </c>
+      <c r="K118" t="n">
+        <v>219</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>219</v>
+      </c>
+      <c r="C119" t="n">
+        <v>220</v>
+      </c>
+      <c r="D119" t="n">
+        <v>220</v>
+      </c>
+      <c r="E119" t="n">
+        <v>219</v>
+      </c>
+      <c r="F119" t="n">
+        <v>3824.355</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1115679.579984404</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>219</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>220</v>
+      </c>
+      <c r="C120" t="n">
+        <v>220</v>
+      </c>
+      <c r="D120" t="n">
+        <v>220</v>
+      </c>
+      <c r="E120" t="n">
+        <v>219</v>
+      </c>
+      <c r="F120" t="n">
+        <v>17714.203</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1115679.579984404</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>219</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>219</v>
+      </c>
+      <c r="C121" t="n">
+        <v>219</v>
+      </c>
+      <c r="D121" t="n">
+        <v>219</v>
+      </c>
+      <c r="E121" t="n">
+        <v>219</v>
+      </c>
+      <c r="F121" t="n">
+        <v>312.8253</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1115366.754684404</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>219</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>219</v>
+      </c>
+      <c r="C122" t="n">
+        <v>219</v>
+      </c>
+      <c r="D122" t="n">
+        <v>219</v>
+      </c>
+      <c r="E122" t="n">
+        <v>219</v>
+      </c>
+      <c r="F122" t="n">
+        <v>466</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1115366.754684404</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>219</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>219</v>
+      </c>
+      <c r="C123" t="n">
+        <v>219</v>
+      </c>
+      <c r="D123" t="n">
+        <v>219</v>
+      </c>
+      <c r="E123" t="n">
+        <v>219</v>
+      </c>
+      <c r="F123" t="n">
+        <v>296.9336</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1115366.754684404</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>219</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>219</v>
+      </c>
+      <c r="C124" t="n">
+        <v>219</v>
+      </c>
+      <c r="D124" t="n">
+        <v>219</v>
+      </c>
+      <c r="E124" t="n">
+        <v>219</v>
+      </c>
+      <c r="F124" t="n">
+        <v>188.3432</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1115366.754684404</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>219</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>219</v>
+      </c>
+      <c r="C125" t="n">
+        <v>219</v>
+      </c>
+      <c r="D125" t="n">
+        <v>219</v>
+      </c>
+      <c r="E125" t="n">
+        <v>219</v>
+      </c>
+      <c r="F125" t="n">
+        <v>159.2864</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1115366.754684404</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>219</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>220</v>
+      </c>
+      <c r="C126" t="n">
+        <v>220</v>
+      </c>
+      <c r="D126" t="n">
+        <v>220</v>
+      </c>
+      <c r="E126" t="n">
+        <v>220</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1850</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1117216.754684404</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>219</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>220</v>
+      </c>
+      <c r="C127" t="n">
+        <v>221</v>
+      </c>
+      <c r="D127" t="n">
+        <v>221</v>
+      </c>
+      <c r="E127" t="n">
+        <v>220</v>
+      </c>
+      <c r="F127" t="n">
+        <v>7446.9128</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1124663.667484404</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>219</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>221</v>
+      </c>
+      <c r="C128" t="n">
+        <v>221</v>
+      </c>
+      <c r="D128" t="n">
         <v>222</v>
       </c>
-      <c r="C117" t="n">
+      <c r="E128" t="n">
+        <v>221</v>
+      </c>
+      <c r="F128" t="n">
+        <v>637</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1124663.667484404</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>219</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
         <v>222</v>
       </c>
-      <c r="D117" t="n">
+      <c r="C129" t="n">
+        <v>226</v>
+      </c>
+      <c r="D129" t="n">
+        <v>227</v>
+      </c>
+      <c r="E129" t="n">
+        <v>222</v>
+      </c>
+      <c r="F129" t="n">
+        <v>55597.9253</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1180261.592784404</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>219</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>224</v>
+      </c>
+      <c r="C130" t="n">
         <v>223</v>
       </c>
-      <c r="E117" t="n">
+      <c r="D130" t="n">
+        <v>224</v>
+      </c>
+      <c r="E130" t="n">
         <v>222</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F130" t="n">
+        <v>1859.9999</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1178401.592884404</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>219</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>222</v>
+      </c>
+      <c r="C131" t="n">
+        <v>225</v>
+      </c>
+      <c r="D131" t="n">
+        <v>225</v>
+      </c>
+      <c r="E131" t="n">
+        <v>222</v>
+      </c>
+      <c r="F131" t="n">
+        <v>559.3546</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1178960.947484404</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>219</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>224</v>
+      </c>
+      <c r="C132" t="n">
+        <v>225</v>
+      </c>
+      <c r="D132" t="n">
+        <v>225</v>
+      </c>
+      <c r="E132" t="n">
+        <v>224</v>
+      </c>
+      <c r="F132" t="n">
+        <v>242</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1178960.947484404</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>219</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>223</v>
+      </c>
+      <c r="C133" t="n">
+        <v>223</v>
+      </c>
+      <c r="D133" t="n">
+        <v>223</v>
+      </c>
+      <c r="E133" t="n">
+        <v>223</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1056.7978</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1177904.149684404</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>219</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>223</v>
+      </c>
+      <c r="C134" t="n">
+        <v>223</v>
+      </c>
+      <c r="D134" t="n">
+        <v>223</v>
+      </c>
+      <c r="E134" t="n">
+        <v>223</v>
+      </c>
+      <c r="F134" t="n">
+        <v>175.6057</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1177904.149684404</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>219</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1.013264840182649</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>224</v>
+      </c>
+      <c r="C135" t="n">
+        <v>223</v>
+      </c>
+      <c r="D135" t="n">
+        <v>224</v>
+      </c>
+      <c r="E135" t="n">
+        <v>223</v>
+      </c>
+      <c r="F135" t="n">
+        <v>958.2474</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1177904.149684404</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>225</v>
+      </c>
+      <c r="C136" t="n">
+        <v>224</v>
+      </c>
+      <c r="D136" t="n">
+        <v>226</v>
+      </c>
+      <c r="E136" t="n">
+        <v>224</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1067.6592</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1178971.808884404</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>223</v>
+      </c>
+      <c r="C137" t="n">
+        <v>222</v>
+      </c>
+      <c r="D137" t="n">
+        <v>223</v>
+      </c>
+      <c r="E137" t="n">
+        <v>222</v>
+      </c>
+      <c r="F137" t="n">
+        <v>3336.35</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1175635.458884404</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>225</v>
+      </c>
+      <c r="C138" t="n">
+        <v>226</v>
+      </c>
+      <c r="D138" t="n">
+        <v>226</v>
+      </c>
+      <c r="E138" t="n">
+        <v>225</v>
+      </c>
+      <c r="F138" t="n">
+        <v>162</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1175797.458884404</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>225</v>
+      </c>
+      <c r="C139" t="n">
+        <v>224</v>
+      </c>
+      <c r="D139" t="n">
+        <v>225</v>
+      </c>
+      <c r="E139" t="n">
+        <v>224</v>
+      </c>
+      <c r="F139" t="n">
+        <v>344</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1175453.458884404</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>222</v>
+      </c>
+      <c r="C140" t="n">
+        <v>222</v>
+      </c>
+      <c r="D140" t="n">
+        <v>222</v>
+      </c>
+      <c r="E140" t="n">
+        <v>222</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1811.2245</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1173642.234384404</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>223</v>
+      </c>
+      <c r="C141" t="n">
+        <v>222</v>
+      </c>
+      <c r="D141" t="n">
+        <v>223</v>
+      </c>
+      <c r="E141" t="n">
+        <v>222</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2018.9561</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1173642.234384404</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>224</v>
+      </c>
+      <c r="C142" t="n">
+        <v>224</v>
+      </c>
+      <c r="D142" t="n">
+        <v>224</v>
+      </c>
+      <c r="E142" t="n">
+        <v>224</v>
+      </c>
+      <c r="F142" t="n">
+        <v>56.6444</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1173698.878784404</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>223</v>
+      </c>
+      <c r="C143" t="n">
+        <v>223</v>
+      </c>
+      <c r="D143" t="n">
+        <v>223</v>
+      </c>
+      <c r="E143" t="n">
+        <v>223</v>
+      </c>
+      <c r="F143" t="n">
+        <v>3276.4977</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1170422.381084404</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>223</v>
+      </c>
+      <c r="C144" t="n">
+        <v>223</v>
+      </c>
+      <c r="D144" t="n">
+        <v>223</v>
+      </c>
+      <c r="E144" t="n">
+        <v>223</v>
+      </c>
+      <c r="F144" t="n">
+        <v>3363.6412</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1170422.381084404</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>223</v>
+      </c>
+      <c r="C145" t="n">
+        <v>222</v>
+      </c>
+      <c r="D145" t="n">
+        <v>223</v>
+      </c>
+      <c r="E145" t="n">
+        <v>222</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1224.49</v>
+      </c>
+      <c r="G145" t="n">
+        <v>1169197.891084404</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>222</v>
+      </c>
+      <c r="C146" t="n">
+        <v>222</v>
+      </c>
+      <c r="D146" t="n">
+        <v>223</v>
+      </c>
+      <c r="E146" t="n">
+        <v>222</v>
+      </c>
+      <c r="F146" t="n">
         <v>2155.8483</v>
       </c>
-      <c r="G117" t="n">
-        <v>223.2</v>
-      </c>
-      <c r="H117" t="n">
-        <v>220.05</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>1</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="G146" t="n">
+        <v>1169197.891084404</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-19 BackTest KNC.xlsx
+++ b/BackTest/2019-10-19 BackTest KNC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M146"/>
+  <dimension ref="A1:N104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C2" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D2" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E2" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F2" t="n">
-        <v>23.4797</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>1162070.0156</v>
+        <v>1129286.737984404</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,67 +467,65 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C3" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D3" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E3" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F3" t="n">
-        <v>118.6894</v>
+        <v>736.8181</v>
       </c>
       <c r="G3" t="n">
-        <v>1162070.0156</v>
+        <v>1128549.919884404</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>219</v>
-      </c>
-      <c r="K3" t="n">
-        <v>219</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C4" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D4" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E4" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F4" t="n">
-        <v>282.9538</v>
+        <v>127.0469</v>
       </c>
       <c r="G4" t="n">
-        <v>1162070.0156</v>
+        <v>1128676.966784404</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -531,39 +534,34 @@
         <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>219</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C5" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D5" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E5" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F5" t="n">
-        <v>85.73560000000001</v>
+        <v>2000</v>
       </c>
       <c r="G5" t="n">
-        <v>1162070.0156</v>
+        <v>1128676.966784404</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -572,39 +570,34 @@
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>219</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C6" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D6" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E6" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F6" t="n">
-        <v>13.6363</v>
+        <v>1186.1785</v>
       </c>
       <c r="G6" t="n">
-        <v>1162083.6519</v>
+        <v>1127490.788284404</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C7" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D7" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E7" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F7" t="n">
-        <v>796.4871000000001</v>
+        <v>1685.8719</v>
       </c>
       <c r="G7" t="n">
-        <v>1161287.1648</v>
+        <v>1127490.788284404</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -653,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C8" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D8" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E8" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F8" t="n">
-        <v>141</v>
+        <v>3020</v>
       </c>
       <c r="G8" t="n">
-        <v>1161287.1648</v>
+        <v>1130510.788284404</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -688,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C9" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D9" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E9" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F9" t="n">
-        <v>9319.3006</v>
+        <v>2000</v>
       </c>
       <c r="G9" t="n">
-        <v>1151967.8642</v>
+        <v>1128510.788284404</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -723,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C10" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D10" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E10" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F10" t="n">
-        <v>226.2661</v>
+        <v>196.6372</v>
       </c>
       <c r="G10" t="n">
-        <v>1152194.1303</v>
+        <v>1128510.788284404</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -758,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C11" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D11" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E11" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F11" t="n">
-        <v>311.311</v>
+        <v>694.4919</v>
       </c>
       <c r="G11" t="n">
-        <v>1152505.4413</v>
+        <v>1128510.788284404</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -793,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C12" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D12" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E12" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F12" t="n">
-        <v>188.0968</v>
+        <v>1041.7378</v>
       </c>
       <c r="G12" t="n">
-        <v>1152505.4413</v>
+        <v>1128510.788284404</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -828,238 +827,289 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C13" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D13" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E13" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F13" t="n">
-        <v>1747.3792</v>
+        <v>174.4602</v>
       </c>
       <c r="G13" t="n">
-        <v>1152505.4413</v>
+        <v>1128510.788284404</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>216</v>
+      </c>
+      <c r="K13" t="n">
+        <v>216</v>
+      </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C14" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D14" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E14" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F14" t="n">
-        <v>4741.1102</v>
+        <v>300</v>
       </c>
       <c r="G14" t="n">
-        <v>1147764.3311</v>
+        <v>1128510.788284404</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>216</v>
+      </c>
+      <c r="K14" t="n">
+        <v>216</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C15" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D15" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E15" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F15" t="n">
-        <v>100.3455</v>
+        <v>802.4215</v>
       </c>
       <c r="G15" t="n">
-        <v>1147864.6766</v>
+        <v>1129313.209784404</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>216</v>
+      </c>
+      <c r="K15" t="n">
+        <v>216</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C16" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D16" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E16" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F16" t="n">
-        <v>390.2977</v>
+        <v>275.9999</v>
       </c>
       <c r="G16" t="n">
-        <v>1147864.6766</v>
+        <v>1129037.209884404</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>218</v>
+      </c>
+      <c r="K16" t="n">
+        <v>216</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C17" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D17" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E17" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F17" t="n">
-        <v>245.9644</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>1147864.6766</v>
+        <v>1129039.209884404</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>216</v>
+      </c>
+      <c r="K17" t="n">
+        <v>216</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C18" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D18" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E18" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F18" t="n">
-        <v>3821.7357</v>
+        <v>7108.2347</v>
       </c>
       <c r="G18" t="n">
-        <v>1144042.9409</v>
+        <v>1121930.975184404</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>218</v>
+      </c>
+      <c r="K18" t="n">
+        <v>216</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C19" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D19" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E19" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F19" t="n">
-        <v>1215.0747</v>
+        <v>4207.5688</v>
       </c>
       <c r="G19" t="n">
-        <v>1145258.0156</v>
+        <v>1121930.975184404</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -1068,80 +1118,84 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K19" t="n">
-        <v>218</v>
-      </c>
-      <c r="L19" t="inlineStr"/>
+        <v>216</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C20" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D20" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E20" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F20" t="n">
-        <v>887.4851</v>
+        <v>393.5432</v>
       </c>
       <c r="G20" t="n">
-        <v>1145258.0156</v>
+        <v>1121930.975184404</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>220</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C21" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D21" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E21" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F21" t="n">
-        <v>556.9005</v>
+        <v>450.0691</v>
       </c>
       <c r="G21" t="n">
-        <v>1145258.0156</v>
+        <v>1121930.975184404</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -1150,80 +1204,84 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K21" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C22" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D22" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E22" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F22" t="n">
-        <v>240.9351</v>
+        <v>168.8315</v>
       </c>
       <c r="G22" t="n">
-        <v>1145017.0805</v>
+        <v>1122099.806684404</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>220</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>220</v>
-      </c>
-      <c r="L22" t="inlineStr"/>
+        <v>216</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C23" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D23" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E23" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F23" t="n">
-        <v>196.0143</v>
+        <v>17</v>
       </c>
       <c r="G23" t="n">
-        <v>1145017.0805</v>
+        <v>1122082.806684404</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1233,16 +1291,17 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1261,10 +1320,10 @@
         <v>218</v>
       </c>
       <c r="F24" t="n">
-        <v>1578.9201</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>1143438.1604</v>
+        <v>1122083.806684404</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1274,38 +1333,39 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C25" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D25" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E25" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F25" t="n">
-        <v>98.23950000000001</v>
+        <v>1009.7399</v>
       </c>
       <c r="G25" t="n">
-        <v>1143536.3999</v>
+        <v>1121074.066784404</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1314,33 +1374,40 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>216</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C26" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D26" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E26" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F26" t="n">
-        <v>2698.0109</v>
+        <v>1009.3133</v>
       </c>
       <c r="G26" t="n">
-        <v>1143536.3999</v>
+        <v>1121074.066784404</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1349,33 +1416,40 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>216</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C27" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D27" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E27" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F27" t="n">
-        <v>26.1806</v>
+        <v>9945.0785</v>
       </c>
       <c r="G27" t="n">
-        <v>1143510.2193</v>
+        <v>1121074.066784404</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1384,33 +1458,40 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>216</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C28" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D28" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E28" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F28" t="n">
-        <v>678.4423</v>
+        <v>180.395</v>
       </c>
       <c r="G28" t="n">
-        <v>1144188.6616</v>
+        <v>1121074.066784404</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1419,33 +1500,40 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>216</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C29" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D29" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E29" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F29" t="n">
-        <v>633.9301</v>
+        <v>25.5878</v>
       </c>
       <c r="G29" t="n">
-        <v>1144188.6616</v>
+        <v>1121099.654584404</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1454,33 +1542,40 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>216</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C30" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D30" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E30" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F30" t="n">
-        <v>72.05889999999999</v>
+        <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>1144188.6616</v>
+        <v>1121099.654584404</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1489,18 +1584,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>216</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C31" t="n">
         <v>219</v>
@@ -1509,30 +1611,33 @@
         <v>219</v>
       </c>
       <c r="E31" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F31" t="n">
-        <v>581.6115</v>
+        <v>396.3389</v>
       </c>
       <c r="G31" t="n">
-        <v>1144188.6616</v>
+        <v>1121495.993484404</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>219</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>219</v>
-      </c>
-      <c r="L31" t="inlineStr"/>
+        <v>216</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1542,19 +1647,19 @@
         <v>219</v>
       </c>
       <c r="C32" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D32" t="n">
         <v>219</v>
       </c>
       <c r="E32" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F32" t="n">
-        <v>494.0361</v>
+        <v>1093.2978</v>
       </c>
       <c r="G32" t="n">
-        <v>1144188.6616</v>
+        <v>1120402.695684404</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1564,16 +1669,17 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1592,108 +1698,104 @@
         <v>219</v>
       </c>
       <c r="F33" t="n">
-        <v>228.7561</v>
+        <v>107.8944</v>
       </c>
       <c r="G33" t="n">
-        <v>1144188.6616</v>
+        <v>1120510.590084404</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>219</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C34" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D34" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E34" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F34" t="n">
-        <v>308.471</v>
+        <v>10.059</v>
       </c>
       <c r="G34" t="n">
-        <v>1144188.6616</v>
+        <v>1120520.649084404</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>219</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C35" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D35" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E35" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F35" t="n">
-        <v>31.7106</v>
+        <v>3208.5919</v>
       </c>
       <c r="G35" t="n">
-        <v>1144188.6616</v>
+        <v>1117312.057184404</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>219</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1703,28 +1805,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C36" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D36" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E36" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F36" t="n">
-        <v>487.9231</v>
+        <v>10.0338</v>
       </c>
       <c r="G36" t="n">
-        <v>1143700.7385</v>
+        <v>1117312.057184404</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1734,7 +1837,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1744,40 +1847,39 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C37" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D37" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E37" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F37" t="n">
-        <v>492.9237</v>
+        <v>2</v>
       </c>
       <c r="G37" t="n">
-        <v>1144193.6622</v>
+        <v>1117314.057184404</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>218</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1787,40 +1889,39 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C38" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D38" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E38" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F38" t="n">
-        <v>109.4175</v>
+        <v>972.6249</v>
       </c>
       <c r="G38" t="n">
-        <v>1144193.6622</v>
+        <v>1117314.057184404</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>219</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1830,40 +1931,39 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C39" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D39" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E39" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F39" t="n">
-        <v>6863.532</v>
+        <v>2522.9356</v>
       </c>
       <c r="G39" t="n">
-        <v>1137330.1302</v>
+        <v>1117314.057184404</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>219</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -1873,40 +1973,39 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C40" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D40" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E40" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F40" t="n">
-        <v>103.3729</v>
+        <v>2</v>
       </c>
       <c r="G40" t="n">
-        <v>1137433.5031</v>
+        <v>1117316.057184404</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>217</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -1916,40 +2015,39 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C41" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D41" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E41" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G41" t="n">
-        <v>1137434.5031</v>
+        <v>1117316.057184404</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>218</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -1959,40 +2057,39 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C42" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D42" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E42" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F42" t="n">
-        <v>8207.306399999999</v>
+        <v>509.0296</v>
       </c>
       <c r="G42" t="n">
-        <v>1129227.1967</v>
+        <v>1117316.057184404</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>220</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2002,28 +2099,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C43" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D43" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E43" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F43" t="n">
-        <v>159.5412844036697</v>
+        <v>0.9704</v>
       </c>
       <c r="G43" t="n">
-        <v>1129386.737984404</v>
+        <v>1117316.057184404</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2033,7 +2131,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2043,40 +2141,39 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C44" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D44" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E44" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F44" t="n">
-        <v>100</v>
+        <v>515</v>
       </c>
       <c r="G44" t="n">
-        <v>1129286.737984404</v>
+        <v>1117316.057184404</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>218</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2086,28 +2183,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C45" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D45" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E45" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F45" t="n">
-        <v>736.8181</v>
+        <v>2</v>
       </c>
       <c r="G45" t="n">
-        <v>1128549.919884404</v>
+        <v>1117318.057184404</v>
       </c>
       <c r="H45" t="n">
         <v>1</v>
@@ -2116,10 +2214,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K45" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2129,28 +2227,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C46" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D46" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E46" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F46" t="n">
-        <v>127.0469</v>
+        <v>2021.0001</v>
       </c>
       <c r="G46" t="n">
-        <v>1128676.966784404</v>
+        <v>1117318.057184404</v>
       </c>
       <c r="H46" t="n">
         <v>1</v>
@@ -2159,10 +2258,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K46" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2172,28 +2271,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C47" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D47" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E47" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F47" t="n">
-        <v>2000</v>
+        <v>2611.8411</v>
       </c>
       <c r="G47" t="n">
-        <v>1128676.966784404</v>
+        <v>1114706.216084404</v>
       </c>
       <c r="H47" t="n">
         <v>1</v>
@@ -2202,10 +2302,10 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K47" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2215,38 +2315,41 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C48" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D48" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E48" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F48" t="n">
-        <v>1186.1785</v>
+        <v>1239.1589</v>
       </c>
       <c r="G48" t="n">
-        <v>1127490.788284404</v>
+        <v>1114706.216084404</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>218</v>
+      </c>
       <c r="K48" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2256,40 +2359,39 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C49" t="n">
         <v>216</v>
       </c>
       <c r="D49" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E49" t="n">
         <v>216</v>
       </c>
       <c r="F49" t="n">
-        <v>1685.8719</v>
+        <v>680.3704</v>
       </c>
       <c r="G49" t="n">
-        <v>1127490.788284404</v>
+        <v>1114025.845684404</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>216</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2299,6 +2401,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2317,22 +2420,20 @@
         <v>217</v>
       </c>
       <c r="F50" t="n">
-        <v>3020</v>
+        <v>104.8425</v>
       </c>
       <c r="G50" t="n">
-        <v>1130510.788284404</v>
+        <v>1114130.688184404</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>216</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2342,40 +2443,39 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C51" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D51" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E51" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F51" t="n">
-        <v>2000</v>
+        <v>327.6782</v>
       </c>
       <c r="G51" t="n">
-        <v>1128510.788284404</v>
+        <v>1114458.366384404</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>217</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2385,40 +2485,39 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C52" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D52" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E52" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F52" t="n">
-        <v>196.6372</v>
+        <v>15</v>
       </c>
       <c r="G52" t="n">
-        <v>1128510.788284404</v>
+        <v>1114473.366384404</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>216</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2428,40 +2527,39 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C53" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D53" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E53" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F53" t="n">
-        <v>694.4919</v>
+        <v>219.9901</v>
       </c>
       <c r="G53" t="n">
-        <v>1128510.788284404</v>
+        <v>1114253.376284404</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>216</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2471,40 +2569,39 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C54" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D54" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E54" t="n">
         <v>216</v>
       </c>
       <c r="F54" t="n">
-        <v>1041.7378</v>
+        <v>2970.9776</v>
       </c>
       <c r="G54" t="n">
-        <v>1128510.788284404</v>
+        <v>1117224.353884404</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>216</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2514,40 +2611,39 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C55" t="n">
         <v>216</v>
       </c>
       <c r="D55" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E55" t="n">
         <v>216</v>
       </c>
       <c r="F55" t="n">
-        <v>174.4602</v>
+        <v>907.725</v>
       </c>
       <c r="G55" t="n">
-        <v>1128510.788284404</v>
+        <v>1116316.628884404</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>216</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2557,40 +2653,39 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C56" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D56" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E56" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F56" t="n">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="G56" t="n">
-        <v>1128510.788284404</v>
+        <v>1116318.628884404</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>216</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2600,13 +2695,14 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C57" t="n">
         <v>218</v>
@@ -2615,13 +2711,13 @@
         <v>218</v>
       </c>
       <c r="E57" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F57" t="n">
-        <v>802.4215</v>
+        <v>1818</v>
       </c>
       <c r="G57" t="n">
-        <v>1129313.209784404</v>
+        <v>1116318.628884404</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2631,7 +2727,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2641,40 +2737,39 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C58" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D58" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E58" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F58" t="n">
-        <v>275.9999</v>
+        <v>1698.0667</v>
       </c>
       <c r="G58" t="n">
-        <v>1129037.209884404</v>
+        <v>1114620.562184404</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>218</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2684,6 +2779,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2693,19 +2789,19 @@
         <v>218</v>
       </c>
       <c r="C59" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D59" t="n">
         <v>218</v>
       </c>
       <c r="E59" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F59" t="n">
-        <v>2</v>
+        <v>503.8498</v>
       </c>
       <c r="G59" t="n">
-        <v>1129039.209884404</v>
+        <v>1114620.562184404</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2715,7 +2811,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2725,6 +2821,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2734,19 +2831,19 @@
         <v>218</v>
       </c>
       <c r="C60" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D60" t="n">
         <v>218</v>
       </c>
       <c r="E60" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F60" t="n">
-        <v>7108.2347</v>
+        <v>2997</v>
       </c>
       <c r="G60" t="n">
-        <v>1121930.975184404</v>
+        <v>1117617.562184404</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2756,7 +2853,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2766,28 +2863,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C61" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D61" t="n">
         <v>218</v>
       </c>
       <c r="E61" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F61" t="n">
-        <v>4207.5688</v>
+        <v>538</v>
       </c>
       <c r="G61" t="n">
-        <v>1121930.975184404</v>
+        <v>1117617.562184404</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2797,7 +2895,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2807,28 +2905,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C62" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D62" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E62" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F62" t="n">
-        <v>393.5432</v>
+        <v>1018</v>
       </c>
       <c r="G62" t="n">
-        <v>1121930.975184404</v>
+        <v>1117617.562184404</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2838,7 +2937,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2848,28 +2947,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C63" t="n">
         <v>217</v>
       </c>
       <c r="D63" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E63" t="n">
         <v>217</v>
       </c>
       <c r="F63" t="n">
-        <v>450.0691</v>
+        <v>2267.4445</v>
       </c>
       <c r="G63" t="n">
-        <v>1121930.975184404</v>
+        <v>1115350.117684404</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2879,7 +2979,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -2889,28 +2989,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C64" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D64" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E64" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F64" t="n">
-        <v>168.8315</v>
+        <v>2</v>
       </c>
       <c r="G64" t="n">
-        <v>1122099.806684404</v>
+        <v>1115352.117684404</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2920,7 +3021,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -2930,28 +3031,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C65" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D65" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E65" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F65" t="n">
-        <v>17</v>
+        <v>2086.2856</v>
       </c>
       <c r="G65" t="n">
-        <v>1122082.806684404</v>
+        <v>1113265.832084404</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2961,7 +3063,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -2971,28 +3073,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C66" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D66" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E66" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G66" t="n">
-        <v>1122083.806684404</v>
+        <v>1113365.832084404</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3002,7 +3105,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -3012,28 +3115,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C67" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D67" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E67" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F67" t="n">
-        <v>1009.7399</v>
+        <v>1244</v>
       </c>
       <c r="G67" t="n">
-        <v>1121074.066784404</v>
+        <v>1112121.832084404</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3043,7 +3147,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3053,28 +3157,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C68" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D68" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E68" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F68" t="n">
-        <v>1009.3133</v>
+        <v>815.9517</v>
       </c>
       <c r="G68" t="n">
-        <v>1121074.066784404</v>
+        <v>1112121.832084404</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3084,7 +3189,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3094,28 +3199,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C69" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D69" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E69" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F69" t="n">
-        <v>9945.0785</v>
+        <v>533</v>
       </c>
       <c r="G69" t="n">
-        <v>1121074.066784404</v>
+        <v>1112121.832084404</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3125,7 +3231,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3135,28 +3241,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C70" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D70" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E70" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F70" t="n">
-        <v>180.395</v>
+        <v>648</v>
       </c>
       <c r="G70" t="n">
-        <v>1121074.066784404</v>
+        <v>1112121.832084404</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3166,7 +3273,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3176,28 +3283,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C71" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D71" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E71" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F71" t="n">
-        <v>25.5878</v>
+        <v>2</v>
       </c>
       <c r="G71" t="n">
-        <v>1121099.654584404</v>
+        <v>1112123.832084404</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3207,7 +3315,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3217,6 +3325,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3235,10 +3344,10 @@
         <v>218</v>
       </c>
       <c r="F72" t="n">
-        <v>10</v>
+        <v>225.9226</v>
       </c>
       <c r="G72" t="n">
-        <v>1121099.654584404</v>
+        <v>1111897.909484404</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3248,7 +3357,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3258,6 +3367,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3267,19 +3377,19 @@
         <v>218</v>
       </c>
       <c r="C73" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D73" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E73" t="n">
         <v>218</v>
       </c>
       <c r="F73" t="n">
-        <v>396.3389</v>
+        <v>1818</v>
       </c>
       <c r="G73" t="n">
-        <v>1121495.993484404</v>
+        <v>1111897.909484404</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3289,7 +3399,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3299,28 +3409,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C74" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D74" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E74" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F74" t="n">
-        <v>1093.2978</v>
+        <v>2</v>
       </c>
       <c r="G74" t="n">
-        <v>1120402.695684404</v>
+        <v>1111899.909484404</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3330,7 +3441,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3340,28 +3451,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C75" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D75" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E75" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F75" t="n">
-        <v>107.8944</v>
+        <v>408.3498</v>
       </c>
       <c r="G75" t="n">
-        <v>1120510.590084404</v>
+        <v>1111491.559684404</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3371,7 +3483,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3381,28 +3493,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C76" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D76" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E76" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F76" t="n">
-        <v>10.059</v>
+        <v>363.6653</v>
       </c>
       <c r="G76" t="n">
-        <v>1120520.649084404</v>
+        <v>1111855.224984404</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3412,7 +3525,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3422,28 +3535,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C77" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D77" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E77" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F77" t="n">
-        <v>3208.5919</v>
+        <v>3824.355</v>
       </c>
       <c r="G77" t="n">
-        <v>1117312.057184404</v>
+        <v>1115679.579984404</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3453,7 +3567,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3463,28 +3577,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C78" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D78" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E78" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F78" t="n">
-        <v>10.0338</v>
+        <v>17714.203</v>
       </c>
       <c r="G78" t="n">
-        <v>1117312.057184404</v>
+        <v>1115679.579984404</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3494,7 +3609,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3504,28 +3619,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C79" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D79" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E79" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F79" t="n">
-        <v>2</v>
+        <v>312.8253</v>
       </c>
       <c r="G79" t="n">
-        <v>1117314.057184404</v>
+        <v>1115366.754684404</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3535,7 +3651,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3545,28 +3661,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C80" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D80" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E80" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F80" t="n">
-        <v>972.6249</v>
+        <v>466</v>
       </c>
       <c r="G80" t="n">
-        <v>1117314.057184404</v>
+        <v>1115366.754684404</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3576,7 +3693,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3586,28 +3703,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C81" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D81" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E81" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F81" t="n">
-        <v>2522.9356</v>
+        <v>296.9336</v>
       </c>
       <c r="G81" t="n">
-        <v>1117314.057184404</v>
+        <v>1115366.754684404</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3617,7 +3735,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3627,6 +3745,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3645,10 +3764,10 @@
         <v>219</v>
       </c>
       <c r="F82" t="n">
-        <v>2</v>
+        <v>188.3432</v>
       </c>
       <c r="G82" t="n">
-        <v>1117316.057184404</v>
+        <v>1115366.754684404</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3658,7 +3777,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3668,6 +3787,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3686,10 +3806,10 @@
         <v>219</v>
       </c>
       <c r="F83" t="n">
-        <v>18</v>
+        <v>159.2864</v>
       </c>
       <c r="G83" t="n">
-        <v>1117316.057184404</v>
+        <v>1115366.754684404</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3699,7 +3819,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3709,28 +3829,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C84" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D84" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E84" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F84" t="n">
-        <v>509.0296</v>
+        <v>1850</v>
       </c>
       <c r="G84" t="n">
-        <v>1117316.057184404</v>
+        <v>1117216.754684404</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3740,7 +3861,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3750,28 +3871,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C85" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D85" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E85" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9704</v>
+        <v>7446.9128</v>
       </c>
       <c r="G85" t="n">
-        <v>1117316.057184404</v>
+        <v>1124663.667484404</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3781,7 +3903,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3791,28 +3913,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C86" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D86" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E86" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F86" t="n">
-        <v>515</v>
+        <v>637</v>
       </c>
       <c r="G86" t="n">
-        <v>1117316.057184404</v>
+        <v>1124663.667484404</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3822,7 +3945,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3832,28 +3955,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C87" t="n">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D87" t="n">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="E87" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F87" t="n">
-        <v>2</v>
+        <v>55597.9253</v>
       </c>
       <c r="G87" t="n">
-        <v>1117318.057184404</v>
+        <v>1180261.592784404</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3863,7 +3987,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -3873,28 +3997,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C88" t="n">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D88" t="n">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E88" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F88" t="n">
-        <v>2021.0001</v>
+        <v>1859.9999</v>
       </c>
       <c r="G88" t="n">
-        <v>1117318.057184404</v>
+        <v>1178401.592884404</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3904,7 +4029,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -3914,28 +4039,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C89" t="n">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="D89" t="n">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="E89" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F89" t="n">
-        <v>2611.8411</v>
+        <v>559.3546</v>
       </c>
       <c r="G89" t="n">
-        <v>1114706.216084404</v>
+        <v>1178960.947484404</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3945,7 +4071,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -3955,28 +4081,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C90" t="n">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="D90" t="n">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="E90" t="n">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="F90" t="n">
-        <v>1239.1589</v>
+        <v>242</v>
       </c>
       <c r="G90" t="n">
-        <v>1114706.216084404</v>
+        <v>1178960.947484404</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3986,7 +4113,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -3996,28 +4123,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C91" t="n">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="D91" t="n">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="E91" t="n">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="F91" t="n">
-        <v>680.3704</v>
+        <v>1056.7978</v>
       </c>
       <c r="G91" t="n">
-        <v>1114025.845684404</v>
+        <v>1177904.149684404</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4027,7 +4155,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -4037,28 +4165,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C92" t="n">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D92" t="n">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="E92" t="n">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="F92" t="n">
-        <v>104.8425</v>
+        <v>175.6057</v>
       </c>
       <c r="G92" t="n">
-        <v>1114130.688184404</v>
+        <v>1177904.149684404</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4068,7 +4197,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4078,28 +4207,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C93" t="n">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D93" t="n">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="E93" t="n">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F93" t="n">
-        <v>327.6782</v>
+        <v>958.2474</v>
       </c>
       <c r="G93" t="n">
-        <v>1114458.366384404</v>
+        <v>1177904.149684404</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4109,7 +4239,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4119,28 +4249,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C94" t="n">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D94" t="n">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="E94" t="n">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F94" t="n">
-        <v>15</v>
+        <v>1067.6592</v>
       </c>
       <c r="G94" t="n">
-        <v>1114473.366384404</v>
+        <v>1178971.808884404</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4150,7 +4281,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4160,28 +4291,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C95" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D95" t="n">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E95" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F95" t="n">
-        <v>219.9901</v>
+        <v>3336.35</v>
       </c>
       <c r="G95" t="n">
-        <v>1114253.376284404</v>
+        <v>1175635.458884404</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4191,7 +4323,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4201,198 +4333,179 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="C96" t="n">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D96" t="n">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="E96" t="n">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="F96" t="n">
-        <v>2970.9776</v>
+        <v>162</v>
       </c>
       <c r="G96" t="n">
-        <v>1117224.353884404</v>
+        <v>1175797.458884404</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>1</v>
-      </c>
+        <v>1.041296296296296</v>
+      </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="C97" t="n">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="D97" t="n">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="E97" t="n">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="F97" t="n">
-        <v>907.725</v>
+        <v>344</v>
       </c>
       <c r="G97" t="n">
-        <v>1116316.628884404</v>
+        <v>1175453.458884404</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>219</v>
-      </c>
-      <c r="K97" t="n">
-        <v>219</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C98" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D98" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E98" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F98" t="n">
-        <v>2</v>
+        <v>1811.2245</v>
       </c>
       <c r="G98" t="n">
-        <v>1116318.628884404</v>
+        <v>1173642.234384404</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>216</v>
-      </c>
-      <c r="K98" t="n">
-        <v>219</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C99" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D99" t="n">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E99" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F99" t="n">
-        <v>1818</v>
+        <v>2018.9561</v>
       </c>
       <c r="G99" t="n">
-        <v>1116318.628884404</v>
+        <v>1173642.234384404</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>218</v>
-      </c>
-      <c r="K99" t="n">
-        <v>219</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="C100" t="n">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="D100" t="n">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E100" t="n">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="F100" t="n">
-        <v>1698.0667</v>
+        <v>56.6444</v>
       </c>
       <c r="G100" t="n">
-        <v>1114620.562184404</v>
+        <v>1173698.878784404</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4401,39 +4514,34 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>219</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C101" t="n">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D101" t="n">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E101" t="n">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="F101" t="n">
-        <v>503.8498</v>
+        <v>3276.4977</v>
       </c>
       <c r="G101" t="n">
-        <v>1114620.562184404</v>
+        <v>1170422.381084404</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4442,80 +4550,70 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>219</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C102" t="n">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D102" t="n">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E102" t="n">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="F102" t="n">
-        <v>2997</v>
+        <v>3363.6412</v>
       </c>
       <c r="G102" t="n">
-        <v>1117617.562184404</v>
+        <v>1170422.381084404</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>219</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C103" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D103" t="n">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E103" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F103" t="n">
-        <v>538</v>
+        <v>1224.49</v>
       </c>
       <c r="G103" t="n">
-        <v>1117617.562184404</v>
+        <v>1169197.891084404</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4524,1720 +4622,48 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>219</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C104" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D104" t="n">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E104" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F104" t="n">
-        <v>1018</v>
+        <v>2155.8483</v>
       </c>
       <c r="G104" t="n">
-        <v>1117617.562184404</v>
+        <v>1169197.891084404</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>219</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>218</v>
-      </c>
-      <c r="C105" t="n">
-        <v>217</v>
-      </c>
-      <c r="D105" t="n">
-        <v>218</v>
-      </c>
-      <c r="E105" t="n">
-        <v>217</v>
-      </c>
-      <c r="F105" t="n">
-        <v>2267.4445</v>
-      </c>
-      <c r="G105" t="n">
-        <v>1115350.117684404</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>218</v>
-      </c>
-      <c r="K105" t="n">
-        <v>219</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>219</v>
-      </c>
-      <c r="C106" t="n">
-        <v>219</v>
-      </c>
-      <c r="D106" t="n">
-        <v>219</v>
-      </c>
-      <c r="E106" t="n">
-        <v>219</v>
-      </c>
-      <c r="F106" t="n">
-        <v>2</v>
-      </c>
-      <c r="G106" t="n">
-        <v>1115352.117684404</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>217</v>
-      </c>
-      <c r="K106" t="n">
-        <v>219</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>218</v>
-      </c>
-      <c r="C107" t="n">
-        <v>218</v>
-      </c>
-      <c r="D107" t="n">
-        <v>218</v>
-      </c>
-      <c r="E107" t="n">
-        <v>218</v>
-      </c>
-      <c r="F107" t="n">
-        <v>2086.2856</v>
-      </c>
-      <c r="G107" t="n">
-        <v>1113265.832084404</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
-        <v>219</v>
-      </c>
-      <c r="K107" t="n">
-        <v>219</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>220</v>
-      </c>
-      <c r="C108" t="n">
-        <v>220</v>
-      </c>
-      <c r="D108" t="n">
-        <v>220</v>
-      </c>
-      <c r="E108" t="n">
-        <v>220</v>
-      </c>
-      <c r="F108" t="n">
-        <v>100</v>
-      </c>
-      <c r="G108" t="n">
-        <v>1113365.832084404</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>218</v>
-      </c>
-      <c r="K108" t="n">
-        <v>219</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>218</v>
-      </c>
-      <c r="C109" t="n">
-        <v>218</v>
-      </c>
-      <c r="D109" t="n">
-        <v>218</v>
-      </c>
-      <c r="E109" t="n">
-        <v>218</v>
-      </c>
-      <c r="F109" t="n">
-        <v>1244</v>
-      </c>
-      <c r="G109" t="n">
-        <v>1112121.832084404</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>219</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>218</v>
-      </c>
-      <c r="C110" t="n">
-        <v>218</v>
-      </c>
-      <c r="D110" t="n">
-        <v>218</v>
-      </c>
-      <c r="E110" t="n">
-        <v>218</v>
-      </c>
-      <c r="F110" t="n">
-        <v>815.9517</v>
-      </c>
-      <c r="G110" t="n">
-        <v>1112121.832084404</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>219</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>218</v>
-      </c>
-      <c r="C111" t="n">
-        <v>218</v>
-      </c>
-      <c r="D111" t="n">
-        <v>218</v>
-      </c>
-      <c r="E111" t="n">
-        <v>218</v>
-      </c>
-      <c r="F111" t="n">
-        <v>533</v>
-      </c>
-      <c r="G111" t="n">
-        <v>1112121.832084404</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>219</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>218</v>
-      </c>
-      <c r="C112" t="n">
-        <v>218</v>
-      </c>
-      <c r="D112" t="n">
-        <v>218</v>
-      </c>
-      <c r="E112" t="n">
-        <v>218</v>
-      </c>
-      <c r="F112" t="n">
-        <v>648</v>
-      </c>
-      <c r="G112" t="n">
-        <v>1112121.832084404</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>219</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>220</v>
-      </c>
-      <c r="C113" t="n">
-        <v>220</v>
-      </c>
-      <c r="D113" t="n">
-        <v>220</v>
-      </c>
-      <c r="E113" t="n">
-        <v>220</v>
-      </c>
-      <c r="F113" t="n">
-        <v>2</v>
-      </c>
-      <c r="G113" t="n">
-        <v>1112123.832084404</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>219</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>218</v>
-      </c>
-      <c r="C114" t="n">
-        <v>218</v>
-      </c>
-      <c r="D114" t="n">
-        <v>218</v>
-      </c>
-      <c r="E114" t="n">
-        <v>218</v>
-      </c>
-      <c r="F114" t="n">
-        <v>225.9226</v>
-      </c>
-      <c r="G114" t="n">
-        <v>1111897.909484404</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>219</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>218</v>
-      </c>
-      <c r="C115" t="n">
-        <v>218</v>
-      </c>
-      <c r="D115" t="n">
-        <v>218</v>
-      </c>
-      <c r="E115" t="n">
-        <v>218</v>
-      </c>
-      <c r="F115" t="n">
-        <v>1818</v>
-      </c>
-      <c r="G115" t="n">
-        <v>1111897.909484404</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>219</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>220</v>
-      </c>
-      <c r="C116" t="n">
-        <v>220</v>
-      </c>
-      <c r="D116" t="n">
-        <v>220</v>
-      </c>
-      <c r="E116" t="n">
-        <v>220</v>
-      </c>
-      <c r="F116" t="n">
-        <v>2</v>
-      </c>
-      <c r="G116" t="n">
-        <v>1111899.909484404</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
-        <v>218</v>
-      </c>
-      <c r="K116" t="n">
-        <v>219</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>218</v>
-      </c>
-      <c r="C117" t="n">
-        <v>218</v>
-      </c>
-      <c r="D117" t="n">
-        <v>218</v>
-      </c>
-      <c r="E117" t="n">
-        <v>218</v>
-      </c>
-      <c r="F117" t="n">
-        <v>408.3498</v>
-      </c>
-      <c r="G117" t="n">
-        <v>1111491.559684404</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>219</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>219</v>
-      </c>
-      <c r="C118" t="n">
-        <v>219</v>
-      </c>
-      <c r="D118" t="n">
-        <v>219</v>
-      </c>
-      <c r="E118" t="n">
-        <v>219</v>
-      </c>
-      <c r="F118" t="n">
-        <v>363.6653</v>
-      </c>
-      <c r="G118" t="n">
-        <v>1111855.224984404</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="n">
-        <v>218</v>
-      </c>
-      <c r="K118" t="n">
-        <v>219</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>219</v>
-      </c>
-      <c r="C119" t="n">
-        <v>220</v>
-      </c>
-      <c r="D119" t="n">
-        <v>220</v>
-      </c>
-      <c r="E119" t="n">
-        <v>219</v>
-      </c>
-      <c r="F119" t="n">
-        <v>3824.355</v>
-      </c>
-      <c r="G119" t="n">
-        <v>1115679.579984404</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>219</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>220</v>
-      </c>
-      <c r="C120" t="n">
-        <v>220</v>
-      </c>
-      <c r="D120" t="n">
-        <v>220</v>
-      </c>
-      <c r="E120" t="n">
-        <v>219</v>
-      </c>
-      <c r="F120" t="n">
-        <v>17714.203</v>
-      </c>
-      <c r="G120" t="n">
-        <v>1115679.579984404</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>219</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>219</v>
-      </c>
-      <c r="C121" t="n">
-        <v>219</v>
-      </c>
-      <c r="D121" t="n">
-        <v>219</v>
-      </c>
-      <c r="E121" t="n">
-        <v>219</v>
-      </c>
-      <c r="F121" t="n">
-        <v>312.8253</v>
-      </c>
-      <c r="G121" t="n">
-        <v>1115366.754684404</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>219</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>219</v>
-      </c>
-      <c r="C122" t="n">
-        <v>219</v>
-      </c>
-      <c r="D122" t="n">
-        <v>219</v>
-      </c>
-      <c r="E122" t="n">
-        <v>219</v>
-      </c>
-      <c r="F122" t="n">
-        <v>466</v>
-      </c>
-      <c r="G122" t="n">
-        <v>1115366.754684404</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>219</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>219</v>
-      </c>
-      <c r="C123" t="n">
-        <v>219</v>
-      </c>
-      <c r="D123" t="n">
-        <v>219</v>
-      </c>
-      <c r="E123" t="n">
-        <v>219</v>
-      </c>
-      <c r="F123" t="n">
-        <v>296.9336</v>
-      </c>
-      <c r="G123" t="n">
-        <v>1115366.754684404</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>219</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>219</v>
-      </c>
-      <c r="C124" t="n">
-        <v>219</v>
-      </c>
-      <c r="D124" t="n">
-        <v>219</v>
-      </c>
-      <c r="E124" t="n">
-        <v>219</v>
-      </c>
-      <c r="F124" t="n">
-        <v>188.3432</v>
-      </c>
-      <c r="G124" t="n">
-        <v>1115366.754684404</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>219</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>219</v>
-      </c>
-      <c r="C125" t="n">
-        <v>219</v>
-      </c>
-      <c r="D125" t="n">
-        <v>219</v>
-      </c>
-      <c r="E125" t="n">
-        <v>219</v>
-      </c>
-      <c r="F125" t="n">
-        <v>159.2864</v>
-      </c>
-      <c r="G125" t="n">
-        <v>1115366.754684404</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>219</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>220</v>
-      </c>
-      <c r="C126" t="n">
-        <v>220</v>
-      </c>
-      <c r="D126" t="n">
-        <v>220</v>
-      </c>
-      <c r="E126" t="n">
-        <v>220</v>
-      </c>
-      <c r="F126" t="n">
-        <v>1850</v>
-      </c>
-      <c r="G126" t="n">
-        <v>1117216.754684404</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>219</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>220</v>
-      </c>
-      <c r="C127" t="n">
-        <v>221</v>
-      </c>
-      <c r="D127" t="n">
-        <v>221</v>
-      </c>
-      <c r="E127" t="n">
-        <v>220</v>
-      </c>
-      <c r="F127" t="n">
-        <v>7446.9128</v>
-      </c>
-      <c r="G127" t="n">
-        <v>1124663.667484404</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>219</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>221</v>
-      </c>
-      <c r="C128" t="n">
-        <v>221</v>
-      </c>
-      <c r="D128" t="n">
-        <v>222</v>
-      </c>
-      <c r="E128" t="n">
-        <v>221</v>
-      </c>
-      <c r="F128" t="n">
-        <v>637</v>
-      </c>
-      <c r="G128" t="n">
-        <v>1124663.667484404</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>219</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>222</v>
-      </c>
-      <c r="C129" t="n">
-        <v>226</v>
-      </c>
-      <c r="D129" t="n">
-        <v>227</v>
-      </c>
-      <c r="E129" t="n">
-        <v>222</v>
-      </c>
-      <c r="F129" t="n">
-        <v>55597.9253</v>
-      </c>
-      <c r="G129" t="n">
-        <v>1180261.592784404</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>219</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>224</v>
-      </c>
-      <c r="C130" t="n">
-        <v>223</v>
-      </c>
-      <c r="D130" t="n">
-        <v>224</v>
-      </c>
-      <c r="E130" t="n">
-        <v>222</v>
-      </c>
-      <c r="F130" t="n">
-        <v>1859.9999</v>
-      </c>
-      <c r="G130" t="n">
-        <v>1178401.592884404</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>219</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>222</v>
-      </c>
-      <c r="C131" t="n">
-        <v>225</v>
-      </c>
-      <c r="D131" t="n">
-        <v>225</v>
-      </c>
-      <c r="E131" t="n">
-        <v>222</v>
-      </c>
-      <c r="F131" t="n">
-        <v>559.3546</v>
-      </c>
-      <c r="G131" t="n">
-        <v>1178960.947484404</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>219</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>224</v>
-      </c>
-      <c r="C132" t="n">
-        <v>225</v>
-      </c>
-      <c r="D132" t="n">
-        <v>225</v>
-      </c>
-      <c r="E132" t="n">
-        <v>224</v>
-      </c>
-      <c r="F132" t="n">
-        <v>242</v>
-      </c>
-      <c r="G132" t="n">
-        <v>1178960.947484404</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>219</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>223</v>
-      </c>
-      <c r="C133" t="n">
-        <v>223</v>
-      </c>
-      <c r="D133" t="n">
-        <v>223</v>
-      </c>
-      <c r="E133" t="n">
-        <v>223</v>
-      </c>
-      <c r="F133" t="n">
-        <v>1056.7978</v>
-      </c>
-      <c r="G133" t="n">
-        <v>1177904.149684404</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>219</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>223</v>
-      </c>
-      <c r="C134" t="n">
-        <v>223</v>
-      </c>
-      <c r="D134" t="n">
-        <v>223</v>
-      </c>
-      <c r="E134" t="n">
-        <v>223</v>
-      </c>
-      <c r="F134" t="n">
-        <v>175.6057</v>
-      </c>
-      <c r="G134" t="n">
-        <v>1177904.149684404</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>219</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1.013264840182649</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>224</v>
-      </c>
-      <c r="C135" t="n">
-        <v>223</v>
-      </c>
-      <c r="D135" t="n">
-        <v>224</v>
-      </c>
-      <c r="E135" t="n">
-        <v>223</v>
-      </c>
-      <c r="F135" t="n">
-        <v>958.2474</v>
-      </c>
-      <c r="G135" t="n">
-        <v>1177904.149684404</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>225</v>
-      </c>
-      <c r="C136" t="n">
-        <v>224</v>
-      </c>
-      <c r="D136" t="n">
-        <v>226</v>
-      </c>
-      <c r="E136" t="n">
-        <v>224</v>
-      </c>
-      <c r="F136" t="n">
-        <v>1067.6592</v>
-      </c>
-      <c r="G136" t="n">
-        <v>1178971.808884404</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>223</v>
-      </c>
-      <c r="C137" t="n">
-        <v>222</v>
-      </c>
-      <c r="D137" t="n">
-        <v>223</v>
-      </c>
-      <c r="E137" t="n">
-        <v>222</v>
-      </c>
-      <c r="F137" t="n">
-        <v>3336.35</v>
-      </c>
-      <c r="G137" t="n">
-        <v>1175635.458884404</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>225</v>
-      </c>
-      <c r="C138" t="n">
-        <v>226</v>
-      </c>
-      <c r="D138" t="n">
-        <v>226</v>
-      </c>
-      <c r="E138" t="n">
-        <v>225</v>
-      </c>
-      <c r="F138" t="n">
-        <v>162</v>
-      </c>
-      <c r="G138" t="n">
-        <v>1175797.458884404</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>225</v>
-      </c>
-      <c r="C139" t="n">
-        <v>224</v>
-      </c>
-      <c r="D139" t="n">
-        <v>225</v>
-      </c>
-      <c r="E139" t="n">
-        <v>224</v>
-      </c>
-      <c r="F139" t="n">
-        <v>344</v>
-      </c>
-      <c r="G139" t="n">
-        <v>1175453.458884404</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>222</v>
-      </c>
-      <c r="C140" t="n">
-        <v>222</v>
-      </c>
-      <c r="D140" t="n">
-        <v>222</v>
-      </c>
-      <c r="E140" t="n">
-        <v>222</v>
-      </c>
-      <c r="F140" t="n">
-        <v>1811.2245</v>
-      </c>
-      <c r="G140" t="n">
-        <v>1173642.234384404</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>1</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>223</v>
-      </c>
-      <c r="C141" t="n">
-        <v>222</v>
-      </c>
-      <c r="D141" t="n">
-        <v>223</v>
-      </c>
-      <c r="E141" t="n">
-        <v>222</v>
-      </c>
-      <c r="F141" t="n">
-        <v>2018.9561</v>
-      </c>
-      <c r="G141" t="n">
-        <v>1173642.234384404</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>224</v>
-      </c>
-      <c r="C142" t="n">
-        <v>224</v>
-      </c>
-      <c r="D142" t="n">
-        <v>224</v>
-      </c>
-      <c r="E142" t="n">
-        <v>224</v>
-      </c>
-      <c r="F142" t="n">
-        <v>56.6444</v>
-      </c>
-      <c r="G142" t="n">
-        <v>1173698.878784404</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>223</v>
-      </c>
-      <c r="C143" t="n">
-        <v>223</v>
-      </c>
-      <c r="D143" t="n">
-        <v>223</v>
-      </c>
-      <c r="E143" t="n">
-        <v>223</v>
-      </c>
-      <c r="F143" t="n">
-        <v>3276.4977</v>
-      </c>
-      <c r="G143" t="n">
-        <v>1170422.381084404</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>223</v>
-      </c>
-      <c r="C144" t="n">
-        <v>223</v>
-      </c>
-      <c r="D144" t="n">
-        <v>223</v>
-      </c>
-      <c r="E144" t="n">
-        <v>223</v>
-      </c>
-      <c r="F144" t="n">
-        <v>3363.6412</v>
-      </c>
-      <c r="G144" t="n">
-        <v>1170422.381084404</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>223</v>
-      </c>
-      <c r="C145" t="n">
-        <v>222</v>
-      </c>
-      <c r="D145" t="n">
-        <v>223</v>
-      </c>
-      <c r="E145" t="n">
-        <v>222</v>
-      </c>
-      <c r="F145" t="n">
-        <v>1224.49</v>
-      </c>
-      <c r="G145" t="n">
-        <v>1169197.891084404</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>1</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>222</v>
-      </c>
-      <c r="C146" t="n">
-        <v>222</v>
-      </c>
-      <c r="D146" t="n">
-        <v>223</v>
-      </c>
-      <c r="E146" t="n">
-        <v>222</v>
-      </c>
-      <c r="F146" t="n">
-        <v>2155.8483</v>
-      </c>
-      <c r="G146" t="n">
-        <v>1169197.891084404</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>1</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
+      <c r="N104" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-19 BackTest KNC.xlsx
+++ b/BackTest/2019-10-19 BackTest KNC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N104"/>
+  <dimension ref="A1:N175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,10 +450,10 @@
         <v>217</v>
       </c>
       <c r="F2" t="n">
-        <v>100</v>
+        <v>1848363.5544</v>
       </c>
       <c r="G2" t="n">
-        <v>1129286.737984404</v>
+        <v>279336.188</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -477,19 +477,19 @@
         <v>217</v>
       </c>
       <c r="C3" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D3" t="n">
         <v>217</v>
       </c>
       <c r="E3" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F3" t="n">
-        <v>736.8181</v>
+        <v>2205000</v>
       </c>
       <c r="G3" t="n">
-        <v>1128549.919884404</v>
+        <v>279336.188</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -522,19 +522,23 @@
         <v>217</v>
       </c>
       <c r="F4" t="n">
-        <v>127.0469</v>
+        <v>2052000</v>
       </c>
       <c r="G4" t="n">
-        <v>1128676.966784404</v>
+        <v>279336.188</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>217</v>
+      </c>
+      <c r="K4" t="n">
+        <v>217</v>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
@@ -558,10 +562,10 @@
         <v>217</v>
       </c>
       <c r="F5" t="n">
-        <v>2000</v>
+        <v>1547107.7817</v>
       </c>
       <c r="G5" t="n">
-        <v>1128676.966784404</v>
+        <v>279336.188</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -570,8 +574,14 @@
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>217</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -585,29 +595,37 @@
         <v>217</v>
       </c>
       <c r="C6" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D6" t="n">
         <v>217</v>
       </c>
       <c r="E6" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F6" t="n">
-        <v>1186.1785</v>
+        <v>870233.6631</v>
       </c>
       <c r="G6" t="n">
-        <v>1127490.788284404</v>
+        <v>279336.188</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>217</v>
+      </c>
+      <c r="K6" t="n">
+        <v>217</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,32 +636,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C7" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D7" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E7" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F7" t="n">
-        <v>1685.8719</v>
+        <v>900459.2593</v>
       </c>
       <c r="G7" t="n">
-        <v>1127490.788284404</v>
+        <v>1179795.4473</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>217</v>
+      </c>
+      <c r="K7" t="n">
+        <v>217</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,32 +680,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C8" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D8" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E8" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F8" t="n">
-        <v>3020</v>
+        <v>2961740.7407</v>
       </c>
       <c r="G8" t="n">
-        <v>1130510.788284404</v>
+        <v>1179795.4473</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>218</v>
+      </c>
+      <c r="K8" t="n">
+        <v>217</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,22 +724,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C9" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D9" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E9" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F9" t="n">
-        <v>2000</v>
+        <v>2850957</v>
       </c>
       <c r="G9" t="n">
-        <v>1128510.788284404</v>
+        <v>1179795.4473</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -714,8 +748,14 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>217</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,22 +766,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C10" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D10" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E10" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F10" t="n">
-        <v>196.6372</v>
+        <v>1280660.916</v>
       </c>
       <c r="G10" t="n">
-        <v>1128510.788284404</v>
+        <v>1179795.4473</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -750,8 +790,14 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>217</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,22 +808,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C11" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D11" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E11" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F11" t="n">
-        <v>694.4919</v>
+        <v>438227.875</v>
       </c>
       <c r="G11" t="n">
-        <v>1128510.788284404</v>
+        <v>1179795.4473</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -786,8 +832,14 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>217</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,22 +850,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C12" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D12" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E12" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F12" t="n">
-        <v>1041.7378</v>
+        <v>630612.2632</v>
       </c>
       <c r="G12" t="n">
-        <v>1128510.788284404</v>
+        <v>1179795.4473</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -822,8 +874,14 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>217</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,36 +892,38 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C13" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D13" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E13" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F13" t="n">
-        <v>174.4602</v>
+        <v>59218.125</v>
       </c>
       <c r="G13" t="n">
-        <v>1128510.788284404</v>
+        <v>1179795.4473</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>216</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>216</v>
-      </c>
-      <c r="L13" t="inlineStr"/>
+        <v>217</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -874,38 +934,36 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C14" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D14" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E14" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F14" t="n">
-        <v>300</v>
+        <v>3269.6953</v>
       </c>
       <c r="G14" t="n">
-        <v>1128510.788284404</v>
+        <v>1183065.1426</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>216</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M14" t="n">
@@ -918,7 +976,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C15" t="n">
         <v>218</v>
@@ -927,29 +985,27 @@
         <v>218</v>
       </c>
       <c r="E15" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F15" t="n">
-        <v>802.4215</v>
+        <v>225.059</v>
       </c>
       <c r="G15" t="n">
-        <v>1129313.209784404</v>
+        <v>1182840.0836</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>216</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M15" t="n">
@@ -962,34 +1018,32 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C16" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D16" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E16" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F16" t="n">
-        <v>275.9999</v>
+        <v>2669.5072</v>
       </c>
       <c r="G16" t="n">
-        <v>1129037.209884404</v>
+        <v>1182840.0836</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>218</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1006,34 +1060,32 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C17" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D17" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E17" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>2609.8938</v>
       </c>
       <c r="G17" t="n">
-        <v>1129039.209884404</v>
+        <v>1180230.1898</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>216</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1050,34 +1102,32 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C18" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D18" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E18" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F18" t="n">
-        <v>7108.2347</v>
+        <v>1292</v>
       </c>
       <c r="G18" t="n">
-        <v>1121930.975184404</v>
+        <v>1181522.1898</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>218</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1100,28 +1150,26 @@
         <v>217</v>
       </c>
       <c r="D19" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E19" t="n">
         <v>217</v>
       </c>
       <c r="F19" t="n">
-        <v>4207.5688</v>
+        <v>6664.6387</v>
       </c>
       <c r="G19" t="n">
-        <v>1121930.975184404</v>
+        <v>1174857.5511</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>217</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1138,22 +1186,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C20" t="n">
         <v>217</v>
       </c>
       <c r="D20" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E20" t="n">
         <v>217</v>
       </c>
       <c r="F20" t="n">
-        <v>393.5432</v>
+        <v>426.8874</v>
       </c>
       <c r="G20" t="n">
-        <v>1121930.975184404</v>
+        <v>1174857.5511</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1163,7 +1211,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1192,22 +1240,20 @@
         <v>217</v>
       </c>
       <c r="F21" t="n">
-        <v>450.0691</v>
+        <v>3808.0482</v>
       </c>
       <c r="G21" t="n">
-        <v>1121930.975184404</v>
+        <v>1174857.5511</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>217</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1224,7 +1270,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C22" t="n">
         <v>218</v>
@@ -1233,13 +1279,13 @@
         <v>218</v>
       </c>
       <c r="E22" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F22" t="n">
-        <v>168.8315</v>
+        <v>189.2608</v>
       </c>
       <c r="G22" t="n">
-        <v>1122099.806684404</v>
+        <v>1175046.8119</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1249,7 +1295,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1269,19 +1315,19 @@
         <v>217</v>
       </c>
       <c r="C23" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D23" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E23" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F23" t="n">
-        <v>17</v>
+        <v>4638.0274</v>
       </c>
       <c r="G23" t="n">
-        <v>1122082.806684404</v>
+        <v>1170408.7845</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1291,7 +1337,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1311,19 +1357,19 @@
         <v>218</v>
       </c>
       <c r="C24" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D24" t="n">
         <v>218</v>
       </c>
       <c r="E24" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>1668.5166</v>
       </c>
       <c r="G24" t="n">
-        <v>1122083.806684404</v>
+        <v>1172077.3011</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1333,7 +1379,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1350,22 +1396,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C25" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D25" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E25" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F25" t="n">
-        <v>1009.7399</v>
+        <v>11016.8521</v>
       </c>
       <c r="G25" t="n">
-        <v>1121074.066784404</v>
+        <v>1161060.449</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1375,7 +1421,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1395,19 +1441,19 @@
         <v>217</v>
       </c>
       <c r="C26" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D26" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E26" t="n">
         <v>217</v>
       </c>
       <c r="F26" t="n">
-        <v>1009.3133</v>
+        <v>902.1856</v>
       </c>
       <c r="G26" t="n">
-        <v>1121074.066784404</v>
+        <v>1161962.6346</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1417,7 +1463,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1434,22 +1480,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C27" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D27" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E27" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F27" t="n">
-        <v>9945.0785</v>
+        <v>107.381</v>
       </c>
       <c r="G27" t="n">
-        <v>1121074.066784404</v>
+        <v>1162070.0156</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1459,7 +1505,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1476,22 +1522,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C28" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D28" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E28" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F28" t="n">
-        <v>180.395</v>
+        <v>610.7386</v>
       </c>
       <c r="G28" t="n">
-        <v>1121074.066784404</v>
+        <v>1162070.0156</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1501,7 +1547,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1518,22 +1564,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C29" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D29" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E29" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F29" t="n">
-        <v>25.5878</v>
+        <v>107.381</v>
       </c>
       <c r="G29" t="n">
-        <v>1121099.654584404</v>
+        <v>1162070.0156</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1543,7 +1589,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1560,22 +1606,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C30" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D30" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E30" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F30" t="n">
-        <v>10</v>
+        <v>251</v>
       </c>
       <c r="G30" t="n">
-        <v>1121099.654584404</v>
+        <v>1162070.0156</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1585,7 +1631,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1602,7 +1648,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C31" t="n">
         <v>219</v>
@@ -1611,13 +1657,13 @@
         <v>219</v>
       </c>
       <c r="E31" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F31" t="n">
-        <v>396.3389</v>
+        <v>23.4797</v>
       </c>
       <c r="G31" t="n">
-        <v>1121495.993484404</v>
+        <v>1162070.0156</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1627,7 +1673,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1647,19 +1693,19 @@
         <v>219</v>
       </c>
       <c r="C32" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D32" t="n">
         <v>219</v>
       </c>
       <c r="E32" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F32" t="n">
-        <v>1093.2978</v>
+        <v>118.6894</v>
       </c>
       <c r="G32" t="n">
-        <v>1120402.695684404</v>
+        <v>1162070.0156</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1669,7 +1715,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1698,10 +1744,10 @@
         <v>219</v>
       </c>
       <c r="F33" t="n">
-        <v>107.8944</v>
+        <v>282.9538</v>
       </c>
       <c r="G33" t="n">
-        <v>1120510.590084404</v>
+        <v>1162070.0156</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1711,7 +1757,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1728,22 +1774,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C34" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D34" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E34" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F34" t="n">
-        <v>10.059</v>
+        <v>85.73560000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>1120520.649084404</v>
+        <v>1162070.0156</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1753,7 +1799,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1770,22 +1816,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C35" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D35" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E35" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F35" t="n">
-        <v>3208.5919</v>
+        <v>13.6363</v>
       </c>
       <c r="G35" t="n">
-        <v>1117312.057184404</v>
+        <v>1162083.6519</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1795,7 +1841,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1812,22 +1858,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C36" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D36" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E36" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F36" t="n">
-        <v>10.0338</v>
+        <v>796.4871000000001</v>
       </c>
       <c r="G36" t="n">
-        <v>1117312.057184404</v>
+        <v>1161287.1648</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1837,7 +1883,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1854,22 +1900,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C37" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D37" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E37" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="G37" t="n">
-        <v>1117314.057184404</v>
+        <v>1161287.1648</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1879,7 +1925,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1905,13 +1951,13 @@
         <v>218</v>
       </c>
       <c r="E38" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F38" t="n">
-        <v>972.6249</v>
+        <v>9319.3006</v>
       </c>
       <c r="G38" t="n">
-        <v>1117314.057184404</v>
+        <v>1151967.8642</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1921,7 +1967,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1938,22 +1984,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C39" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D39" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E39" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F39" t="n">
-        <v>2522.9356</v>
+        <v>226.2661</v>
       </c>
       <c r="G39" t="n">
-        <v>1117314.057184404</v>
+        <v>1152194.1303</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1963,7 +2009,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -1980,22 +2026,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C40" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D40" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E40" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>311.311</v>
       </c>
       <c r="G40" t="n">
-        <v>1117316.057184404</v>
+        <v>1152505.4413</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2005,7 +2051,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2022,22 +2068,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C41" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D41" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E41" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F41" t="n">
-        <v>18</v>
+        <v>188.0968</v>
       </c>
       <c r="G41" t="n">
-        <v>1117316.057184404</v>
+        <v>1152505.4413</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2047,7 +2093,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2064,22 +2110,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C42" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D42" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E42" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F42" t="n">
-        <v>509.0296</v>
+        <v>1747.3792</v>
       </c>
       <c r="G42" t="n">
-        <v>1117316.057184404</v>
+        <v>1152505.4413</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2089,7 +2135,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2106,22 +2152,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C43" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D43" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E43" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9704</v>
+        <v>4741.1102</v>
       </c>
       <c r="G43" t="n">
-        <v>1117316.057184404</v>
+        <v>1147764.3311</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2131,7 +2177,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2160,10 +2206,10 @@
         <v>219</v>
       </c>
       <c r="F44" t="n">
-        <v>515</v>
+        <v>100.3455</v>
       </c>
       <c r="G44" t="n">
-        <v>1117316.057184404</v>
+        <v>1147864.6766</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2173,7 +2219,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2193,31 +2239,29 @@
         <v>219</v>
       </c>
       <c r="C45" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D45" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E45" t="n">
         <v>219</v>
       </c>
       <c r="F45" t="n">
-        <v>2</v>
+        <v>390.2977</v>
       </c>
       <c r="G45" t="n">
-        <v>1117318.057184404</v>
+        <v>1147864.6766</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>219</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2234,34 +2278,32 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C46" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D46" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E46" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F46" t="n">
-        <v>2021.0001</v>
+        <v>245.9644</v>
       </c>
       <c r="G46" t="n">
-        <v>1117318.057184404</v>
+        <v>1147864.6766</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>220</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2290,22 +2332,20 @@
         <v>218</v>
       </c>
       <c r="F47" t="n">
-        <v>2611.8411</v>
+        <v>3821.7357</v>
       </c>
       <c r="G47" t="n">
-        <v>1114706.216084404</v>
+        <v>1144042.9409</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>220</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2322,22 +2362,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C48" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D48" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E48" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F48" t="n">
-        <v>1239.1589</v>
+        <v>1215.0747</v>
       </c>
       <c r="G48" t="n">
-        <v>1114706.216084404</v>
+        <v>1145258.0156</v>
       </c>
       <c r="H48" t="n">
         <v>1</v>
@@ -2349,7 +2389,7 @@
         <v>218</v>
       </c>
       <c r="K48" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2366,22 +2406,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C49" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D49" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E49" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F49" t="n">
-        <v>680.3704</v>
+        <v>887.4851</v>
       </c>
       <c r="G49" t="n">
-        <v>1114025.845684404</v>
+        <v>1145258.0156</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2391,7 +2431,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2408,22 +2448,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C50" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D50" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E50" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F50" t="n">
-        <v>104.8425</v>
+        <v>556.9005</v>
       </c>
       <c r="G50" t="n">
-        <v>1114130.688184404</v>
+        <v>1145258.0156</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2433,7 +2473,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2462,10 +2502,10 @@
         <v>219</v>
       </c>
       <c r="F51" t="n">
-        <v>327.6782</v>
+        <v>240.9351</v>
       </c>
       <c r="G51" t="n">
-        <v>1114458.366384404</v>
+        <v>1145017.0805</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2475,7 +2515,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2492,22 +2532,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C52" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D52" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E52" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F52" t="n">
-        <v>15</v>
+        <v>196.0143</v>
       </c>
       <c r="G52" t="n">
-        <v>1114473.366384404</v>
+        <v>1145017.0805</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2517,7 +2557,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2534,22 +2574,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C53" t="n">
         <v>218</v>
       </c>
       <c r="D53" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E53" t="n">
         <v>218</v>
       </c>
       <c r="F53" t="n">
-        <v>219.9901</v>
+        <v>1578.9201</v>
       </c>
       <c r="G53" t="n">
-        <v>1114253.376284404</v>
+        <v>1143438.1604</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2559,7 +2599,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2576,7 +2616,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C54" t="n">
         <v>219</v>
@@ -2585,13 +2625,13 @@
         <v>219</v>
       </c>
       <c r="E54" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F54" t="n">
-        <v>2970.9776</v>
+        <v>98.23950000000001</v>
       </c>
       <c r="G54" t="n">
-        <v>1117224.353884404</v>
+        <v>1143536.3999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2601,7 +2641,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2618,22 +2658,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C55" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D55" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E55" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F55" t="n">
-        <v>907.725</v>
+        <v>2698.0109</v>
       </c>
       <c r="G55" t="n">
-        <v>1116316.628884404</v>
+        <v>1143536.3999</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2643,7 +2683,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2672,10 +2712,10 @@
         <v>218</v>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
+        <v>26.1806</v>
       </c>
       <c r="G56" t="n">
-        <v>1116318.628884404</v>
+        <v>1143510.2193</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2685,7 +2725,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2702,22 +2742,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C57" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D57" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E57" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F57" t="n">
-        <v>1818</v>
+        <v>678.4423</v>
       </c>
       <c r="G57" t="n">
-        <v>1116318.628884404</v>
+        <v>1144188.6616</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2727,7 +2767,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2744,22 +2784,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C58" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D58" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E58" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F58" t="n">
-        <v>1698.0667</v>
+        <v>633.9301</v>
       </c>
       <c r="G58" t="n">
-        <v>1114620.562184404</v>
+        <v>1144188.6616</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2769,7 +2809,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2786,22 +2826,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C59" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D59" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E59" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F59" t="n">
-        <v>503.8498</v>
+        <v>72.05889999999999</v>
       </c>
       <c r="G59" t="n">
-        <v>1114620.562184404</v>
+        <v>1144188.6616</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2811,7 +2851,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2828,22 +2868,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C60" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D60" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E60" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F60" t="n">
-        <v>2997</v>
+        <v>581.6115</v>
       </c>
       <c r="G60" t="n">
-        <v>1117617.562184404</v>
+        <v>1144188.6616</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2853,7 +2893,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2870,22 +2910,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C61" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D61" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E61" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F61" t="n">
-        <v>538</v>
+        <v>494.0361</v>
       </c>
       <c r="G61" t="n">
-        <v>1117617.562184404</v>
+        <v>1144188.6616</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2895,7 +2935,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2912,22 +2952,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C62" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D62" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E62" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F62" t="n">
-        <v>1018</v>
+        <v>228.7561</v>
       </c>
       <c r="G62" t="n">
-        <v>1117617.562184404</v>
+        <v>1144188.6616</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2937,7 +2977,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2957,19 +2997,19 @@
         <v>218</v>
       </c>
       <c r="C63" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D63" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E63" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F63" t="n">
-        <v>2267.4445</v>
+        <v>308.471</v>
       </c>
       <c r="G63" t="n">
-        <v>1115350.117684404</v>
+        <v>1144188.6616</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2979,7 +3019,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -3008,10 +3048,10 @@
         <v>219</v>
       </c>
       <c r="F64" t="n">
-        <v>2</v>
+        <v>31.7106</v>
       </c>
       <c r="G64" t="n">
-        <v>1115352.117684404</v>
+        <v>1144188.6616</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3021,7 +3061,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -3050,10 +3090,10 @@
         <v>218</v>
       </c>
       <c r="F65" t="n">
-        <v>2086.2856</v>
+        <v>487.9231</v>
       </c>
       <c r="G65" t="n">
-        <v>1113265.832084404</v>
+        <v>1143700.7385</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3063,7 +3103,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -3080,22 +3120,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C66" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D66" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E66" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F66" t="n">
-        <v>100</v>
+        <v>492.9237</v>
       </c>
       <c r="G66" t="n">
-        <v>1113365.832084404</v>
+        <v>1144193.6622</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3105,7 +3145,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -3122,22 +3162,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C67" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D67" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E67" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F67" t="n">
-        <v>1244</v>
+        <v>109.4175</v>
       </c>
       <c r="G67" t="n">
-        <v>1112121.832084404</v>
+        <v>1144193.6622</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3147,7 +3187,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3164,22 +3204,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C68" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D68" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E68" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F68" t="n">
-        <v>815.9517</v>
+        <v>6863.532</v>
       </c>
       <c r="G68" t="n">
-        <v>1112121.832084404</v>
+        <v>1137330.1302</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3189,7 +3229,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3218,10 +3258,10 @@
         <v>218</v>
       </c>
       <c r="F69" t="n">
-        <v>533</v>
+        <v>103.3729</v>
       </c>
       <c r="G69" t="n">
-        <v>1112121.832084404</v>
+        <v>1137433.5031</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3231,7 +3271,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3248,22 +3288,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C70" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D70" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E70" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F70" t="n">
-        <v>648</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>1112121.832084404</v>
+        <v>1137434.5031</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3273,7 +3313,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3290,22 +3330,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C71" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D71" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E71" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
+        <v>8207.306399999999</v>
       </c>
       <c r="G71" t="n">
-        <v>1112123.832084404</v>
+        <v>1129227.1967</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3315,7 +3355,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3332,7 +3372,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C72" t="n">
         <v>218</v>
@@ -3341,13 +3381,13 @@
         <v>218</v>
       </c>
       <c r="E72" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F72" t="n">
-        <v>225.9226</v>
+        <v>159.5412844036697</v>
       </c>
       <c r="G72" t="n">
-        <v>1111897.909484404</v>
+        <v>1129386.737984404</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3357,7 +3397,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3374,22 +3414,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C73" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D73" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E73" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F73" t="n">
-        <v>1818</v>
+        <v>100</v>
       </c>
       <c r="G73" t="n">
-        <v>1111897.909484404</v>
+        <v>1129286.737984404</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3399,7 +3439,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3416,32 +3456,34 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C74" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D74" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E74" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F74" t="n">
-        <v>2</v>
+        <v>736.8181</v>
       </c>
       <c r="G74" t="n">
-        <v>1111899.909484404</v>
+        <v>1128549.919884404</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>217</v>
+      </c>
       <c r="K74" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3458,32 +3500,34 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C75" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D75" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E75" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F75" t="n">
-        <v>408.3498</v>
+        <v>127.0469</v>
       </c>
       <c r="G75" t="n">
-        <v>1111491.559684404</v>
+        <v>1128676.966784404</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>216</v>
+      </c>
       <c r="K75" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3500,22 +3544,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C76" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D76" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E76" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F76" t="n">
-        <v>363.6653</v>
+        <v>2000</v>
       </c>
       <c r="G76" t="n">
-        <v>1111855.224984404</v>
+        <v>1128676.966784404</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3525,7 +3569,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3542,32 +3586,34 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C77" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D77" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E77" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F77" t="n">
-        <v>3824.355</v>
+        <v>1186.1785</v>
       </c>
       <c r="G77" t="n">
-        <v>1115679.579984404</v>
+        <v>1127490.788284404</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>217</v>
+      </c>
       <c r="K77" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3584,32 +3630,34 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C78" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D78" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E78" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F78" t="n">
-        <v>17714.203</v>
+        <v>1685.8719</v>
       </c>
       <c r="G78" t="n">
-        <v>1115679.579984404</v>
+        <v>1127490.788284404</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>216</v>
+      </c>
       <c r="K78" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3626,32 +3674,34 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C79" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D79" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E79" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F79" t="n">
-        <v>312.8253</v>
+        <v>3020</v>
       </c>
       <c r="G79" t="n">
-        <v>1115366.754684404</v>
+        <v>1130510.788284404</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>216</v>
+      </c>
       <c r="K79" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3668,32 +3718,34 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C80" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D80" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E80" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F80" t="n">
-        <v>466</v>
+        <v>2000</v>
       </c>
       <c r="G80" t="n">
-        <v>1115366.754684404</v>
+        <v>1128510.788284404</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>217</v>
+      </c>
       <c r="K80" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3710,32 +3762,34 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C81" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D81" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E81" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F81" t="n">
-        <v>296.9336</v>
+        <v>196.6372</v>
       </c>
       <c r="G81" t="n">
-        <v>1115366.754684404</v>
+        <v>1128510.788284404</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>216</v>
+      </c>
       <c r="K81" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3752,32 +3806,34 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C82" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D82" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E82" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F82" t="n">
-        <v>188.3432</v>
+        <v>694.4919</v>
       </c>
       <c r="G82" t="n">
-        <v>1115366.754684404</v>
+        <v>1128510.788284404</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>216</v>
+      </c>
       <c r="K82" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3794,32 +3850,34 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C83" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D83" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E83" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F83" t="n">
-        <v>159.2864</v>
+        <v>1041.7378</v>
       </c>
       <c r="G83" t="n">
-        <v>1115366.754684404</v>
+        <v>1128510.788284404</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>216</v>
+      </c>
       <c r="K83" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3836,32 +3894,34 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C84" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D84" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E84" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F84" t="n">
-        <v>1850</v>
+        <v>174.4602</v>
       </c>
       <c r="G84" t="n">
-        <v>1117216.754684404</v>
+        <v>1128510.788284404</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>216</v>
+      </c>
       <c r="K84" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3878,32 +3938,34 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C85" t="n">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D85" t="n">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E85" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F85" t="n">
-        <v>7446.9128</v>
+        <v>300</v>
       </c>
       <c r="G85" t="n">
-        <v>1124663.667484404</v>
+        <v>1128510.788284404</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>216</v>
+      </c>
       <c r="K85" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3920,32 +3982,34 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C86" t="n">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D86" t="n">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E86" t="n">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F86" t="n">
-        <v>637</v>
+        <v>802.4215</v>
       </c>
       <c r="G86" t="n">
-        <v>1124663.667484404</v>
+        <v>1129313.209784404</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>216</v>
+      </c>
       <c r="K86" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3962,32 +4026,34 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C87" t="n">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D87" t="n">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="E87" t="n">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F87" t="n">
-        <v>55597.9253</v>
+        <v>275.9999</v>
       </c>
       <c r="G87" t="n">
-        <v>1180261.592784404</v>
+        <v>1129037.209884404</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>218</v>
+      </c>
       <c r="K87" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -4004,32 +4070,34 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C88" t="n">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D88" t="n">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E88" t="n">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F88" t="n">
-        <v>1859.9999</v>
+        <v>2</v>
       </c>
       <c r="G88" t="n">
-        <v>1178401.592884404</v>
+        <v>1129039.209884404</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>216</v>
+      </c>
       <c r="K88" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -4046,22 +4114,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C89" t="n">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D89" t="n">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E89" t="n">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F89" t="n">
-        <v>559.3546</v>
+        <v>7108.2347</v>
       </c>
       <c r="G89" t="n">
-        <v>1178960.947484404</v>
+        <v>1121930.975184404</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4071,7 +4139,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -4088,22 +4156,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C90" t="n">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D90" t="n">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E90" t="n">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F90" t="n">
-        <v>242</v>
+        <v>4207.5688</v>
       </c>
       <c r="G90" t="n">
-        <v>1178960.947484404</v>
+        <v>1121930.975184404</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4113,7 +4181,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -4130,22 +4198,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C91" t="n">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D91" t="n">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E91" t="n">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F91" t="n">
-        <v>1056.7978</v>
+        <v>393.5432</v>
       </c>
       <c r="G91" t="n">
-        <v>1177904.149684404</v>
+        <v>1121930.975184404</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4155,7 +4223,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -4172,22 +4240,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C92" t="n">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D92" t="n">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E92" t="n">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F92" t="n">
-        <v>175.6057</v>
+        <v>450.0691</v>
       </c>
       <c r="G92" t="n">
-        <v>1177904.149684404</v>
+        <v>1121930.975184404</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4197,7 +4265,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4214,22 +4282,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C93" t="n">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D93" t="n">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E93" t="n">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F93" t="n">
-        <v>958.2474</v>
+        <v>168.8315</v>
       </c>
       <c r="G93" t="n">
-        <v>1177904.149684404</v>
+        <v>1122099.806684404</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4239,7 +4307,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4256,22 +4324,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C94" t="n">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D94" t="n">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="E94" t="n">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F94" t="n">
-        <v>1067.6592</v>
+        <v>17</v>
       </c>
       <c r="G94" t="n">
-        <v>1178971.808884404</v>
+        <v>1122082.806684404</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4281,7 +4349,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4298,22 +4366,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C95" t="n">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D95" t="n">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E95" t="n">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F95" t="n">
-        <v>3336.35</v>
+        <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>1175635.458884404</v>
+        <v>1122083.806684404</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4323,7 +4391,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4340,40 +4408,40 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C96" t="n">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D96" t="n">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="E96" t="n">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="F96" t="n">
-        <v>162</v>
+        <v>1009.7399</v>
       </c>
       <c r="G96" t="n">
-        <v>1175797.458884404</v>
+        <v>1121074.066784404</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>1.041296296296296</v>
+        <v>1</v>
       </c>
       <c r="N96" t="inlineStr"/>
     </row>
@@ -4382,32 +4450,38 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C97" t="n">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D97" t="n">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E97" t="n">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F97" t="n">
-        <v>344</v>
+        <v>1009.3133</v>
       </c>
       <c r="G97" t="n">
-        <v>1175453.458884404</v>
+        <v>1121074.066784404</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>217</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4418,32 +4492,38 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C98" t="n">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D98" t="n">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E98" t="n">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F98" t="n">
-        <v>1811.2245</v>
+        <v>9945.0785</v>
       </c>
       <c r="G98" t="n">
-        <v>1173642.234384404</v>
+        <v>1121074.066784404</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>217</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4454,32 +4534,38 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C99" t="n">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D99" t="n">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E99" t="n">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F99" t="n">
-        <v>2018.9561</v>
+        <v>180.395</v>
       </c>
       <c r="G99" t="n">
-        <v>1173642.234384404</v>
+        <v>1121074.066784404</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>217</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4490,22 +4576,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C100" t="n">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D100" t="n">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E100" t="n">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F100" t="n">
-        <v>56.6444</v>
+        <v>25.5878</v>
       </c>
       <c r="G100" t="n">
-        <v>1173698.878784404</v>
+        <v>1121099.654584404</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4514,8 +4600,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>217</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4526,22 +4618,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C101" t="n">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D101" t="n">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E101" t="n">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F101" t="n">
-        <v>3276.4977</v>
+        <v>10</v>
       </c>
       <c r="G101" t="n">
-        <v>1170422.381084404</v>
+        <v>1121099.654584404</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4550,8 +4642,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>217</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4562,32 +4660,38 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C102" t="n">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D102" t="n">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E102" t="n">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F102" t="n">
-        <v>3363.6412</v>
+        <v>396.3389</v>
       </c>
       <c r="G102" t="n">
-        <v>1170422.381084404</v>
+        <v>1121495.993484404</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>217</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4598,22 +4702,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C103" t="n">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D103" t="n">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E103" t="n">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F103" t="n">
-        <v>1224.49</v>
+        <v>1093.2978</v>
       </c>
       <c r="G103" t="n">
-        <v>1169197.891084404</v>
+        <v>1120402.695684404</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4622,8 +4726,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>217</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4634,36 +4744,2988 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
+        <v>219</v>
+      </c>
+      <c r="C104" t="n">
+        <v>219</v>
+      </c>
+      <c r="D104" t="n">
+        <v>219</v>
+      </c>
+      <c r="E104" t="n">
+        <v>219</v>
+      </c>
+      <c r="F104" t="n">
+        <v>107.8944</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1120510.590084404</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>217</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>220</v>
+      </c>
+      <c r="C105" t="n">
+        <v>220</v>
+      </c>
+      <c r="D105" t="n">
+        <v>220</v>
+      </c>
+      <c r="E105" t="n">
+        <v>220</v>
+      </c>
+      <c r="F105" t="n">
+        <v>10.059</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1120520.649084404</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>217</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>218</v>
+      </c>
+      <c r="C106" t="n">
+        <v>217</v>
+      </c>
+      <c r="D106" t="n">
+        <v>218</v>
+      </c>
+      <c r="E106" t="n">
+        <v>217</v>
+      </c>
+      <c r="F106" t="n">
+        <v>3208.5919</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1117312.057184404</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>217</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>217</v>
+      </c>
+      <c r="C107" t="n">
+        <v>217</v>
+      </c>
+      <c r="D107" t="n">
+        <v>217</v>
+      </c>
+      <c r="E107" t="n">
+        <v>217</v>
+      </c>
+      <c r="F107" t="n">
+        <v>10.0338</v>
+      </c>
+      <c r="G107" t="n">
+        <v>1117312.057184404</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>217</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>218</v>
+      </c>
+      <c r="C108" t="n">
+        <v>218</v>
+      </c>
+      <c r="D108" t="n">
+        <v>218</v>
+      </c>
+      <c r="E108" t="n">
+        <v>218</v>
+      </c>
+      <c r="F108" t="n">
+        <v>2</v>
+      </c>
+      <c r="G108" t="n">
+        <v>1117314.057184404</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>217</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>218</v>
+      </c>
+      <c r="C109" t="n">
+        <v>218</v>
+      </c>
+      <c r="D109" t="n">
+        <v>218</v>
+      </c>
+      <c r="E109" t="n">
+        <v>217</v>
+      </c>
+      <c r="F109" t="n">
+        <v>972.6249</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1117314.057184404</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>217</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>218</v>
+      </c>
+      <c r="C110" t="n">
+        <v>218</v>
+      </c>
+      <c r="D110" t="n">
+        <v>218</v>
+      </c>
+      <c r="E110" t="n">
+        <v>218</v>
+      </c>
+      <c r="F110" t="n">
+        <v>2522.9356</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1117314.057184404</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>217</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>219</v>
+      </c>
+      <c r="C111" t="n">
+        <v>219</v>
+      </c>
+      <c r="D111" t="n">
+        <v>219</v>
+      </c>
+      <c r="E111" t="n">
+        <v>219</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1117316.057184404</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>217</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>219</v>
+      </c>
+      <c r="C112" t="n">
+        <v>219</v>
+      </c>
+      <c r="D112" t="n">
+        <v>219</v>
+      </c>
+      <c r="E112" t="n">
+        <v>219</v>
+      </c>
+      <c r="F112" t="n">
+        <v>18</v>
+      </c>
+      <c r="G112" t="n">
+        <v>1117316.057184404</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>217</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>219</v>
+      </c>
+      <c r="C113" t="n">
+        <v>219</v>
+      </c>
+      <c r="D113" t="n">
+        <v>219</v>
+      </c>
+      <c r="E113" t="n">
+        <v>219</v>
+      </c>
+      <c r="F113" t="n">
+        <v>509.0296</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1117316.057184404</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>217</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>219</v>
+      </c>
+      <c r="C114" t="n">
+        <v>219</v>
+      </c>
+      <c r="D114" t="n">
+        <v>219</v>
+      </c>
+      <c r="E114" t="n">
+        <v>219</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.9704</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1117316.057184404</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>217</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>219</v>
+      </c>
+      <c r="C115" t="n">
+        <v>219</v>
+      </c>
+      <c r="D115" t="n">
+        <v>219</v>
+      </c>
+      <c r="E115" t="n">
+        <v>219</v>
+      </c>
+      <c r="F115" t="n">
+        <v>515</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1117316.057184404</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>217</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>219</v>
+      </c>
+      <c r="C116" t="n">
+        <v>220</v>
+      </c>
+      <c r="D116" t="n">
+        <v>220</v>
+      </c>
+      <c r="E116" t="n">
+        <v>219</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1117318.057184404</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>217</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>220</v>
+      </c>
+      <c r="C117" t="n">
+        <v>220</v>
+      </c>
+      <c r="D117" t="n">
+        <v>220</v>
+      </c>
+      <c r="E117" t="n">
+        <v>218</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2021.0001</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1117318.057184404</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>217</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>220</v>
+      </c>
+      <c r="C118" t="n">
+        <v>218</v>
+      </c>
+      <c r="D118" t="n">
+        <v>220</v>
+      </c>
+      <c r="E118" t="n">
+        <v>218</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2611.8411</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1114706.216084404</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>217</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>218</v>
+      </c>
+      <c r="C119" t="n">
+        <v>218</v>
+      </c>
+      <c r="D119" t="n">
+        <v>218</v>
+      </c>
+      <c r="E119" t="n">
+        <v>218</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1239.1589</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1114706.216084404</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>217</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>217</v>
+      </c>
+      <c r="C120" t="n">
+        <v>216</v>
+      </c>
+      <c r="D120" t="n">
+        <v>217</v>
+      </c>
+      <c r="E120" t="n">
+        <v>216</v>
+      </c>
+      <c r="F120" t="n">
+        <v>680.3704</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1114025.845684404</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>217</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>217</v>
+      </c>
+      <c r="C121" t="n">
+        <v>217</v>
+      </c>
+      <c r="D121" t="n">
+        <v>217</v>
+      </c>
+      <c r="E121" t="n">
+        <v>217</v>
+      </c>
+      <c r="F121" t="n">
+        <v>104.8425</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1114130.688184404</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>217</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>219</v>
+      </c>
+      <c r="C122" t="n">
+        <v>219</v>
+      </c>
+      <c r="D122" t="n">
+        <v>219</v>
+      </c>
+      <c r="E122" t="n">
+        <v>219</v>
+      </c>
+      <c r="F122" t="n">
+        <v>327.6782</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1114458.366384404</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>217</v>
+      </c>
+      <c r="K122" t="n">
+        <v>217</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>220</v>
+      </c>
+      <c r="C123" t="n">
+        <v>220</v>
+      </c>
+      <c r="D123" t="n">
+        <v>220</v>
+      </c>
+      <c r="E123" t="n">
+        <v>220</v>
+      </c>
+      <c r="F123" t="n">
+        <v>15</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1114473.366384404</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>217</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>219</v>
+      </c>
+      <c r="C124" t="n">
+        <v>218</v>
+      </c>
+      <c r="D124" t="n">
+        <v>219</v>
+      </c>
+      <c r="E124" t="n">
+        <v>218</v>
+      </c>
+      <c r="F124" t="n">
+        <v>219.9901</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1114253.376284404</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>217</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>217</v>
+      </c>
+      <c r="C125" t="n">
+        <v>219</v>
+      </c>
+      <c r="D125" t="n">
+        <v>219</v>
+      </c>
+      <c r="E125" t="n">
+        <v>216</v>
+      </c>
+      <c r="F125" t="n">
+        <v>2970.9776</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1117224.353884404</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>218</v>
+      </c>
+      <c r="K125" t="n">
+        <v>217</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>217</v>
+      </c>
+      <c r="C126" t="n">
+        <v>216</v>
+      </c>
+      <c r="D126" t="n">
+        <v>217</v>
+      </c>
+      <c r="E126" t="n">
+        <v>216</v>
+      </c>
+      <c r="F126" t="n">
+        <v>907.725</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1116316.628884404</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>219</v>
+      </c>
+      <c r="K126" t="n">
+        <v>217</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>218</v>
+      </c>
+      <c r="C127" t="n">
+        <v>218</v>
+      </c>
+      <c r="D127" t="n">
+        <v>218</v>
+      </c>
+      <c r="E127" t="n">
+        <v>218</v>
+      </c>
+      <c r="F127" t="n">
+        <v>2</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1116318.628884404</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>216</v>
+      </c>
+      <c r="K127" t="n">
+        <v>217</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>218</v>
+      </c>
+      <c r="C128" t="n">
+        <v>218</v>
+      </c>
+      <c r="D128" t="n">
+        <v>218</v>
+      </c>
+      <c r="E128" t="n">
+        <v>218</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1818</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1116318.628884404</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>218</v>
+      </c>
+      <c r="K128" t="n">
+        <v>217</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>217</v>
+      </c>
+      <c r="C129" t="n">
+        <v>217</v>
+      </c>
+      <c r="D129" t="n">
+        <v>217</v>
+      </c>
+      <c r="E129" t="n">
+        <v>217</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1698.0667</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1114620.562184404</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>218</v>
+      </c>
+      <c r="K129" t="n">
+        <v>217</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>218</v>
+      </c>
+      <c r="C130" t="n">
+        <v>217</v>
+      </c>
+      <c r="D130" t="n">
+        <v>218</v>
+      </c>
+      <c r="E130" t="n">
+        <v>217</v>
+      </c>
+      <c r="F130" t="n">
+        <v>503.8498</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1114620.562184404</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>217</v>
+      </c>
+      <c r="K130" t="n">
+        <v>217</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>218</v>
+      </c>
+      <c r="C131" t="n">
+        <v>218</v>
+      </c>
+      <c r="D131" t="n">
+        <v>218</v>
+      </c>
+      <c r="E131" t="n">
+        <v>218</v>
+      </c>
+      <c r="F131" t="n">
+        <v>2997</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1117617.562184404</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>217</v>
+      </c>
+      <c r="K131" t="n">
+        <v>217</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>218</v>
+      </c>
+      <c r="C132" t="n">
+        <v>218</v>
+      </c>
+      <c r="D132" t="n">
+        <v>218</v>
+      </c>
+      <c r="E132" t="n">
+        <v>218</v>
+      </c>
+      <c r="F132" t="n">
+        <v>538</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1117617.562184404</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>218</v>
+      </c>
+      <c r="K132" t="n">
+        <v>217</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>218</v>
+      </c>
+      <c r="C133" t="n">
+        <v>218</v>
+      </c>
+      <c r="D133" t="n">
+        <v>218</v>
+      </c>
+      <c r="E133" t="n">
+        <v>218</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1018</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1117617.562184404</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>218</v>
+      </c>
+      <c r="K133" t="n">
+        <v>217</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>218</v>
+      </c>
+      <c r="C134" t="n">
+        <v>217</v>
+      </c>
+      <c r="D134" t="n">
+        <v>218</v>
+      </c>
+      <c r="E134" t="n">
+        <v>217</v>
+      </c>
+      <c r="F134" t="n">
+        <v>2267.4445</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1115350.117684404</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>218</v>
+      </c>
+      <c r="K134" t="n">
+        <v>217</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>219</v>
+      </c>
+      <c r="C135" t="n">
+        <v>219</v>
+      </c>
+      <c r="D135" t="n">
+        <v>219</v>
+      </c>
+      <c r="E135" t="n">
+        <v>219</v>
+      </c>
+      <c r="F135" t="n">
+        <v>2</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1115352.117684404</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>217</v>
+      </c>
+      <c r="K135" t="n">
+        <v>217</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>218</v>
+      </c>
+      <c r="C136" t="n">
+        <v>218</v>
+      </c>
+      <c r="D136" t="n">
+        <v>218</v>
+      </c>
+      <c r="E136" t="n">
+        <v>218</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2086.2856</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1113265.832084404</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>217</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>220</v>
+      </c>
+      <c r="C137" t="n">
+        <v>220</v>
+      </c>
+      <c r="D137" t="n">
+        <v>220</v>
+      </c>
+      <c r="E137" t="n">
+        <v>220</v>
+      </c>
+      <c r="F137" t="n">
+        <v>100</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1113365.832084404</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>217</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>218</v>
+      </c>
+      <c r="C138" t="n">
+        <v>218</v>
+      </c>
+      <c r="D138" t="n">
+        <v>218</v>
+      </c>
+      <c r="E138" t="n">
+        <v>218</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1244</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1112121.832084404</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>217</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>218</v>
+      </c>
+      <c r="C139" t="n">
+        <v>218</v>
+      </c>
+      <c r="D139" t="n">
+        <v>218</v>
+      </c>
+      <c r="E139" t="n">
+        <v>218</v>
+      </c>
+      <c r="F139" t="n">
+        <v>815.9517</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1112121.832084404</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>217</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>218</v>
+      </c>
+      <c r="C140" t="n">
+        <v>218</v>
+      </c>
+      <c r="D140" t="n">
+        <v>218</v>
+      </c>
+      <c r="E140" t="n">
+        <v>218</v>
+      </c>
+      <c r="F140" t="n">
+        <v>533</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1112121.832084404</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>217</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>218</v>
+      </c>
+      <c r="C141" t="n">
+        <v>218</v>
+      </c>
+      <c r="D141" t="n">
+        <v>218</v>
+      </c>
+      <c r="E141" t="n">
+        <v>218</v>
+      </c>
+      <c r="F141" t="n">
+        <v>648</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1112121.832084404</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>217</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>220</v>
+      </c>
+      <c r="C142" t="n">
+        <v>220</v>
+      </c>
+      <c r="D142" t="n">
+        <v>220</v>
+      </c>
+      <c r="E142" t="n">
+        <v>220</v>
+      </c>
+      <c r="F142" t="n">
+        <v>2</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1112123.832084404</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>217</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>218</v>
+      </c>
+      <c r="C143" t="n">
+        <v>218</v>
+      </c>
+      <c r="D143" t="n">
+        <v>218</v>
+      </c>
+      <c r="E143" t="n">
+        <v>218</v>
+      </c>
+      <c r="F143" t="n">
+        <v>225.9226</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1111897.909484404</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>217</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>218</v>
+      </c>
+      <c r="C144" t="n">
+        <v>218</v>
+      </c>
+      <c r="D144" t="n">
+        <v>218</v>
+      </c>
+      <c r="E144" t="n">
+        <v>218</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1818</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1111897.909484404</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>217</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>220</v>
+      </c>
+      <c r="C145" t="n">
+        <v>220</v>
+      </c>
+      <c r="D145" t="n">
+        <v>220</v>
+      </c>
+      <c r="E145" t="n">
+        <v>220</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2</v>
+      </c>
+      <c r="G145" t="n">
+        <v>1111899.909484404</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>217</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>218</v>
+      </c>
+      <c r="C146" t="n">
+        <v>218</v>
+      </c>
+      <c r="D146" t="n">
+        <v>218</v>
+      </c>
+      <c r="E146" t="n">
+        <v>218</v>
+      </c>
+      <c r="F146" t="n">
+        <v>408.3498</v>
+      </c>
+      <c r="G146" t="n">
+        <v>1111491.559684404</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>217</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>219</v>
+      </c>
+      <c r="C147" t="n">
+        <v>219</v>
+      </c>
+      <c r="D147" t="n">
+        <v>219</v>
+      </c>
+      <c r="E147" t="n">
+        <v>219</v>
+      </c>
+      <c r="F147" t="n">
+        <v>363.6653</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1111855.224984404</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>217</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>219</v>
+      </c>
+      <c r="C148" t="n">
+        <v>220</v>
+      </c>
+      <c r="D148" t="n">
+        <v>220</v>
+      </c>
+      <c r="E148" t="n">
+        <v>219</v>
+      </c>
+      <c r="F148" t="n">
+        <v>3824.355</v>
+      </c>
+      <c r="G148" t="n">
+        <v>1115679.579984404</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>217</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>220</v>
+      </c>
+      <c r="C149" t="n">
+        <v>220</v>
+      </c>
+      <c r="D149" t="n">
+        <v>220</v>
+      </c>
+      <c r="E149" t="n">
+        <v>219</v>
+      </c>
+      <c r="F149" t="n">
+        <v>17714.203</v>
+      </c>
+      <c r="G149" t="n">
+        <v>1115679.579984404</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>217</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>219</v>
+      </c>
+      <c r="C150" t="n">
+        <v>219</v>
+      </c>
+      <c r="D150" t="n">
+        <v>219</v>
+      </c>
+      <c r="E150" t="n">
+        <v>219</v>
+      </c>
+      <c r="F150" t="n">
+        <v>312.8253</v>
+      </c>
+      <c r="G150" t="n">
+        <v>1115366.754684404</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>217</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>219</v>
+      </c>
+      <c r="C151" t="n">
+        <v>219</v>
+      </c>
+      <c r="D151" t="n">
+        <v>219</v>
+      </c>
+      <c r="E151" t="n">
+        <v>219</v>
+      </c>
+      <c r="F151" t="n">
+        <v>466</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1115366.754684404</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>217</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>219</v>
+      </c>
+      <c r="C152" t="n">
+        <v>219</v>
+      </c>
+      <c r="D152" t="n">
+        <v>219</v>
+      </c>
+      <c r="E152" t="n">
+        <v>219</v>
+      </c>
+      <c r="F152" t="n">
+        <v>296.9336</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1115366.754684404</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>217</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>219</v>
+      </c>
+      <c r="C153" t="n">
+        <v>219</v>
+      </c>
+      <c r="D153" t="n">
+        <v>219</v>
+      </c>
+      <c r="E153" t="n">
+        <v>219</v>
+      </c>
+      <c r="F153" t="n">
+        <v>188.3432</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1115366.754684404</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>217</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>219</v>
+      </c>
+      <c r="C154" t="n">
+        <v>219</v>
+      </c>
+      <c r="D154" t="n">
+        <v>219</v>
+      </c>
+      <c r="E154" t="n">
+        <v>219</v>
+      </c>
+      <c r="F154" t="n">
+        <v>159.2864</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1115366.754684404</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>217</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>220</v>
+      </c>
+      <c r="C155" t="n">
+        <v>220</v>
+      </c>
+      <c r="D155" t="n">
+        <v>220</v>
+      </c>
+      <c r="E155" t="n">
+        <v>220</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1850</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1117216.754684404</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>217</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>220</v>
+      </c>
+      <c r="C156" t="n">
+        <v>221</v>
+      </c>
+      <c r="D156" t="n">
+        <v>221</v>
+      </c>
+      <c r="E156" t="n">
+        <v>220</v>
+      </c>
+      <c r="F156" t="n">
+        <v>7446.9128</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1124663.667484404</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>217</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>221</v>
+      </c>
+      <c r="C157" t="n">
+        <v>221</v>
+      </c>
+      <c r="D157" t="n">
         <v>222</v>
       </c>
-      <c r="C104" t="n">
+      <c r="E157" t="n">
+        <v>221</v>
+      </c>
+      <c r="F157" t="n">
+        <v>637</v>
+      </c>
+      <c r="G157" t="n">
+        <v>1124663.667484404</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>217</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
         <v>222</v>
       </c>
-      <c r="D104" t="n">
+      <c r="C158" t="n">
+        <v>226</v>
+      </c>
+      <c r="D158" t="n">
+        <v>227</v>
+      </c>
+      <c r="E158" t="n">
+        <v>222</v>
+      </c>
+      <c r="F158" t="n">
+        <v>55597.9253</v>
+      </c>
+      <c r="G158" t="n">
+        <v>1180261.592784404</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>217</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>224</v>
+      </c>
+      <c r="C159" t="n">
         <v>223</v>
       </c>
-      <c r="E104" t="n">
+      <c r="D159" t="n">
+        <v>224</v>
+      </c>
+      <c r="E159" t="n">
         <v>222</v>
       </c>
-      <c r="F104" t="n">
+      <c r="F159" t="n">
+        <v>1859.9999</v>
+      </c>
+      <c r="G159" t="n">
+        <v>1178401.592884404</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>217</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>222</v>
+      </c>
+      <c r="C160" t="n">
+        <v>225</v>
+      </c>
+      <c r="D160" t="n">
+        <v>225</v>
+      </c>
+      <c r="E160" t="n">
+        <v>222</v>
+      </c>
+      <c r="F160" t="n">
+        <v>559.3546</v>
+      </c>
+      <c r="G160" t="n">
+        <v>1178960.947484404</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>217</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>224</v>
+      </c>
+      <c r="C161" t="n">
+        <v>225</v>
+      </c>
+      <c r="D161" t="n">
+        <v>225</v>
+      </c>
+      <c r="E161" t="n">
+        <v>224</v>
+      </c>
+      <c r="F161" t="n">
+        <v>242</v>
+      </c>
+      <c r="G161" t="n">
+        <v>1178960.947484404</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>217</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>223</v>
+      </c>
+      <c r="C162" t="n">
+        <v>223</v>
+      </c>
+      <c r="D162" t="n">
+        <v>223</v>
+      </c>
+      <c r="E162" t="n">
+        <v>223</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1056.7978</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1177904.149684404</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>217</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>223</v>
+      </c>
+      <c r="C163" t="n">
+        <v>223</v>
+      </c>
+      <c r="D163" t="n">
+        <v>223</v>
+      </c>
+      <c r="E163" t="n">
+        <v>223</v>
+      </c>
+      <c r="F163" t="n">
+        <v>175.6057</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1177904.149684404</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>217</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>224</v>
+      </c>
+      <c r="C164" t="n">
+        <v>223</v>
+      </c>
+      <c r="D164" t="n">
+        <v>224</v>
+      </c>
+      <c r="E164" t="n">
+        <v>223</v>
+      </c>
+      <c r="F164" t="n">
+        <v>958.2474</v>
+      </c>
+      <c r="G164" t="n">
+        <v>1177904.149684404</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>217</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>225</v>
+      </c>
+      <c r="C165" t="n">
+        <v>224</v>
+      </c>
+      <c r="D165" t="n">
+        <v>226</v>
+      </c>
+      <c r="E165" t="n">
+        <v>224</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1067.6592</v>
+      </c>
+      <c r="G165" t="n">
+        <v>1178971.808884404</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>217</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1.027258064516129</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>223</v>
+      </c>
+      <c r="C166" t="n">
+        <v>222</v>
+      </c>
+      <c r="D166" t="n">
+        <v>223</v>
+      </c>
+      <c r="E166" t="n">
+        <v>222</v>
+      </c>
+      <c r="F166" t="n">
+        <v>3336.35</v>
+      </c>
+      <c r="G166" t="n">
+        <v>1175635.458884404</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>225</v>
+      </c>
+      <c r="C167" t="n">
+        <v>226</v>
+      </c>
+      <c r="D167" t="n">
+        <v>226</v>
+      </c>
+      <c r="E167" t="n">
+        <v>225</v>
+      </c>
+      <c r="F167" t="n">
+        <v>162</v>
+      </c>
+      <c r="G167" t="n">
+        <v>1175797.458884404</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>225</v>
+      </c>
+      <c r="C168" t="n">
+        <v>224</v>
+      </c>
+      <c r="D168" t="n">
+        <v>225</v>
+      </c>
+      <c r="E168" t="n">
+        <v>224</v>
+      </c>
+      <c r="F168" t="n">
+        <v>344</v>
+      </c>
+      <c r="G168" t="n">
+        <v>1175453.458884404</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>222</v>
+      </c>
+      <c r="C169" t="n">
+        <v>222</v>
+      </c>
+      <c r="D169" t="n">
+        <v>222</v>
+      </c>
+      <c r="E169" t="n">
+        <v>222</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1811.2245</v>
+      </c>
+      <c r="G169" t="n">
+        <v>1173642.234384404</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>223</v>
+      </c>
+      <c r="C170" t="n">
+        <v>222</v>
+      </c>
+      <c r="D170" t="n">
+        <v>223</v>
+      </c>
+      <c r="E170" t="n">
+        <v>222</v>
+      </c>
+      <c r="F170" t="n">
+        <v>2018.9561</v>
+      </c>
+      <c r="G170" t="n">
+        <v>1173642.234384404</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>224</v>
+      </c>
+      <c r="C171" t="n">
+        <v>224</v>
+      </c>
+      <c r="D171" t="n">
+        <v>224</v>
+      </c>
+      <c r="E171" t="n">
+        <v>224</v>
+      </c>
+      <c r="F171" t="n">
+        <v>56.6444</v>
+      </c>
+      <c r="G171" t="n">
+        <v>1173698.878784404</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>223</v>
+      </c>
+      <c r="C172" t="n">
+        <v>223</v>
+      </c>
+      <c r="D172" t="n">
+        <v>223</v>
+      </c>
+      <c r="E172" t="n">
+        <v>223</v>
+      </c>
+      <c r="F172" t="n">
+        <v>3276.4977</v>
+      </c>
+      <c r="G172" t="n">
+        <v>1170422.381084404</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>223</v>
+      </c>
+      <c r="C173" t="n">
+        <v>223</v>
+      </c>
+      <c r="D173" t="n">
+        <v>223</v>
+      </c>
+      <c r="E173" t="n">
+        <v>223</v>
+      </c>
+      <c r="F173" t="n">
+        <v>3363.6412</v>
+      </c>
+      <c r="G173" t="n">
+        <v>1170422.381084404</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>223</v>
+      </c>
+      <c r="C174" t="n">
+        <v>222</v>
+      </c>
+      <c r="D174" t="n">
+        <v>223</v>
+      </c>
+      <c r="E174" t="n">
+        <v>222</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1224.49</v>
+      </c>
+      <c r="G174" t="n">
+        <v>1169197.891084404</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>222</v>
+      </c>
+      <c r="C175" t="n">
+        <v>222</v>
+      </c>
+      <c r="D175" t="n">
+        <v>223</v>
+      </c>
+      <c r="E175" t="n">
+        <v>222</v>
+      </c>
+      <c r="F175" t="n">
         <v>2155.8483</v>
       </c>
-      <c r="G104" t="n">
+      <c r="G175" t="n">
         <v>1169197.891084404</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>1</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-19 BackTest KNC.xlsx
+++ b/BackTest/2019-10-19 BackTest KNC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N175"/>
+  <dimension ref="A1:M175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,22 +517,15 @@
         <v>279336.188</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>217</v>
-      </c>
-      <c r="K4" t="n">
-        <v>217</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,22 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>217</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -610,26 +583,15 @@
         <v>279336.188</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>217</v>
-      </c>
-      <c r="K6" t="n">
-        <v>217</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -654,26 +616,15 @@
         <v>1179795.4473</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>217</v>
-      </c>
-      <c r="K7" t="n">
-        <v>217</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -698,26 +649,15 @@
         <v>1179795.4473</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>218</v>
-      </c>
-      <c r="K8" t="n">
-        <v>217</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -744,22 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>217</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -786,22 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>217</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -828,22 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>217</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -870,22 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>217</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -912,22 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>217</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -954,22 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>217</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -996,22 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>217</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1038,22 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>217</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1080,22 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>217</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1122,22 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>217</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1164,22 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>217</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1206,22 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>217</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1248,22 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>217</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1290,22 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>217</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1332,22 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>217</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1374,22 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>217</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1416,22 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>217</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1458,22 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>217</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1500,22 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>217</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1542,22 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>217</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1584,22 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>217</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1626,22 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>217</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1668,22 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>217</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1710,22 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>217</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1752,22 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>217</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1794,22 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>217</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1836,22 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>217</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1878,22 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>217</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1920,22 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>217</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1962,22 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>217</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2004,22 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>217</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2046,22 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>217</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2088,22 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>217</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2130,22 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>217</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2172,22 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>217</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2214,22 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>217</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2256,22 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>217</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2298,22 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>217</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2340,22 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>217</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2380,26 +1969,15 @@
         <v>1145258.0156</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>218</v>
-      </c>
-      <c r="K48" t="n">
-        <v>217</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2426,22 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>217</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2468,22 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>217</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2510,22 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>217</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2552,22 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>217</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2594,22 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>217</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2636,22 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>217</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2678,22 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>217</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2720,22 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>217</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2762,22 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>217</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2804,22 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>217</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2846,22 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>217</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2888,22 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>217</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2930,22 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>217</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2972,22 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>217</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3014,22 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>217</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3056,22 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>217</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3098,22 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>217</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3140,22 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>217</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3182,22 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>217</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3224,22 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>217</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3266,22 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>217</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3308,22 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>217</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3350,22 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>217</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3392,22 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>217</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3434,22 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>217</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3474,26 +2827,15 @@
         <v>1128549.919884404</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>217</v>
-      </c>
-      <c r="K74" t="n">
-        <v>217</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3518,26 +2860,15 @@
         <v>1128676.966784404</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>216</v>
-      </c>
-      <c r="K75" t="n">
-        <v>217</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3564,22 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>217</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3604,26 +2926,15 @@
         <v>1127490.788284404</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>217</v>
-      </c>
-      <c r="K77" t="n">
-        <v>217</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3648,26 +2959,19 @@
         <v>1127490.788284404</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="J78" t="n">
         <v>216</v>
       </c>
-      <c r="K78" t="n">
-        <v>217</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3692,26 +2996,23 @@
         <v>1130510.788284404</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="J79" t="n">
         <v>216</v>
       </c>
-      <c r="K79" t="n">
-        <v>217</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3736,26 +3037,23 @@
         <v>1128510.788284404</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="J80" t="n">
-        <v>217</v>
-      </c>
-      <c r="K80" t="n">
-        <v>217</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+        <v>216</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3780,26 +3078,15 @@
         <v>1128510.788284404</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>216</v>
-      </c>
-      <c r="K81" t="n">
-        <v>217</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3824,26 +3111,19 @@
         <v>1128510.788284404</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="J82" t="n">
         <v>216</v>
       </c>
-      <c r="K82" t="n">
-        <v>217</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3868,26 +3148,21 @@
         <v>1128510.788284404</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
         <v>216</v>
       </c>
-      <c r="K83" t="n">
-        <v>217</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3912,26 +3187,23 @@
         <v>1128510.788284404</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="J84" t="n">
         <v>216</v>
       </c>
-      <c r="K84" t="n">
-        <v>217</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3956,26 +3228,15 @@
         <v>1128510.788284404</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
-        <v>216</v>
-      </c>
-      <c r="K85" t="n">
-        <v>217</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4000,26 +3261,15 @@
         <v>1129313.209784404</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>216</v>
-      </c>
-      <c r="K86" t="n">
-        <v>217</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4044,26 +3294,19 @@
         <v>1129037.209884404</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="J87" t="n">
         <v>218</v>
       </c>
-      <c r="K87" t="n">
-        <v>217</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4088,26 +3331,21 @@
         <v>1129039.209884404</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>216</v>
-      </c>
-      <c r="K88" t="n">
-        <v>217</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+        <v>218</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4134,22 +3372,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>217</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>218</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4176,22 +3411,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>217</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>218</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4218,22 +3450,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>217</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>218</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4260,22 +3489,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>217</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>218</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4302,22 +3528,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>217</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>218</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4344,22 +3567,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>217</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>218</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4386,22 +3606,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>217</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>218</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4428,22 +3645,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>217</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>218</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4470,22 +3684,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>217</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>218</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4512,22 +3723,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>217</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>218</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4554,22 +3762,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>217</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>218</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4596,22 +3801,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>217</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>218</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4638,22 +3840,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>217</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>218</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4680,22 +3879,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>217</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>218</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4722,22 +3918,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>217</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>218</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4764,22 +3957,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>217</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>218</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4806,22 +3996,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>217</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>218</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4848,22 +4035,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>217</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>218</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4890,22 +4074,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>217</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>218</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4932,22 +4113,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>217</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>218</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4974,22 +4152,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>217</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>218</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -5016,22 +4191,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>217</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>218</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5058,22 +4230,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>217</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>218</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5100,22 +4269,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>217</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>218</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5142,22 +4308,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>217</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>218</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5184,22 +4347,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>217</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>218</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5226,22 +4386,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>217</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>218</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5268,22 +4425,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>217</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>218</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5310,22 +4464,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>217</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>218</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5352,22 +4503,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>217</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>218</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5394,22 +4542,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>217</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>218</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5436,22 +4581,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>217</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>218</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5478,22 +4620,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>217</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>218</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5518,26 +4657,21 @@
         <v>1114458.366384404</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>217</v>
-      </c>
-      <c r="K122" t="n">
-        <v>217</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+        <v>218</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5564,22 +4698,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>217</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>218</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5606,22 +4737,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>217</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>218</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5646,26 +4774,21 @@
         <v>1117224.353884404</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
         <v>218</v>
       </c>
-      <c r="K125" t="n">
-        <v>217</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5690,26 +4813,21 @@
         <v>1116316.628884404</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>219</v>
-      </c>
-      <c r="K126" t="n">
-        <v>217</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+        <v>218</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5734,26 +4852,21 @@
         <v>1116318.628884404</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>216</v>
-      </c>
-      <c r="K127" t="n">
-        <v>217</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+        <v>218</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5778,26 +4891,21 @@
         <v>1116318.628884404</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
         <v>218</v>
       </c>
-      <c r="K128" t="n">
-        <v>217</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5822,26 +4930,21 @@
         <v>1114620.562184404</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
         <v>218</v>
       </c>
-      <c r="K129" t="n">
-        <v>217</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5866,26 +4969,21 @@
         <v>1114620.562184404</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>217</v>
-      </c>
-      <c r="K130" t="n">
-        <v>217</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+        <v>218</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5910,26 +5008,21 @@
         <v>1117617.562184404</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>217</v>
-      </c>
-      <c r="K131" t="n">
-        <v>217</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+        <v>218</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5954,26 +5047,21 @@
         <v>1117617.562184404</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
         <v>218</v>
       </c>
-      <c r="K132" t="n">
-        <v>217</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5998,26 +5086,21 @@
         <v>1117617.562184404</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
         <v>218</v>
       </c>
-      <c r="K133" t="n">
-        <v>217</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -6042,26 +5125,21 @@
         <v>1115350.117684404</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
         <v>218</v>
       </c>
-      <c r="K134" t="n">
-        <v>217</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -6086,26 +5164,21 @@
         <v>1115352.117684404</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>217</v>
-      </c>
-      <c r="K135" t="n">
-        <v>217</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+        <v>218</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -6132,22 +5205,19 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>217</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>218</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -6174,22 +5244,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>217</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>218</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -6216,22 +5283,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>217</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>218</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6258,22 +5322,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>217</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>218</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6300,22 +5361,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>217</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>218</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6342,22 +5400,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>217</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>218</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6384,22 +5439,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>217</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>218</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6426,22 +5478,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>217</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>218</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6468,22 +5517,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>217</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>218</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6510,22 +5556,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>217</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>218</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6552,22 +5595,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>217</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>218</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6594,22 +5634,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>217</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>218</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6636,22 +5673,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>217</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>218</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6678,22 +5712,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>217</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>218</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6720,22 +5751,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>217</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>218</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6762,22 +5790,19 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>217</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>218</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6804,22 +5829,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>217</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>218</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6846,22 +5868,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>217</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>218</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6888,22 +5907,19 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>217</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>218</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6930,22 +5946,19 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>217</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>218</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6972,22 +5985,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>217</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>218</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -7014,22 +6024,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>217</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>218</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -7056,22 +6063,19 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>217</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>218</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -7098,22 +6102,19 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>217</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>218</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -7140,22 +6141,19 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>217</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>218</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -7182,22 +6180,19 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>217</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>218</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -7224,22 +6219,19 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>217</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>218</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -7264,24 +6256,21 @@
         <v>1177904.149684404</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>217</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>218</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -7308,22 +6297,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>217</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>218</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7350,22 +6336,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>1</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>217</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1.027258064516129</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>218</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7390,18 +6373,21 @@
         <v>1175635.458884404</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>1</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>218</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7426,18 +6412,21 @@
         <v>1175797.458884404</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>218</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1.031697247706422</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7462,18 +6451,15 @@
         <v>1175453.458884404</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7498,18 +6484,15 @@
         <v>1173642.234384404</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7534,18 +6517,15 @@
         <v>1173642.234384404</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7570,18 +6550,15 @@
         <v>1173698.878784404</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7608,16 +6585,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>1</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7642,18 +6616,15 @@
         <v>1170422.381084404</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7678,18 +6649,15 @@
         <v>1169197.891084404</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7714,20 +6682,17 @@
         <v>1169197.891084404</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest KNC.xlsx
+++ b/BackTest/2019-10-19 BackTest KNC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>279336.188</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>279336.188</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>217</v>
+      </c>
+      <c r="J3" t="n">
+        <v>217</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>279336.188</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>217</v>
+      </c>
+      <c r="J4" t="n">
+        <v>217</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -553,8 +565,14 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>217</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +601,14 @@
         <v>279336.188</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>217</v>
+      </c>
+      <c r="J6" t="n">
+        <v>217</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +638,19 @@
         <v>1179795.4473</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>217</v>
+      </c>
+      <c r="J7" t="n">
+        <v>217</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +679,19 @@
         <v>1179795.4473</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>218</v>
+      </c>
+      <c r="J8" t="n">
+        <v>217</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -685,8 +723,14 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>217</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -718,8 +762,14 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>217</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -751,8 +801,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>217</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -784,8 +840,14 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>217</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -817,8 +879,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>217</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -850,8 +918,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>217</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +957,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>217</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -916,8 +996,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>217</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -949,8 +1035,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>217</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1074,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>217</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1113,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>217</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1152,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>217</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1191,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>217</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1230,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>217</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1269,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>217</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1308,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>217</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1347,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>217</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1386,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>217</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1425,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>217</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1464,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>217</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1503,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>217</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1542,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>217</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1581,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>217</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1620,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>217</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1659,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>217</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1698,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>217</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1737,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>217</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1776,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>217</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1815,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>217</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1854,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>217</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1893,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>217</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1932,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>217</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1971,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>217</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +2010,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>217</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +2049,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>217</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +2088,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>217</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +2127,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>217</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +2166,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>217</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2205,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>217</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2244,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>217</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2283,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>217</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2322,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>217</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2361,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>217</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2400,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>217</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2439,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>217</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2478,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>217</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2517,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>217</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2556,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>217</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,13 +2592,19 @@
         <v>1144188.6616</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>217</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L57" t="n">
-        <v>1</v>
+        <v>1.004216589861751</v>
       </c>
       <c r="M57" t="inlineStr"/>
     </row>
@@ -2299,7 +2631,7 @@
         <v>1144188.6616</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2664,7 @@
         <v>1144188.6616</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2697,7 @@
         <v>1144188.6616</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2730,7 @@
         <v>1144188.6616</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2763,7 @@
         <v>1144188.6616</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2796,7 @@
         <v>1144188.6616</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2829,7 @@
         <v>1144188.6616</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2862,7 @@
         <v>1143700.7385</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2895,7 @@
         <v>1144193.6622</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2928,7 @@
         <v>1144193.6622</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2961,7 @@
         <v>1137330.1302</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2994,7 @@
         <v>1137433.5031</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +3027,7 @@
         <v>1137434.5031</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +3060,7 @@
         <v>1129227.1967</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2827,7 +3159,7 @@
         <v>1128549.919884404</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2893,7 +3225,7 @@
         <v>1128676.966784404</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +3258,7 @@
         <v>1127490.788284404</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2961,12 +3293,8 @@
       <c r="H78" t="n">
         <v>2</v>
       </c>
-      <c r="I78" t="n">
-        <v>216</v>
-      </c>
-      <c r="J78" t="n">
-        <v>216</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
@@ -2998,17 +3326,9 @@
       <c r="H79" t="n">
         <v>2</v>
       </c>
-      <c r="I79" t="n">
-        <v>216</v>
-      </c>
-      <c r="J79" t="n">
-        <v>216</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3039,17 +3359,9 @@
       <c r="H80" t="n">
         <v>2</v>
       </c>
-      <c r="I80" t="n">
-        <v>217</v>
-      </c>
-      <c r="J80" t="n">
-        <v>216</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3078,7 +3390,7 @@
         <v>1128510.788284404</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3113,12 +3425,8 @@
       <c r="H82" t="n">
         <v>2</v>
       </c>
-      <c r="I82" t="n">
-        <v>216</v>
-      </c>
-      <c r="J82" t="n">
-        <v>216</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
@@ -3148,17 +3456,11 @@
         <v>1128510.788284404</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>216</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3187,19 +3489,11 @@
         <v>1128510.788284404</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
-      </c>
-      <c r="I84" t="n">
-        <v>216</v>
-      </c>
-      <c r="J84" t="n">
-        <v>216</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3294,14 +3588,10 @@
         <v>1129037.209884404</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
-      </c>
-      <c r="I87" t="n">
-        <v>218</v>
-      </c>
-      <c r="J87" t="n">
-        <v>218</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
@@ -3334,14 +3624,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>218</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3373,14 +3657,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>218</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3412,14 +3690,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>218</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3451,14 +3723,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>218</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3487,17 +3753,11 @@
         <v>1121930.975184404</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>218</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3526,17 +3786,11 @@
         <v>1122099.806684404</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>218</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3565,17 +3819,11 @@
         <v>1122082.806684404</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>218</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3604,17 +3852,11 @@
         <v>1122083.806684404</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>218</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3643,17 +3885,11 @@
         <v>1121074.066784404</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>218</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3682,17 +3918,11 @@
         <v>1121074.066784404</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>218</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3721,17 +3951,11 @@
         <v>1121074.066784404</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>218</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3760,17 +3984,11 @@
         <v>1121074.066784404</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>218</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3802,14 +4020,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>218</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3841,14 +4053,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>218</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3880,14 +4086,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>218</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3919,14 +4119,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>218</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3958,14 +4152,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>218</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3997,14 +4185,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>218</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4033,17 +4215,11 @@
         <v>1117312.057184404</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>218</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4075,14 +4251,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>218</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4114,14 +4284,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>218</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4153,14 +4317,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>218</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4192,14 +4350,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>218</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4231,14 +4383,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>218</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4270,14 +4416,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>218</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4309,14 +4449,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>218</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4348,14 +4482,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>218</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4387,14 +4515,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>218</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4426,14 +4548,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>218</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4465,14 +4581,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>218</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4504,14 +4614,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>218</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4543,14 +4647,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>218</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4582,14 +4680,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>218</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4621,14 +4713,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>218</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4660,14 +4746,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>218</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4699,14 +4779,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>218</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4738,14 +4812,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>218</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4777,14 +4845,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>218</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4816,14 +4878,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>218</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4855,14 +4911,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>218</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4894,14 +4944,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>218</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4933,14 +4977,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>218</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4972,14 +5010,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>218</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5011,14 +5043,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>218</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5050,14 +5076,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>218</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5089,14 +5109,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>218</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5128,14 +5142,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>218</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5167,14 +5175,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>218</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5206,14 +5208,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>218</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5245,14 +5241,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>218</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5284,14 +5274,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>218</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5323,14 +5307,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>218</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5362,14 +5340,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>218</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5398,17 +5370,11 @@
         <v>1112121.832084404</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>218</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5437,17 +5403,11 @@
         <v>1112123.832084404</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>218</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5476,17 +5436,11 @@
         <v>1111897.909484404</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>218</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5515,17 +5469,11 @@
         <v>1111897.909484404</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>218</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5554,17 +5502,11 @@
         <v>1111899.909484404</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>218</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5593,17 +5535,11 @@
         <v>1111491.559684404</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>218</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5632,17 +5568,11 @@
         <v>1111855.224984404</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>218</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5671,17 +5601,11 @@
         <v>1115679.579984404</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>218</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5710,17 +5634,11 @@
         <v>1115679.579984404</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>218</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5749,17 +5667,11 @@
         <v>1115366.754684404</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>218</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5788,17 +5700,11 @@
         <v>1115366.754684404</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>218</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5827,17 +5733,11 @@
         <v>1115366.754684404</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>218</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5866,17 +5766,11 @@
         <v>1115366.754684404</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>218</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5905,17 +5799,11 @@
         <v>1115366.754684404</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>218</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5947,14 +5835,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>218</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5986,14 +5868,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>218</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6025,14 +5901,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>218</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6064,14 +5934,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>218</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6103,14 +5967,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>218</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6142,14 +6000,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>218</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6181,14 +6033,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>218</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6220,14 +6066,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>218</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6256,17 +6096,11 @@
         <v>1177904.149684404</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>218</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6298,14 +6132,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>218</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6337,14 +6165,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>218</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6373,17 +6195,11 @@
         <v>1175635.458884404</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>218</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6412,19 +6228,13 @@
         <v>1175797.458884404</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>218</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
-        <v>1.031697247706422</v>
+        <v>1</v>
       </c>
       <c r="M167" t="inlineStr"/>
     </row>
@@ -6451,7 +6261,7 @@
         <v>1175453.458884404</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6484,7 +6294,7 @@
         <v>1173642.234384404</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6517,7 +6327,7 @@
         <v>1173642.234384404</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6550,7 +6360,7 @@
         <v>1173698.878784404</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6616,7 +6426,7 @@
         <v>1170422.381084404</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6649,7 +6459,7 @@
         <v>1169197.891084404</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6682,7 +6492,7 @@
         <v>1169197.891084404</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6693,6 +6503,6 @@
       <c r="M175" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest KNC.xlsx
+++ b/BackTest/2019-10-19 BackTest KNC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>279336.188</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>279336.188</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>217</v>
-      </c>
-      <c r="J3" t="n">
-        <v>217</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>279336.188</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>217</v>
-      </c>
-      <c r="J4" t="n">
-        <v>217</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,17 +550,15 @@
         <v>279336.188</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>217</v>
+      </c>
       <c r="J5" t="n">
         <v>217</v>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -609,7 +595,11 @@
       <c r="J6" t="n">
         <v>217</v>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -638,11 +628,9 @@
         <v>1179795.4473</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>217</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
         <v>217</v>
       </c>
@@ -679,11 +667,9 @@
         <v>1179795.4473</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>218</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>217</v>
       </c>
@@ -2592,7 +2578,7 @@
         <v>1144188.6616</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
@@ -2600,11 +2586,11 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.004216589861751</v>
+        <v>1</v>
       </c>
       <c r="M57" t="inlineStr"/>
     </row>
@@ -2631,11 +2617,17 @@
         <v>1144188.6616</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>217</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2664,11 +2656,17 @@
         <v>1144188.6616</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>217</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2697,11 +2695,17 @@
         <v>1144188.6616</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>217</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2730,11 +2734,17 @@
         <v>1144188.6616</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>217</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2763,11 +2773,17 @@
         <v>1144188.6616</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>217</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2796,11 +2812,17 @@
         <v>1144188.6616</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>217</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2829,11 +2851,17 @@
         <v>1144188.6616</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>217</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2862,11 +2890,17 @@
         <v>1143700.7385</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>217</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2895,11 +2929,17 @@
         <v>1144193.6622</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>217</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2928,11 +2968,17 @@
         <v>1144193.6622</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>217</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2961,11 +3007,17 @@
         <v>1137330.1302</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>217</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2994,11 +3046,17 @@
         <v>1137433.5031</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>217</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3027,11 +3085,17 @@
         <v>1137434.5031</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>217</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3060,11 +3124,17 @@
         <v>1129227.1967</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>217</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3096,8 +3166,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>217</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3129,8 +3205,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>217</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3159,11 +3241,17 @@
         <v>1128549.919884404</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>217</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3195,8 +3283,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>217</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3225,11 +3319,17 @@
         <v>1128676.966784404</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>217</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3258,11 +3358,17 @@
         <v>1127490.788284404</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>217</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3291,11 +3397,17 @@
         <v>1127490.788284404</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>217</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3324,11 +3436,17 @@
         <v>1130510.788284404</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>217</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3357,11 +3475,17 @@
         <v>1128510.788284404</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>217</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3390,11 +3514,17 @@
         <v>1128510.788284404</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>217</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3423,11 +3553,17 @@
         <v>1128510.788284404</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>217</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3456,11 +3592,17 @@
         <v>1128510.788284404</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>217</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3492,8 +3634,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>217</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3525,8 +3673,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>217</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3558,8 +3712,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>217</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3591,8 +3751,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>217</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3624,8 +3790,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>217</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3657,8 +3829,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>217</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3690,8 +3868,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>217</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3723,8 +3907,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>217</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3753,11 +3943,17 @@
         <v>1121930.975184404</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>217</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3786,11 +3982,17 @@
         <v>1122099.806684404</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>217</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3819,11 +4021,17 @@
         <v>1122082.806684404</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>217</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3852,11 +4060,17 @@
         <v>1122083.806684404</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>217</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3885,11 +4099,17 @@
         <v>1121074.066784404</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>217</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3918,11 +4138,17 @@
         <v>1121074.066784404</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>217</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3951,11 +4177,17 @@
         <v>1121074.066784404</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>217</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3984,11 +4216,17 @@
         <v>1121074.066784404</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>217</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4020,8 +4258,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>217</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4053,8 +4297,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>217</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4086,8 +4336,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>217</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4119,8 +4375,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>217</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4152,8 +4414,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>217</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4185,8 +4453,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>217</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4215,11 +4489,17 @@
         <v>1117312.057184404</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>217</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4251,8 +4531,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>217</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4284,8 +4570,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>217</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4317,8 +4609,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>217</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4350,8 +4648,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>217</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4383,8 +4687,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>217</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4416,8 +4726,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>217</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4449,8 +4765,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>217</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4482,8 +4804,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>217</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4515,8 +4843,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>217</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4548,8 +4882,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>217</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4581,8 +4921,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>217</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4614,8 +4960,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>217</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4647,8 +4999,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>217</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4680,8 +5038,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>217</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4713,8 +5077,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>217</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4746,8 +5116,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>217</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4779,8 +5155,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>217</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4812,8 +5194,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>217</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4845,8 +5233,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>217</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4878,8 +5272,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>217</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4911,8 +5311,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>217</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4944,8 +5350,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>217</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4977,8 +5389,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>217</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5010,8 +5428,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>217</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5043,8 +5467,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>217</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5076,8 +5506,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>217</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5109,8 +5545,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>217</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5142,8 +5584,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>217</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5175,8 +5623,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>217</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5208,8 +5662,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>217</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5241,8 +5701,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>217</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5274,8 +5740,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>217</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5307,8 +5779,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>217</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5340,8 +5818,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>217</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5370,11 +5854,17 @@
         <v>1112121.832084404</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>217</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5403,11 +5893,17 @@
         <v>1112123.832084404</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>217</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5436,11 +5932,17 @@
         <v>1111897.909484404</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>217</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5469,11 +5971,17 @@
         <v>1111897.909484404</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>217</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5502,11 +6010,17 @@
         <v>1111899.909484404</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>217</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5535,11 +6049,17 @@
         <v>1111491.559684404</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>217</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5568,11 +6088,17 @@
         <v>1111855.224984404</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>217</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5601,11 +6127,17 @@
         <v>1115679.579984404</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>217</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5634,11 +6166,17 @@
         <v>1115679.579984404</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>217</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5667,11 +6205,17 @@
         <v>1115366.754684404</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>217</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5700,11 +6244,17 @@
         <v>1115366.754684404</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>217</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5733,11 +6283,17 @@
         <v>1115366.754684404</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>217</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5766,11 +6322,17 @@
         <v>1115366.754684404</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>217</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5799,11 +6361,17 @@
         <v>1115366.754684404</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>217</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5835,8 +6403,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>217</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5868,8 +6442,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>217</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5901,8 +6481,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>217</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5934,8 +6520,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>217</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5964,13 +6556,19 @@
         <v>1178401.592884404</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>217</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L159" t="n">
-        <v>1</v>
+        <v>1.022649769585254</v>
       </c>
       <c r="M159" t="inlineStr"/>
     </row>
@@ -5997,7 +6595,7 @@
         <v>1178960.947484404</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6030,7 +6628,7 @@
         <v>1178960.947484404</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6162,7 +6760,7 @@
         <v>1178971.808884404</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6195,7 +6793,7 @@
         <v>1175635.458884404</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6228,7 +6826,7 @@
         <v>1175797.458884404</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6261,7 +6859,7 @@
         <v>1175453.458884404</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6294,7 +6892,7 @@
         <v>1173642.234384404</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6393,7 +6991,7 @@
         <v>1170422.381084404</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6459,7 +7057,7 @@
         <v>1169197.891084404</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6492,7 +7090,7 @@
         <v>1169197.891084404</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6503,6 +7101,6 @@
       <c r="M175" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest KNC.xlsx
+++ b/BackTest/2019-10-19 BackTest KNC.xlsx
@@ -451,7 +451,7 @@
         <v>279336.188</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>279336.188</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>217</v>
+      </c>
+      <c r="J3" t="n">
+        <v>217</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>279336.188</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>217</v>
+      </c>
+      <c r="J4" t="n">
+        <v>217</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -558,7 +570,11 @@
       <c r="J5" t="n">
         <v>217</v>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -595,11 +611,7 @@
       <c r="J6" t="n">
         <v>217</v>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -628,9 +640,11 @@
         <v>1179795.4473</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>217</v>
+      </c>
       <c r="J7" t="n">
         <v>217</v>
       </c>
@@ -667,9 +681,11 @@
         <v>1179795.4473</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>218</v>
+      </c>
       <c r="J8" t="n">
         <v>217</v>
       </c>
@@ -6556,7 +6572,7 @@
         <v>1178401.592884404</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
@@ -6564,11 +6580,11 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L159" t="n">
-        <v>1.022649769585254</v>
+        <v>1</v>
       </c>
       <c r="M159" t="inlineStr"/>
     </row>
@@ -6595,11 +6611,17 @@
         <v>1178960.947484404</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>217</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6628,11 +6650,17 @@
         <v>1178960.947484404</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>217</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6664,8 +6692,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>217</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6697,8 +6731,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>217</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6730,8 +6770,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>217</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6760,11 +6806,17 @@
         <v>1178971.808884404</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>217</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6793,11 +6845,17 @@
         <v>1175635.458884404</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>217</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6826,11 +6884,17 @@
         <v>1175797.458884404</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>217</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6862,10 +6926,16 @@
         <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>217</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L168" t="n">
-        <v>1</v>
+        <v>1.027258064516129</v>
       </c>
       <c r="M168" t="inlineStr"/>
     </row>
@@ -6958,7 +7028,7 @@
         <v>1173698.878784404</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6991,7 +7061,7 @@
         <v>1170422.381084404</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>

--- a/BackTest/2019-10-19 BackTest KNC.xlsx
+++ b/BackTest/2019-10-19 BackTest KNC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M175"/>
+  <dimension ref="A1:L175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>1848363.5544</v>
       </c>
       <c r="G2" t="n">
-        <v>279336.188</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,15 @@
         <v>2205000</v>
       </c>
       <c r="G3" t="n">
-        <v>279336.188</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>217</v>
-      </c>
-      <c r="J3" t="n">
-        <v>217</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +503,15 @@
         <v>2052000</v>
       </c>
       <c r="G4" t="n">
-        <v>279336.188</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>217</v>
-      </c>
-      <c r="J4" t="n">
-        <v>217</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +533,15 @@
         <v>1547107.7817</v>
       </c>
       <c r="G5" t="n">
-        <v>279336.188</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>217</v>
-      </c>
-      <c r="J5" t="n">
-        <v>217</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,22 +563,19 @@
         <v>870233.6631</v>
       </c>
       <c r="G6" t="n">
-        <v>279336.188</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>217</v>
       </c>
       <c r="I6" t="n">
         <v>217</v>
       </c>
-      <c r="J6" t="n">
-        <v>217</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,26 +597,23 @@
         <v>900459.2593</v>
       </c>
       <c r="G7" t="n">
-        <v>1179795.4473</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>217</v>
       </c>
       <c r="I7" t="n">
         <v>217</v>
       </c>
-      <c r="J7" t="n">
-        <v>217</v>
-      </c>
-      <c r="K7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -678,26 +635,23 @@
         <v>2961740.7407</v>
       </c>
       <c r="G8" t="n">
-        <v>1179795.4473</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>218</v>
       </c>
       <c r="I8" t="n">
-        <v>218</v>
-      </c>
-      <c r="J8" t="n">
-        <v>217</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>217</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -719,24 +673,21 @@
         <v>2850957</v>
       </c>
       <c r="G9" t="n">
-        <v>1179795.4473</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>217</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>217</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -758,24 +709,21 @@
         <v>1280660.916</v>
       </c>
       <c r="G10" t="n">
-        <v>1179795.4473</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>217</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>217</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -797,24 +745,21 @@
         <v>438227.875</v>
       </c>
       <c r="G11" t="n">
-        <v>1179795.4473</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>217</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>217</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -836,24 +781,21 @@
         <v>630612.2632</v>
       </c>
       <c r="G12" t="n">
-        <v>1179795.4473</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>217</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>217</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -875,24 +817,21 @@
         <v>59218.125</v>
       </c>
       <c r="G13" t="n">
-        <v>1179795.4473</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>217</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>217</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -914,24 +853,21 @@
         <v>3269.6953</v>
       </c>
       <c r="G14" t="n">
-        <v>1183065.1426</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>217</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>217</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -953,24 +889,21 @@
         <v>225.059</v>
       </c>
       <c r="G15" t="n">
-        <v>1182840.0836</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>217</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>217</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -992,24 +925,21 @@
         <v>2669.5072</v>
       </c>
       <c r="G16" t="n">
-        <v>1182840.0836</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>217</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>217</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1031,24 +961,21 @@
         <v>2609.8938</v>
       </c>
       <c r="G17" t="n">
-        <v>1180230.1898</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>217</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>217</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1070,24 +997,21 @@
         <v>1292</v>
       </c>
       <c r="G18" t="n">
-        <v>1181522.1898</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>217</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>217</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1109,24 +1033,21 @@
         <v>6664.6387</v>
       </c>
       <c r="G19" t="n">
-        <v>1174857.5511</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>217</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>217</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1148,24 +1069,21 @@
         <v>426.8874</v>
       </c>
       <c r="G20" t="n">
-        <v>1174857.5511</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>217</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>217</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1187,24 +1105,21 @@
         <v>3808.0482</v>
       </c>
       <c r="G21" t="n">
-        <v>1174857.5511</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>217</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>217</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1226,24 +1141,21 @@
         <v>189.2608</v>
       </c>
       <c r="G22" t="n">
-        <v>1175046.8119</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>217</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>217</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1265,24 +1177,21 @@
         <v>4638.0274</v>
       </c>
       <c r="G23" t="n">
-        <v>1170408.7845</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>217</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>217</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1304,24 +1213,21 @@
         <v>1668.5166</v>
       </c>
       <c r="G24" t="n">
-        <v>1172077.3011</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>217</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>217</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1343,24 +1249,21 @@
         <v>11016.8521</v>
       </c>
       <c r="G25" t="n">
-        <v>1161060.449</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>217</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>217</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1382,24 +1285,21 @@
         <v>902.1856</v>
       </c>
       <c r="G26" t="n">
-        <v>1161962.6346</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>217</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>217</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1421,24 +1321,21 @@
         <v>107.381</v>
       </c>
       <c r="G27" t="n">
-        <v>1162070.0156</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>217</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>217</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1460,24 +1357,21 @@
         <v>610.7386</v>
       </c>
       <c r="G28" t="n">
-        <v>1162070.0156</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>217</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>217</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1499,24 +1393,21 @@
         <v>107.381</v>
       </c>
       <c r="G29" t="n">
-        <v>1162070.0156</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>217</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>217</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1538,24 +1429,21 @@
         <v>251</v>
       </c>
       <c r="G30" t="n">
-        <v>1162070.0156</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>217</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>217</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1577,24 +1465,21 @@
         <v>23.4797</v>
       </c>
       <c r="G31" t="n">
-        <v>1162070.0156</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>217</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>217</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1616,24 +1501,21 @@
         <v>118.6894</v>
       </c>
       <c r="G32" t="n">
-        <v>1162070.0156</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>217</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>217</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1655,24 +1537,21 @@
         <v>282.9538</v>
       </c>
       <c r="G33" t="n">
-        <v>1162070.0156</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>217</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>217</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1694,24 +1573,21 @@
         <v>85.73560000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>1162070.0156</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>217</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>217</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1733,24 +1609,21 @@
         <v>13.6363</v>
       </c>
       <c r="G35" t="n">
-        <v>1162083.6519</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>217</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>217</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1772,24 +1645,21 @@
         <v>796.4871000000001</v>
       </c>
       <c r="G36" t="n">
-        <v>1161287.1648</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>217</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>217</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1811,24 +1681,21 @@
         <v>141</v>
       </c>
       <c r="G37" t="n">
-        <v>1161287.1648</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>217</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>217</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1850,24 +1717,21 @@
         <v>9319.3006</v>
       </c>
       <c r="G38" t="n">
-        <v>1151967.8642</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>217</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>217</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1889,24 +1753,21 @@
         <v>226.2661</v>
       </c>
       <c r="G39" t="n">
-        <v>1152194.1303</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>217</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>217</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1928,24 +1789,21 @@
         <v>311.311</v>
       </c>
       <c r="G40" t="n">
-        <v>1152505.4413</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>217</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>217</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1967,24 +1825,21 @@
         <v>188.0968</v>
       </c>
       <c r="G41" t="n">
-        <v>1152505.4413</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>217</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>217</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2006,24 +1861,21 @@
         <v>1747.3792</v>
       </c>
       <c r="G42" t="n">
-        <v>1152505.4413</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>217</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>217</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2045,24 +1897,21 @@
         <v>4741.1102</v>
       </c>
       <c r="G43" t="n">
-        <v>1147764.3311</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>217</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>217</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2084,24 +1933,21 @@
         <v>100.3455</v>
       </c>
       <c r="G44" t="n">
-        <v>1147864.6766</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>217</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>217</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2123,24 +1969,21 @@
         <v>390.2977</v>
       </c>
       <c r="G45" t="n">
-        <v>1147864.6766</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>217</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>217</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2162,24 +2005,21 @@
         <v>245.9644</v>
       </c>
       <c r="G46" t="n">
-        <v>1147864.6766</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>217</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>217</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2201,24 +2041,21 @@
         <v>3821.7357</v>
       </c>
       <c r="G47" t="n">
-        <v>1144042.9409</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>217</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>217</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2240,24 +2077,21 @@
         <v>1215.0747</v>
       </c>
       <c r="G48" t="n">
-        <v>1145258.0156</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>217</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>217</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2279,24 +2113,21 @@
         <v>887.4851</v>
       </c>
       <c r="G49" t="n">
-        <v>1145258.0156</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>217</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>217</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2318,24 +2149,21 @@
         <v>556.9005</v>
       </c>
       <c r="G50" t="n">
-        <v>1145258.0156</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>217</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>217</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2357,24 +2185,21 @@
         <v>240.9351</v>
       </c>
       <c r="G51" t="n">
-        <v>1145017.0805</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>217</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>217</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2396,24 +2221,21 @@
         <v>196.0143</v>
       </c>
       <c r="G52" t="n">
-        <v>1145017.0805</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>217</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>217</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2435,24 +2257,21 @@
         <v>1578.9201</v>
       </c>
       <c r="G53" t="n">
-        <v>1143438.1604</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>217</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>217</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2474,24 +2293,21 @@
         <v>98.23950000000001</v>
       </c>
       <c r="G54" t="n">
-        <v>1143536.3999</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>217</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>217</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2513,24 +2329,21 @@
         <v>2698.0109</v>
       </c>
       <c r="G55" t="n">
-        <v>1143536.3999</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>217</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>217</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2552,24 +2365,21 @@
         <v>26.1806</v>
       </c>
       <c r="G56" t="n">
-        <v>1143510.2193</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>217</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>217</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2591,24 +2401,21 @@
         <v>678.4423</v>
       </c>
       <c r="G57" t="n">
-        <v>1144188.6616</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>217</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>217</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2630,24 +2437,21 @@
         <v>633.9301</v>
       </c>
       <c r="G58" t="n">
-        <v>1144188.6616</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>217</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>217</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2669,24 +2473,21 @@
         <v>72.05889999999999</v>
       </c>
       <c r="G59" t="n">
-        <v>1144188.6616</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>217</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>217</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2708,24 +2509,21 @@
         <v>581.6115</v>
       </c>
       <c r="G60" t="n">
-        <v>1144188.6616</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>217</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>217</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2747,24 +2545,21 @@
         <v>494.0361</v>
       </c>
       <c r="G61" t="n">
-        <v>1144188.6616</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>217</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>217</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2786,24 +2581,21 @@
         <v>228.7561</v>
       </c>
       <c r="G62" t="n">
-        <v>1144188.6616</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>217</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>217</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2825,24 +2617,21 @@
         <v>308.471</v>
       </c>
       <c r="G63" t="n">
-        <v>1144188.6616</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>217</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>217</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2864,24 +2653,21 @@
         <v>31.7106</v>
       </c>
       <c r="G64" t="n">
-        <v>1144188.6616</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>217</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>217</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2903,24 +2689,21 @@
         <v>487.9231</v>
       </c>
       <c r="G65" t="n">
-        <v>1143700.7385</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>217</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>217</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2942,24 +2725,21 @@
         <v>492.9237</v>
       </c>
       <c r="G66" t="n">
-        <v>1144193.6622</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>217</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>217</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2981,24 +2761,21 @@
         <v>109.4175</v>
       </c>
       <c r="G67" t="n">
-        <v>1144193.6622</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>217</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>217</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3020,24 +2797,21 @@
         <v>6863.532</v>
       </c>
       <c r="G68" t="n">
-        <v>1137330.1302</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>217</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>217</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3059,24 +2833,21 @@
         <v>103.3729</v>
       </c>
       <c r="G69" t="n">
-        <v>1137433.5031</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>217</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>217</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3098,24 +2869,21 @@
         <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>1137434.5031</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>217</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>217</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3137,24 +2905,21 @@
         <v>8207.306399999999</v>
       </c>
       <c r="G71" t="n">
-        <v>1129227.1967</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>217</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>217</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3176,24 +2941,21 @@
         <v>159.5412844036697</v>
       </c>
       <c r="G72" t="n">
-        <v>1129386.737984404</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>217</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>217</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3215,24 +2977,21 @@
         <v>100</v>
       </c>
       <c r="G73" t="n">
-        <v>1129286.737984404</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>217</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>217</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3254,24 +3013,21 @@
         <v>736.8181</v>
       </c>
       <c r="G74" t="n">
-        <v>1128549.919884404</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>217</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>217</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3293,24 +3049,21 @@
         <v>127.0469</v>
       </c>
       <c r="G75" t="n">
-        <v>1128676.966784404</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>217</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>217</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3332,24 +3085,21 @@
         <v>2000</v>
       </c>
       <c r="G76" t="n">
-        <v>1128676.966784404</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>217</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>217</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3371,24 +3121,21 @@
         <v>1186.1785</v>
       </c>
       <c r="G77" t="n">
-        <v>1127490.788284404</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>217</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>217</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3410,24 +3157,21 @@
         <v>1685.8719</v>
       </c>
       <c r="G78" t="n">
-        <v>1127490.788284404</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>217</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>217</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3449,24 +3193,21 @@
         <v>3020</v>
       </c>
       <c r="G79" t="n">
-        <v>1130510.788284404</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>217</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>217</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3488,24 +3229,21 @@
         <v>2000</v>
       </c>
       <c r="G80" t="n">
-        <v>1128510.788284404</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>217</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>217</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3527,24 +3265,21 @@
         <v>196.6372</v>
       </c>
       <c r="G81" t="n">
-        <v>1128510.788284404</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>217</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>217</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3566,24 +3301,23 @@
         <v>694.4919</v>
       </c>
       <c r="G82" t="n">
-        <v>1128510.788284404</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>217</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>216</v>
+      </c>
+      <c r="I82" t="n">
+        <v>217</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3605,24 +3339,23 @@
         <v>1041.7378</v>
       </c>
       <c r="G83" t="n">
-        <v>1128510.788284404</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>217</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>216</v>
+      </c>
+      <c r="I83" t="n">
+        <v>217</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3644,24 +3377,23 @@
         <v>174.4602</v>
       </c>
       <c r="G84" t="n">
-        <v>1128510.788284404</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>217</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>216</v>
+      </c>
+      <c r="I84" t="n">
+        <v>217</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3683,24 +3415,23 @@
         <v>300</v>
       </c>
       <c r="G85" t="n">
-        <v>1128510.788284404</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>217</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>216</v>
+      </c>
+      <c r="I85" t="n">
+        <v>217</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3722,24 +3453,23 @@
         <v>802.4215</v>
       </c>
       <c r="G86" t="n">
-        <v>1129313.209784404</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>217</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>216</v>
+      </c>
+      <c r="I86" t="n">
+        <v>217</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3761,24 +3491,23 @@
         <v>275.9999</v>
       </c>
       <c r="G87" t="n">
-        <v>1129037.209884404</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>217</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>218</v>
+      </c>
+      <c r="I87" t="n">
+        <v>217</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3800,24 +3529,23 @@
         <v>2</v>
       </c>
       <c r="G88" t="n">
-        <v>1129039.209884404</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>217</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>216</v>
+      </c>
+      <c r="I88" t="n">
+        <v>217</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3839,24 +3567,21 @@
         <v>7108.2347</v>
       </c>
       <c r="G89" t="n">
-        <v>1121930.975184404</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>217</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>217</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3878,24 +3603,23 @@
         <v>4207.5688</v>
       </c>
       <c r="G90" t="n">
-        <v>1121930.975184404</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>217</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>217</v>
+      </c>
+      <c r="I90" t="n">
+        <v>217</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3917,24 +3641,23 @@
         <v>393.5432</v>
       </c>
       <c r="G91" t="n">
-        <v>1121930.975184404</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>217</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>217</v>
+      </c>
+      <c r="I91" t="n">
+        <v>217</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3956,24 +3679,21 @@
         <v>450.0691</v>
       </c>
       <c r="G92" t="n">
-        <v>1121930.975184404</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>217</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>217</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3995,24 +3715,21 @@
         <v>168.8315</v>
       </c>
       <c r="G93" t="n">
-        <v>1122099.806684404</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>217</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>217</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4034,24 +3751,21 @@
         <v>17</v>
       </c>
       <c r="G94" t="n">
-        <v>1122082.806684404</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>217</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>217</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4073,24 +3787,21 @@
         <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>1122083.806684404</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>217</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>217</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4112,24 +3823,21 @@
         <v>1009.7399</v>
       </c>
       <c r="G96" t="n">
-        <v>1121074.066784404</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>217</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>217</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4151,24 +3859,21 @@
         <v>1009.3133</v>
       </c>
       <c r="G97" t="n">
-        <v>1121074.066784404</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>217</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>217</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4190,24 +3895,21 @@
         <v>9945.0785</v>
       </c>
       <c r="G98" t="n">
-        <v>1121074.066784404</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>217</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>217</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4229,24 +3931,21 @@
         <v>180.395</v>
       </c>
       <c r="G99" t="n">
-        <v>1121074.066784404</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>217</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>217</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4268,24 +3967,21 @@
         <v>25.5878</v>
       </c>
       <c r="G100" t="n">
-        <v>1121099.654584404</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>217</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>217</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4307,24 +4003,21 @@
         <v>10</v>
       </c>
       <c r="G101" t="n">
-        <v>1121099.654584404</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>217</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>217</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4346,24 +4039,21 @@
         <v>396.3389</v>
       </c>
       <c r="G102" t="n">
-        <v>1121495.993484404</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>217</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>217</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4385,24 +4075,21 @@
         <v>1093.2978</v>
       </c>
       <c r="G103" t="n">
-        <v>1120402.695684404</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>217</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>217</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4424,24 +4111,21 @@
         <v>107.8944</v>
       </c>
       <c r="G104" t="n">
-        <v>1120510.590084404</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>217</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>217</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4463,24 +4147,21 @@
         <v>10.059</v>
       </c>
       <c r="G105" t="n">
-        <v>1120520.649084404</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>217</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>217</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4502,24 +4183,21 @@
         <v>3208.5919</v>
       </c>
       <c r="G106" t="n">
-        <v>1117312.057184404</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>217</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>217</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4541,24 +4219,21 @@
         <v>10.0338</v>
       </c>
       <c r="G107" t="n">
-        <v>1117312.057184404</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>217</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>217</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4580,24 +4255,21 @@
         <v>2</v>
       </c>
       <c r="G108" t="n">
-        <v>1117314.057184404</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>217</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>217</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4619,24 +4291,21 @@
         <v>972.6249</v>
       </c>
       <c r="G109" t="n">
-        <v>1117314.057184404</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>217</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>217</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4658,24 +4327,21 @@
         <v>2522.9356</v>
       </c>
       <c r="G110" t="n">
-        <v>1117314.057184404</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>217</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>217</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4697,24 +4363,21 @@
         <v>2</v>
       </c>
       <c r="G111" t="n">
-        <v>1117316.057184404</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>217</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>217</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4736,24 +4399,21 @@
         <v>18</v>
       </c>
       <c r="G112" t="n">
-        <v>1117316.057184404</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>217</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>217</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4775,24 +4435,21 @@
         <v>509.0296</v>
       </c>
       <c r="G113" t="n">
-        <v>1117316.057184404</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>217</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>217</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4814,24 +4471,21 @@
         <v>0.9704</v>
       </c>
       <c r="G114" t="n">
-        <v>1117316.057184404</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>217</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>217</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4853,24 +4507,21 @@
         <v>515</v>
       </c>
       <c r="G115" t="n">
-        <v>1117316.057184404</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>217</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>217</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4892,24 +4543,21 @@
         <v>2</v>
       </c>
       <c r="G116" t="n">
-        <v>1117318.057184404</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>217</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>217</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4931,24 +4579,21 @@
         <v>2021.0001</v>
       </c>
       <c r="G117" t="n">
-        <v>1117318.057184404</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>217</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>217</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4970,24 +4615,21 @@
         <v>2611.8411</v>
       </c>
       <c r="G118" t="n">
-        <v>1114706.216084404</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>217</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>217</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5009,24 +4651,21 @@
         <v>1239.1589</v>
       </c>
       <c r="G119" t="n">
-        <v>1114706.216084404</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>217</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>217</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5048,24 +4687,21 @@
         <v>680.3704</v>
       </c>
       <c r="G120" t="n">
-        <v>1114025.845684404</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>217</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>217</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5087,24 +4723,21 @@
         <v>104.8425</v>
       </c>
       <c r="G121" t="n">
-        <v>1114130.688184404</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>217</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>217</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5126,24 +4759,21 @@
         <v>327.6782</v>
       </c>
       <c r="G122" t="n">
-        <v>1114458.366384404</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>217</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>217</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5165,24 +4795,21 @@
         <v>15</v>
       </c>
       <c r="G123" t="n">
-        <v>1114473.366384404</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>217</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>217</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5204,24 +4831,21 @@
         <v>219.9901</v>
       </c>
       <c r="G124" t="n">
-        <v>1114253.376284404</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>217</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>217</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5243,24 +4867,21 @@
         <v>2970.9776</v>
       </c>
       <c r="G125" t="n">
-        <v>1117224.353884404</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>217</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>217</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5282,24 +4903,21 @@
         <v>907.725</v>
       </c>
       <c r="G126" t="n">
-        <v>1116316.628884404</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>217</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>217</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5321,24 +4939,21 @@
         <v>2</v>
       </c>
       <c r="G127" t="n">
-        <v>1116318.628884404</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>217</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>217</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5360,24 +4975,21 @@
         <v>1818</v>
       </c>
       <c r="G128" t="n">
-        <v>1116318.628884404</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>217</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>217</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5399,24 +5011,21 @@
         <v>1698.0667</v>
       </c>
       <c r="G129" t="n">
-        <v>1114620.562184404</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>217</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>217</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5438,24 +5047,21 @@
         <v>503.8498</v>
       </c>
       <c r="G130" t="n">
-        <v>1114620.562184404</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>217</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>217</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5477,24 +5083,21 @@
         <v>2997</v>
       </c>
       <c r="G131" t="n">
-        <v>1117617.562184404</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>217</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>217</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5516,24 +5119,21 @@
         <v>538</v>
       </c>
       <c r="G132" t="n">
-        <v>1117617.562184404</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>217</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>217</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5555,24 +5155,21 @@
         <v>1018</v>
       </c>
       <c r="G133" t="n">
-        <v>1117617.562184404</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>217</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>217</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5594,24 +5191,21 @@
         <v>2267.4445</v>
       </c>
       <c r="G134" t="n">
-        <v>1115350.117684404</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>217</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>217</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5633,24 +5227,21 @@
         <v>2</v>
       </c>
       <c r="G135" t="n">
-        <v>1115352.117684404</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>217</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>217</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5672,24 +5263,21 @@
         <v>2086.2856</v>
       </c>
       <c r="G136" t="n">
-        <v>1113265.832084404</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>217</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>217</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5711,24 +5299,21 @@
         <v>100</v>
       </c>
       <c r="G137" t="n">
-        <v>1113365.832084404</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>217</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>217</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5750,24 +5335,21 @@
         <v>1244</v>
       </c>
       <c r="G138" t="n">
-        <v>1112121.832084404</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>217</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>217</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5789,24 +5371,21 @@
         <v>815.9517</v>
       </c>
       <c r="G139" t="n">
-        <v>1112121.832084404</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>217</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>217</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5828,24 +5407,21 @@
         <v>533</v>
       </c>
       <c r="G140" t="n">
-        <v>1112121.832084404</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>217</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>217</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5867,24 +5443,21 @@
         <v>648</v>
       </c>
       <c r="G141" t="n">
-        <v>1112121.832084404</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>217</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>217</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5906,24 +5479,21 @@
         <v>2</v>
       </c>
       <c r="G142" t="n">
-        <v>1112123.832084404</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>217</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>217</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5945,24 +5515,21 @@
         <v>225.9226</v>
       </c>
       <c r="G143" t="n">
-        <v>1111897.909484404</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>217</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>217</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5984,24 +5551,21 @@
         <v>1818</v>
       </c>
       <c r="G144" t="n">
-        <v>1111897.909484404</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>217</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>217</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6023,24 +5587,21 @@
         <v>2</v>
       </c>
       <c r="G145" t="n">
-        <v>1111899.909484404</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>217</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>217</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6062,24 +5623,21 @@
         <v>408.3498</v>
       </c>
       <c r="G146" t="n">
-        <v>1111491.559684404</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>217</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>217</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6101,24 +5659,21 @@
         <v>363.6653</v>
       </c>
       <c r="G147" t="n">
-        <v>1111855.224984404</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>217</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>217</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6140,24 +5695,21 @@
         <v>3824.355</v>
       </c>
       <c r="G148" t="n">
-        <v>1115679.579984404</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>217</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>217</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6179,24 +5731,21 @@
         <v>17714.203</v>
       </c>
       <c r="G149" t="n">
-        <v>1115679.579984404</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>217</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>217</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6218,24 +5767,21 @@
         <v>312.8253</v>
       </c>
       <c r="G150" t="n">
-        <v>1115366.754684404</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>217</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>217</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6257,24 +5803,21 @@
         <v>466</v>
       </c>
       <c r="G151" t="n">
-        <v>1115366.754684404</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>217</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>217</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6296,24 +5839,21 @@
         <v>296.9336</v>
       </c>
       <c r="G152" t="n">
-        <v>1115366.754684404</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>217</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>217</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6335,24 +5875,21 @@
         <v>188.3432</v>
       </c>
       <c r="G153" t="n">
-        <v>1115366.754684404</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>217</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>217</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6374,24 +5911,21 @@
         <v>159.2864</v>
       </c>
       <c r="G154" t="n">
-        <v>1115366.754684404</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>217</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>217</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6413,24 +5947,21 @@
         <v>1850</v>
       </c>
       <c r="G155" t="n">
-        <v>1117216.754684404</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>217</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>217</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6452,24 +5983,21 @@
         <v>7446.9128</v>
       </c>
       <c r="G156" t="n">
-        <v>1124663.667484404</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>217</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>217</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6491,24 +6019,21 @@
         <v>637</v>
       </c>
       <c r="G157" t="n">
-        <v>1124663.667484404</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>217</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>217</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6530,24 +6055,21 @@
         <v>55597.9253</v>
       </c>
       <c r="G158" t="n">
-        <v>1180261.592784404</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>217</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>217</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6569,24 +6091,21 @@
         <v>1859.9999</v>
       </c>
       <c r="G159" t="n">
-        <v>1178401.592884404</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>217</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>217</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6608,24 +6127,21 @@
         <v>559.3546</v>
       </c>
       <c r="G160" t="n">
-        <v>1178960.947484404</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>217</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>217</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6647,24 +6163,21 @@
         <v>242</v>
       </c>
       <c r="G161" t="n">
-        <v>1178960.947484404</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>217</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>217</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6686,24 +6199,21 @@
         <v>1056.7978</v>
       </c>
       <c r="G162" t="n">
-        <v>1177904.149684404</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>217</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>217</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6725,24 +6235,21 @@
         <v>175.6057</v>
       </c>
       <c r="G163" t="n">
-        <v>1177904.149684404</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>217</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>217</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6764,24 +6271,21 @@
         <v>958.2474</v>
       </c>
       <c r="G164" t="n">
-        <v>1177904.149684404</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>217</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>217</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6803,24 +6307,21 @@
         <v>1067.6592</v>
       </c>
       <c r="G165" t="n">
-        <v>1178971.808884404</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>217</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>217</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6842,24 +6343,21 @@
         <v>3336.35</v>
       </c>
       <c r="G166" t="n">
-        <v>1175635.458884404</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>217</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>217</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6881,24 +6379,21 @@
         <v>162</v>
       </c>
       <c r="G167" t="n">
-        <v>1175797.458884404</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>217</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>217</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6920,24 +6415,21 @@
         <v>344</v>
       </c>
       <c r="G168" t="n">
-        <v>1175453.458884404</v>
-      </c>
-      <c r="H168" t="n">
         <v>2</v>
       </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>217</v>
-      </c>
-      <c r="K168" t="inlineStr">
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>217</v>
+      </c>
+      <c r="J168" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L168" t="n">
+      <c r="K168" t="n">
         <v>1.027258064516129</v>
       </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6959,18 +6451,15 @@
         <v>1811.2245</v>
       </c>
       <c r="G169" t="n">
-        <v>1173642.234384404</v>
-      </c>
-      <c r="H169" t="n">
         <v>2</v>
       </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6992,18 +6481,15 @@
         <v>2018.9561</v>
       </c>
       <c r="G170" t="n">
-        <v>1173642.234384404</v>
-      </c>
-      <c r="H170" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7025,18 +6511,15 @@
         <v>56.6444</v>
       </c>
       <c r="G171" t="n">
-        <v>1173698.878784404</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7058,18 +6541,15 @@
         <v>3276.4977</v>
       </c>
       <c r="G172" t="n">
-        <v>1170422.381084404</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7091,18 +6571,15 @@
         <v>3363.6412</v>
       </c>
       <c r="G173" t="n">
-        <v>1170422.381084404</v>
-      </c>
-      <c r="H173" t="n">
         <v>2</v>
       </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7124,18 +6601,15 @@
         <v>1224.49</v>
       </c>
       <c r="G174" t="n">
-        <v>1169197.891084404</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7157,18 +6631,15 @@
         <v>2155.8483</v>
       </c>
       <c r="G175" t="n">
-        <v>1169197.891084404</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
